--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="728">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2160,6 +2160,9 @@
     <t xml:space="preserve">KC_QUOTE</t>
   </si>
   <si>
+    <t xml:space="preserve">“</t>
+  </si>
+  <si>
     <t xml:space="preserve">KC_GRAVE</t>
   </si>
   <si>
@@ -2227,11 +2230,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2268,11 +2272,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -2285,11 +2284,6 @@
       <name val="Ubuntu Mono"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Ubuntu Mono"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2413,7 +2407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2438,7 +2432,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2446,7 +2440,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2458,131 +2452,131 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2590,27 +2584,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2622,7 +2616,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2631,14 +2625,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2666,10 +2652,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2678,15 +2660,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2699,30 +2681,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2797,7 +2755,7 @@
       <selection pane="topLeft" activeCell="I74" activeCellId="0" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
@@ -11245,11 +11203,11 @@
   <dimension ref="A1:AH115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL16" activeCellId="0" sqref="AL16"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12935,7 +12893,7 @@
       <c r="AE44" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="AF44" s="55" t="s">
+      <c r="AF44" s="22" t="s">
         <v>274</v>
       </c>
       <c r="AG44" s="51" t="s">
@@ -13015,7 +12973,7 @@
       <c r="AF46" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="AG46" s="56" t="s">
+      <c r="AG46" s="51" t="s">
         <v>178</v>
       </c>
       <c r="AH46" s="22" t="s">
@@ -13351,7 +13309,9 @@
     </row>
     <row r="55" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="36"/>
-      <c r="B55" s="37"/>
+      <c r="B55" s="37" t="s">
+        <v>660</v>
+      </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
       <c r="E55" s="38"/>
@@ -13488,7 +13448,9 @@
     </row>
     <row r="57" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
+      <c r="B57" s="37" t="s">
+        <v>627</v>
+      </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="38" t="s">
@@ -13648,7 +13610,9 @@
     </row>
     <row r="59" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="36"/>
-      <c r="B59" s="37"/>
+      <c r="B59" s="37" t="s">
+        <v>667</v>
+      </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="38" t="s">
@@ -13799,7 +13763,9 @@
     </row>
     <row r="61" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="B61" s="37" t="s">
+        <v>671</v>
+      </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="38"/>
@@ -13946,7 +13912,9 @@
     </row>
     <row r="63" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
+      <c r="B63" s="37" t="s">
+        <v>675</v>
+      </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
       <c r="E63" s="38"/>
@@ -14102,7 +14070,9 @@
     </row>
     <row r="65" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="36"/>
-      <c r="B65" s="37"/>
+      <c r="B65" s="37" t="s">
+        <v>668</v>
+      </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
@@ -14246,7 +14216,9 @@
     </row>
     <row r="67" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="36"/>
-      <c r="B67" s="37"/>
+      <c r="B67" s="37" t="s">
+        <v>661</v>
+      </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="38" t="s">
@@ -14394,7 +14366,9 @@
     </row>
     <row r="69" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="36"/>
-      <c r="B69" s="37"/>
+      <c r="B69" s="37" t="s">
+        <v>681</v>
+      </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="38" t="s">
@@ -14479,13 +14453,13 @@
       <c r="F70" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="H70" s="57" t="s">
+      <c r="H70" s="55" t="s">
         <v>134</v>
       </c>
       <c r="I70" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="J70" s="57"/>
+      <c r="J70" s="55"/>
       <c r="K70" s="15" t="n">
         <v>9</v>
       </c>
@@ -14549,7 +14523,9 @@
     </row>
     <row r="71" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="36"/>
-      <c r="B71" s="37"/>
+      <c r="B71" s="37" t="s">
+        <v>676</v>
+      </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="38" t="s">
@@ -14634,13 +14610,13 @@
       <c r="F72" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H72" s="57" t="s">
+      <c r="H72" s="55" t="s">
         <v>128</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="57"/>
+      <c r="J72" s="55"/>
       <c r="K72" s="15" t="s">
         <v>12</v>
       </c>
@@ -14704,7 +14680,9 @@
     </row>
     <row r="73" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="36"/>
-      <c r="B73" s="37"/>
+      <c r="B73" s="37" t="s">
+        <v>684</v>
+      </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="38" t="s">
@@ -15015,7 +14993,7 @@
       <c r="H84" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="I84" s="57" t="s">
+      <c r="I84" s="55" t="s">
         <v>70</v>
       </c>
       <c r="K84" s="15" t="s">
@@ -15072,7 +15050,9 @@
     </row>
     <row r="85" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="36"/>
-      <c r="B85" s="37"/>
+      <c r="B85" s="37" t="s">
+        <v>682</v>
+      </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="38" t="s">
@@ -15171,31 +15151,31 @@
       <c r="M86" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N86" s="58" t="s">
+      <c r="N86" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="O86" s="58" t="s">
+      <c r="O86" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="P86" s="58" t="s">
+      <c r="P86" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Q86" s="59" t="s">
+      <c r="Q86" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="R86" s="59" t="s">
+      <c r="R86" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="S86" s="59" t="s">
+      <c r="S86" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="T86" s="60" t="s">
+      <c r="T86" s="58" t="s">
         <v>678</v>
       </c>
-      <c r="U86" s="60" t="s">
+      <c r="U86" s="58" t="s">
         <v>682</v>
       </c>
-      <c r="V86" s="60" t="s">
+      <c r="V86" s="58" t="s">
         <v>678</v>
       </c>
       <c r="Z86" s="20" t="s">
@@ -15213,7 +15193,9 @@
     </row>
     <row r="87" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="36"/>
-      <c r="B87" s="37"/>
+      <c r="B87" s="37" t="s">
+        <v>672</v>
+      </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
       <c r="E87" s="38"/>
@@ -15291,7 +15273,7 @@
       <c r="H88" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="I88" s="57" t="s">
+      <c r="I88" s="55" t="s">
         <v>57</v>
       </c>
       <c r="K88" s="15" t="s">
@@ -15321,7 +15303,7 @@
       <c r="S88" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="T88" s="60" t="s">
+      <c r="T88" s="58" t="s">
         <v>164</v>
       </c>
       <c r="U88" s="18" t="s">
@@ -15354,7 +15336,9 @@
     </row>
     <row r="89" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="36"/>
-      <c r="B89" s="37"/>
+      <c r="B89" s="37" t="s">
+        <v>673</v>
+      </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
       <c r="E89" s="38"/>
@@ -15372,22 +15356,22 @@
       <c r="M89" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="N89" s="61" t="s">
+      <c r="N89" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="O89" s="61" t="s">
+      <c r="O89" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="61" t="s">
+      <c r="P89" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="Q89" s="62" t="s">
+      <c r="Q89" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="R89" s="62" t="s">
+      <c r="R89" s="60" t="s">
         <v>589</v>
       </c>
-      <c r="S89" s="62" t="s">
+      <c r="S89" s="60" t="s">
         <v>589</v>
       </c>
       <c r="T89" s="43" t="s">
@@ -15406,13 +15390,13 @@
       <c r="AC89" s="47"/>
       <c r="AD89" s="47"/>
       <c r="AE89" s="47"/>
-      <c r="AF89" s="63" t="s">
+      <c r="AF89" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AG89" s="63" t="s">
+      <c r="AG89" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AH89" s="63" t="s">
+      <c r="AH89" s="54" t="s">
         <v>64</v>
       </c>
     </row>
@@ -15450,31 +15434,31 @@
       <c r="M90" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="N90" s="58" t="s">
+      <c r="N90" s="56" t="s">
         <v>78</v>
       </c>
       <c r="O90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P90" s="58" t="s">
+      <c r="P90" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Q90" s="59" t="s">
+      <c r="Q90" s="57" t="s">
         <v>672</v>
       </c>
-      <c r="R90" s="59" t="s">
+      <c r="R90" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="S90" s="59" t="s">
+      <c r="S90" s="57" t="s">
         <v>672</v>
       </c>
-      <c r="T90" s="60" t="s">
+      <c r="T90" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="U90" s="60" t="s">
+      <c r="U90" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="V90" s="60"/>
+      <c r="V90" s="58"/>
       <c r="Z90" s="20" t="s">
         <v>535</v>
       </c>
@@ -15502,7 +15486,9 @@
     </row>
     <row r="91" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="36"/>
-      <c r="B91" s="37"/>
+      <c r="B91" s="37" t="s">
+        <v>686</v>
+      </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="38" t="s">
@@ -15512,13 +15498,13 @@
         <v>658</v>
       </c>
       <c r="G91" s="38"/>
-      <c r="H91" s="64" t="s">
+      <c r="H91" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I91" s="64" t="s">
+      <c r="I91" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="J91" s="64"/>
+      <c r="J91" s="61"/>
       <c r="K91" s="40" t="s">
         <v>581</v>
       </c>
@@ -15562,13 +15548,13 @@
       <c r="AC91" s="47"/>
       <c r="AD91" s="47"/>
       <c r="AE91" s="47"/>
-      <c r="AF91" s="63" t="s">
+      <c r="AF91" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="AG91" s="63" t="s">
+      <c r="AG91" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="AH91" s="63" t="s">
+      <c r="AH91" s="54" t="s">
         <v>88</v>
       </c>
     </row>
@@ -15651,7 +15637,9 @@
     </row>
     <row r="93" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="36"/>
-      <c r="B93" s="37"/>
+      <c r="B93" s="37" t="s">
+        <v>662</v>
+      </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="38"/>
@@ -15710,13 +15698,13 @@
         <v>702</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>667</v>
+        <v>16</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>667</v>
+        <v>16</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>703</v>
@@ -15787,7 +15775,9 @@
     </row>
     <row r="95" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="36"/>
-      <c r="B95" s="37"/>
+      <c r="B95" s="37" t="s">
+        <v>662</v>
+      </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="38" t="s">
@@ -15871,16 +15861,16 @@
       <c r="Q96" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R96" s="59" t="s">
+      <c r="R96" s="57" t="s">
         <v>134</v>
       </c>
       <c r="S96" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="T96" s="60" t="s">
+      <c r="T96" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="U96" s="60" t="s">
+      <c r="U96" s="58" t="s">
         <v>170</v>
       </c>
       <c r="Z96" s="20" t="s">
@@ -15898,7 +15888,7 @@
       <c r="AF96" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="AG96" s="56" t="s">
+      <c r="AG96" s="51" t="s">
         <v>59</v>
       </c>
       <c r="AH96" s="22" t="s">
@@ -15907,7 +15897,9 @@
     </row>
     <row r="97" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="36"/>
-      <c r="B97" s="37"/>
+      <c r="B97" s="37" t="s">
+        <v>626</v>
+      </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="38"/>
@@ -15947,13 +15939,13 @@
       <c r="AC97" s="47"/>
       <c r="AD97" s="47"/>
       <c r="AE97" s="47"/>
-      <c r="AF97" s="63" t="s">
+      <c r="AF97" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AG97" s="63" t="s">
+      <c r="AG97" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AH97" s="63" t="s">
+      <c r="AH97" s="54" t="s">
         <v>178</v>
       </c>
     </row>
@@ -15991,19 +15983,19 @@
       <c r="M98" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N98" s="58" t="s">
+      <c r="N98" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="O98" s="58" t="s">
+      <c r="O98" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="P98" s="58" t="s">
+      <c r="P98" s="56" t="s">
         <v>86</v>
       </c>
       <c r="Q98" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="R98" s="59" t="s">
+      <c r="R98" s="57" t="s">
         <v>150</v>
       </c>
       <c r="S98" s="17" t="s">
@@ -16039,7 +16031,9 @@
     </row>
     <row r="99" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="36"/>
-      <c r="B99" s="37"/>
+      <c r="B99" s="37" t="s">
+        <v>706</v>
+      </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
       <c r="E99" s="38"/>
@@ -16087,7 +16081,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>18</v>
@@ -16108,48 +16102,48 @@
         <v>668</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I100" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="K100" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="K100" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="L100" s="65" t="s">
+      <c r="L100" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="M100" s="65" t="s">
+      <c r="M100" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="N100" s="58" t="s">
+      <c r="N100" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="58" t="s">
+      <c r="O100" s="56" t="s">
         <v>662</v>
       </c>
-      <c r="P100" s="58" t="s">
+      <c r="P100" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="59" t="s">
+      <c r="Q100" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="59" t="s">
+      <c r="R100" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="S100" s="59" t="s">
+      <c r="S100" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="60" t="s">
+      <c r="T100" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="U100" s="60" t="s">
+      <c r="U100" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="V100" s="60"/>
+      <c r="V100" s="58"/>
       <c r="Z100" s="20" t="s">
         <v>517</v>
       </c>
@@ -16174,7 +16168,9 @@
     </row>
     <row r="101" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="36"/>
-      <c r="B101" s="37"/>
+      <c r="B101" s="37" t="s">
+        <v>658</v>
+      </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="38"/>
@@ -16220,7 +16216,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>10</v>
@@ -16238,7 +16234,7 @@
         <v>625</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K102" s="15" t="s">
         <v>612</v>
@@ -16300,7 +16296,9 @@
     </row>
     <row r="103" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="36"/>
-      <c r="B103" s="37"/>
+      <c r="B103" s="37" t="s">
+        <v>703</v>
+      </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="38"/>
@@ -16315,13 +16313,13 @@
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
       <c r="P103" s="41"/>
-      <c r="Q103" s="62" t="s">
+      <c r="Q103" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="R103" s="62" t="s">
+      <c r="R103" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="S103" s="62" t="s">
+      <c r="S103" s="60" t="s">
         <v>64</v>
       </c>
       <c r="T103" s="43"/>
@@ -16342,16 +16340,16 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>710</v>
-      </c>
-      <c r="B104" s="12" t="s">
-        <v>709</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>663</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>626</v>
@@ -16363,31 +16361,31 @@
         <v>608</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="L104" s="15" t="s">
         <v>626</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O104" s="16" t="s">
         <v>626</v>
       </c>
       <c r="P104" s="16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q104" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R104" s="17" t="s">
         <v>626</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="T104" s="18" t="s">
         <v>134</v>
@@ -16405,24 +16403,26 @@
         <v>306</v>
       </c>
       <c r="AD104" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AE104" s="21" t="s">
         <v>306</v>
       </c>
       <c r="AF104" s="22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AG104" s="22" t="s">
         <v>663</v>
       </c>
       <c r="AH104" s="22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="36"/>
-      <c r="B105" s="37"/>
+      <c r="B105" s="37" t="s">
+        <v>663</v>
+      </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="38"/>
@@ -16437,13 +16437,13 @@
       <c r="N105" s="41"/>
       <c r="O105" s="41"/>
       <c r="P105" s="41"/>
-      <c r="Q105" s="62" t="s">
+      <c r="Q105" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="R105" s="62" t="s">
+      <c r="R105" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="S105" s="62" t="s">
+      <c r="S105" s="60" t="s">
         <v>88</v>
       </c>
       <c r="T105" s="43"/>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B106" s="12" t="s">
         <v>608</v>
@@ -16518,13 +16518,13 @@
         <v>678</v>
       </c>
       <c r="T106" s="18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="U106" s="18" t="s">
         <v>626</v>
       </c>
       <c r="V106" s="18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Z106" s="20" t="s">
         <v>502</v>
@@ -16552,6 +16552,9 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="12" t="s">
+        <v>613</v>
+      </c>
       <c r="Q107" s="17" t="s">
         <v>70</v>
       </c>
@@ -16563,402 +16566,402 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="C108" s="66" t="s">
+      <c r="A108" s="63"/>
+      <c r="B108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="D108" s="66" t="s">
+      <c r="C108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="E108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="F108" s="66" t="s">
+      <c r="D108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="E108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="G108" s="66" t="s">
+      <c r="F108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="H108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="I108" s="66" t="s">
+      <c r="G108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="H108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="J108" s="66" t="s">
+      <c r="I108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="K108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="L108" s="66" t="s">
+      <c r="J108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="K108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="M108" s="66" t="s">
+      <c r="L108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="N108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="O108" s="66" t="s">
+      <c r="M108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="N108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="P108" s="66" t="s">
+      <c r="O108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="Q108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="R108" s="66" t="s">
+      <c r="P108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="S108" s="66" t="s">
+      <c r="R108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="T108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="U108" s="66" t="s">
+      <c r="S108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="T108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="V108" s="66" t="s">
+      <c r="U108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="W108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="X108" s="66" t="s">
+      <c r="V108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="W108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="Y108" s="66" t="s">
+      <c r="X108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="Z108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="AA108" s="66" t="s">
+      <c r="Y108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="Z108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="AB108" s="66" t="s">
+      <c r="AA108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="AC108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="AD108" s="66" t="s">
+      <c r="AB108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="AC108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="AE108" s="66" t="s">
+      <c r="AD108" s="63" t="s">
         <v>714</v>
       </c>
-      <c r="AF108" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="AG108" s="66" t="s">
+      <c r="AE108" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF108" s="63" t="s">
         <v>713</v>
       </c>
-      <c r="AH108" s="66" t="s">
+      <c r="AG108" s="63" t="s">
         <v>714</v>
       </c>
+      <c r="AH108" s="63" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="K109" s="66"/>
-      <c r="L109" s="66"/>
-      <c r="M109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="N109" s="66"/>
-      <c r="O109" s="66"/>
-      <c r="P109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q109" s="66"/>
-      <c r="R109" s="66"/>
-      <c r="S109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="T109" s="66"/>
-      <c r="U109" s="66"/>
-      <c r="V109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="W109" s="66"/>
-      <c r="X109" s="66"/>
-      <c r="Y109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="Z109" s="66"/>
-      <c r="AA109" s="66"/>
-      <c r="AB109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="AC109" s="66"/>
-      <c r="AD109" s="66"/>
-      <c r="AE109" s="67" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF109" s="66"/>
-      <c r="AG109" s="66"/>
-      <c r="AH109" s="67" t="s">
-        <v>715</v>
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="K109" s="63"/>
+      <c r="L109" s="63"/>
+      <c r="M109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="N109" s="63"/>
+      <c r="O109" s="63"/>
+      <c r="P109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q109" s="63"/>
+      <c r="R109" s="63"/>
+      <c r="S109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="T109" s="63"/>
+      <c r="U109" s="63"/>
+      <c r="V109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="W109" s="63"/>
+      <c r="X109" s="63"/>
+      <c r="Y109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z109" s="63"/>
+      <c r="AA109" s="63"/>
+      <c r="AB109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC109" s="63"/>
+      <c r="AD109" s="63"/>
+      <c r="AE109" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF109" s="63"/>
+      <c r="AG109" s="63"/>
+      <c r="AH109" s="64" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="66"/>
-      <c r="L110" s="66"/>
-      <c r="M110" s="66"/>
-      <c r="N110" s="66"/>
-      <c r="O110" s="66"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="66"/>
-      <c r="R110" s="66"/>
-      <c r="S110" s="66"/>
-      <c r="T110" s="66"/>
-      <c r="U110" s="66"/>
-      <c r="V110" s="66"/>
-      <c r="W110" s="66"/>
-      <c r="X110" s="66"/>
-      <c r="Y110" s="66"/>
-      <c r="Z110" s="66"/>
-      <c r="AA110" s="66"/>
-      <c r="AB110" s="66"/>
-      <c r="AC110" s="66"/>
-      <c r="AD110" s="66"/>
-      <c r="AE110" s="66"/>
-      <c r="AF110" s="66"/>
-      <c r="AG110" s="66"/>
-      <c r="AH110" s="66"/>
+      <c r="A110" s="63"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="63"/>
+      <c r="F110" s="63"/>
+      <c r="G110" s="63"/>
+      <c r="H110" s="63"/>
+      <c r="I110" s="63"/>
+      <c r="J110" s="63"/>
+      <c r="K110" s="63"/>
+      <c r="L110" s="63"/>
+      <c r="M110" s="63"/>
+      <c r="N110" s="63"/>
+      <c r="O110" s="63"/>
+      <c r="P110" s="63"/>
+      <c r="Q110" s="63"/>
+      <c r="R110" s="63"/>
+      <c r="S110" s="63"/>
+      <c r="T110" s="63"/>
+      <c r="U110" s="63"/>
+      <c r="V110" s="63"/>
+      <c r="W110" s="63"/>
+      <c r="X110" s="63"/>
+      <c r="Y110" s="63"/>
+      <c r="Z110" s="63"/>
+      <c r="AA110" s="63"/>
+      <c r="AB110" s="63"/>
+      <c r="AC110" s="63"/>
+      <c r="AD110" s="63"/>
+      <c r="AE110" s="63"/>
+      <c r="AF110" s="63"/>
+      <c r="AG110" s="63"/>
+      <c r="AH110" s="63"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="66"/>
-      <c r="B111" s="68" t="s">
-        <v>716</v>
-      </c>
-      <c r="C111" s="68"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="68" t="s">
+      <c r="A111" s="63"/>
+      <c r="B111" s="65" t="s">
         <v>717</v>
       </c>
-      <c r="F111" s="68"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="68" t="s">
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65" t="s">
         <v>718</v>
       </c>
-      <c r="I111" s="68"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68" t="s">
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65" t="s">
         <v>719</v>
       </c>
-      <c r="L111" s="68"/>
-      <c r="M111" s="68"/>
-      <c r="N111" s="68" t="s">
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65" t="s">
         <v>720</v>
       </c>
-      <c r="O111" s="68"/>
-      <c r="P111" s="68"/>
-      <c r="Q111" s="68" t="s">
+      <c r="L111" s="65"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65" t="s">
         <v>721</v>
       </c>
-      <c r="R111" s="68"/>
-      <c r="S111" s="68"/>
-      <c r="T111" s="68" t="s">
+      <c r="O111" s="65"/>
+      <c r="P111" s="65"/>
+      <c r="Q111" s="65" t="s">
         <v>722</v>
       </c>
-      <c r="U111" s="68"/>
-      <c r="V111" s="68"/>
-      <c r="W111" s="68" t="s">
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65" t="s">
         <v>723</v>
       </c>
-      <c r="X111" s="68"/>
-      <c r="Y111" s="68"/>
-      <c r="Z111" s="68" t="s">
+      <c r="U111" s="65"/>
+      <c r="V111" s="65"/>
+      <c r="W111" s="65" t="s">
         <v>724</v>
       </c>
-      <c r="AA111" s="68"/>
-      <c r="AB111" s="68"/>
-      <c r="AC111" s="68" t="s">
+      <c r="X111" s="65"/>
+      <c r="Y111" s="65"/>
+      <c r="Z111" s="65" t="s">
         <v>725</v>
       </c>
-      <c r="AD111" s="68"/>
-      <c r="AE111" s="68"/>
-      <c r="AF111" s="68" t="s">
+      <c r="AA111" s="65"/>
+      <c r="AB111" s="65"/>
+      <c r="AC111" s="65" t="s">
         <v>726</v>
       </c>
-      <c r="AG111" s="68"/>
-      <c r="AH111" s="68"/>
+      <c r="AD111" s="65"/>
+      <c r="AE111" s="65"/>
+      <c r="AF111" s="65" t="s">
+        <v>727</v>
+      </c>
+      <c r="AG111" s="65"/>
+      <c r="AH111" s="65"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="66"/>
-      <c r="M112" s="66"/>
-      <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="66"/>
-      <c r="R112" s="66"/>
-      <c r="S112" s="66"/>
-      <c r="T112" s="66"/>
-      <c r="U112" s="66"/>
-      <c r="V112" s="66"/>
-      <c r="W112" s="66"/>
-      <c r="X112" s="66"/>
-      <c r="Y112" s="66"/>
-      <c r="Z112" s="66"/>
-      <c r="AA112" s="66"/>
-      <c r="AB112" s="66"/>
-      <c r="AC112" s="66"/>
-      <c r="AD112" s="66"/>
-      <c r="AE112" s="66"/>
-      <c r="AF112" s="66"/>
-      <c r="AG112" s="66"/>
-      <c r="AH112" s="66"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="63"/>
+      <c r="L112" s="63"/>
+      <c r="M112" s="63"/>
+      <c r="N112" s="63"/>
+      <c r="O112" s="63"/>
+      <c r="P112" s="63"/>
+      <c r="Q112" s="63"/>
+      <c r="R112" s="63"/>
+      <c r="S112" s="63"/>
+      <c r="T112" s="63"/>
+      <c r="U112" s="63"/>
+      <c r="V112" s="63"/>
+      <c r="W112" s="63"/>
+      <c r="X112" s="63"/>
+      <c r="Y112" s="63"/>
+      <c r="Z112" s="63"/>
+      <c r="AA112" s="63"/>
+      <c r="AB112" s="63"/>
+      <c r="AC112" s="63"/>
+      <c r="AD112" s="63"/>
+      <c r="AE112" s="63"/>
+      <c r="AF112" s="63"/>
+      <c r="AG112" s="63"/>
+      <c r="AH112" s="63"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="66"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="66"/>
-      <c r="V113" s="66"/>
-      <c r="W113" s="66"/>
-      <c r="X113" s="66"/>
-      <c r="Y113" s="66"/>
-      <c r="Z113" s="66"/>
-      <c r="AA113" s="66"/>
-      <c r="AB113" s="66"/>
-      <c r="AC113" s="66"/>
-      <c r="AD113" s="66"/>
-      <c r="AE113" s="66"/>
-      <c r="AF113" s="66"/>
-      <c r="AG113" s="66"/>
-      <c r="AH113" s="66"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
+      <c r="H113" s="63"/>
+      <c r="I113" s="63"/>
+      <c r="J113" s="63"/>
+      <c r="K113" s="63"/>
+      <c r="L113" s="63"/>
+      <c r="M113" s="63"/>
+      <c r="N113" s="63"/>
+      <c r="O113" s="63"/>
+      <c r="P113" s="63"/>
+      <c r="Q113" s="63"/>
+      <c r="R113" s="63"/>
+      <c r="S113" s="63"/>
+      <c r="T113" s="63"/>
+      <c r="U113" s="63"/>
+      <c r="V113" s="63"/>
+      <c r="W113" s="63"/>
+      <c r="X113" s="63"/>
+      <c r="Y113" s="63"/>
+      <c r="Z113" s="63"/>
+      <c r="AA113" s="63"/>
+      <c r="AB113" s="63"/>
+      <c r="AC113" s="63"/>
+      <c r="AD113" s="63"/>
+      <c r="AE113" s="63"/>
+      <c r="AF113" s="63"/>
+      <c r="AG113" s="63"/>
+      <c r="AH113" s="63"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="66"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="66"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="66"/>
-      <c r="R114" s="66"/>
-      <c r="S114" s="66"/>
-      <c r="T114" s="66"/>
-      <c r="U114" s="66"/>
-      <c r="V114" s="66"/>
-      <c r="W114" s="66"/>
-      <c r="X114" s="66"/>
-      <c r="Y114" s="66"/>
-      <c r="Z114" s="66"/>
-      <c r="AA114" s="66"/>
-      <c r="AB114" s="66"/>
-      <c r="AC114" s="66"/>
-      <c r="AD114" s="66"/>
-      <c r="AE114" s="66"/>
-      <c r="AF114" s="66"/>
-      <c r="AG114" s="66"/>
-      <c r="AH114" s="66"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="63"/>
+      <c r="E114" s="63"/>
+      <c r="F114" s="63"/>
+      <c r="G114" s="63"/>
+      <c r="H114" s="63"/>
+      <c r="I114" s="63"/>
+      <c r="J114" s="63"/>
+      <c r="K114" s="63"/>
+      <c r="L114" s="63"/>
+      <c r="M114" s="63"/>
+      <c r="N114" s="63"/>
+      <c r="O114" s="63"/>
+      <c r="P114" s="63"/>
+      <c r="Q114" s="63"/>
+      <c r="R114" s="63"/>
+      <c r="S114" s="63"/>
+      <c r="T114" s="63"/>
+      <c r="U114" s="63"/>
+      <c r="V114" s="63"/>
+      <c r="W114" s="63"/>
+      <c r="X114" s="63"/>
+      <c r="Y114" s="63"/>
+      <c r="Z114" s="63"/>
+      <c r="AA114" s="63"/>
+      <c r="AB114" s="63"/>
+      <c r="AC114" s="63"/>
+      <c r="AD114" s="63"/>
+      <c r="AE114" s="63"/>
+      <c r="AF114" s="63"/>
+      <c r="AG114" s="63"/>
+      <c r="AH114" s="63"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="66"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="66"/>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="66"/>
-      <c r="S115" s="66"/>
-      <c r="T115" s="66"/>
-      <c r="U115" s="66"/>
-      <c r="V115" s="66"/>
-      <c r="W115" s="66"/>
-      <c r="X115" s="66"/>
-      <c r="Y115" s="66"/>
-      <c r="Z115" s="66"/>
-      <c r="AA115" s="66"/>
-      <c r="AB115" s="66"/>
-      <c r="AC115" s="66"/>
-      <c r="AD115" s="66"/>
-      <c r="AE115" s="66"/>
-      <c r="AF115" s="66"/>
-      <c r="AG115" s="66"/>
-      <c r="AH115" s="66"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
+      <c r="K115" s="63"/>
+      <c r="L115" s="63"/>
+      <c r="M115" s="63"/>
+      <c r="N115" s="63"/>
+      <c r="O115" s="63"/>
+      <c r="P115" s="63"/>
+      <c r="Q115" s="63"/>
+      <c r="R115" s="63"/>
+      <c r="S115" s="63"/>
+      <c r="T115" s="63"/>
+      <c r="U115" s="63"/>
+      <c r="V115" s="63"/>
+      <c r="W115" s="63"/>
+      <c r="X115" s="63"/>
+      <c r="Y115" s="63"/>
+      <c r="Z115" s="63"/>
+      <c r="AA115" s="63"/>
+      <c r="AB115" s="63"/>
+      <c r="AC115" s="63"/>
+      <c r="AD115" s="63"/>
+      <c r="AE115" s="63"/>
+      <c r="AF115" s="63"/>
+      <c r="AG115" s="63"/>
+      <c r="AH115" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="named_glyphs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="745">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1245,9 +1245,60 @@
     <t xml:space="preserve">20ac</t>
   </si>
   <si>
+    <t xml:space="preserve">TECHNICAL_COMMAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL_OPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL_ERASERIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNICAL_ERASELEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232B</t>
+  </si>
+  <si>
     <t xml:space="preserve">DINGBAT_BLACK_DIA_X</t>
   </si>
   <si>
+    <t xml:space="preserve">ARROWS_LEFTSTOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROWS_UPSTOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROWS_RIGHTSTOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROWS_DOWNSTOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROWS_TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B7E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARROWS_RETURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2BA0</t>
+  </si>
+  <si>
     <t xml:space="preserve">CJK_IDEOG_COMMA</t>
   </si>
   <si>
@@ -1675,6 +1726,12 @@
   </si>
   <si>
     <t xml:space="preserve">E3E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_LOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E512</t>
   </si>
   <si>
     <t xml:space="preserve">ARABIC_LAM_ALEF_MADDA</t>
@@ -2106,9 +2163,6 @@
     <t xml:space="preserve">KC_ENTER</t>
   </si>
   <si>
-    <t xml:space="preserve">Ent</t>
-  </si>
-  <si>
     <t xml:space="preserve">KC_ESCAPE</t>
   </si>
   <si>
@@ -2119,9 +2173,6 @@
   </si>
   <si>
     <t xml:space="preserve">KC_TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tab</t>
   </si>
   <si>
     <t xml:space="preserve">KC_SPACE</t>
@@ -2235,7 +2286,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2284,6 +2335,11 @@
       <name val="Ubuntu Mono"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2407,7 +2463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2632,6 +2688,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2749,13 +2813,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I74" activeCellId="0" sqref="I74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A255" activeCellId="0" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
@@ -8691,68 +8755,68 @@
       <c r="A248" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B248" s="1" t="n">
-        <v>2756</v>
+      <c r="B248" s="10" t="n">
+        <v>2318</v>
       </c>
       <c r="C248" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B248)</f>
-        <v>10070</v>
+        <v>8984</v>
       </c>
       <c r="D248" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C248,4)</f>
-        <v>2756</v>
+        <v>2318</v>
       </c>
       <c r="E248" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C248)</f>
-        <v>❖</v>
+        <v>⌘</v>
       </c>
       <c r="F248" s="0" t="n">
         <f aca="false">C248-C247</f>
-        <v>1706</v>
+        <v>620</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B249" s="1" t="n">
-        <v>3001</v>
+      <c r="B249" s="10" t="n">
+        <v>2325</v>
       </c>
       <c r="C249" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B249)</f>
-        <v>12289</v>
+        <v>8997</v>
       </c>
       <c r="D249" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C249,4)</f>
-        <v>3001</v>
+        <v>2325</v>
       </c>
       <c r="E249" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C249)</f>
-        <v>、</v>
+        <v>⌥</v>
       </c>
       <c r="F249" s="0" t="n">
         <f aca="false">C249-C248</f>
-        <v>2219</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B250" s="1" t="n">
-        <v>3002</v>
+      <c r="B250" s="10" t="n">
+        <v>2326</v>
       </c>
       <c r="C250" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B250)</f>
-        <v>12290</v>
+        <v>8998</v>
       </c>
       <c r="D250" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C250,4)</f>
-        <v>3002</v>
+        <v>2326</v>
       </c>
       <c r="E250" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C250)</f>
-        <v>。</v>
+        <v>⌦</v>
       </c>
       <c r="F250" s="0" t="n">
         <f aca="false">C250-C249</f>
@@ -8763,92 +8827,92 @@
       <c r="A251" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="B251" s="9" t="s">
         <v>411</v>
       </c>
       <c r="C251" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B251)</f>
-        <v>12300</v>
+        <v>9003</v>
       </c>
       <c r="D251" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C251,4)</f>
-        <v>300C</v>
+        <v>232B</v>
       </c>
       <c r="E251" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C251)</f>
-        <v>「</v>
+        <v>⌫</v>
       </c>
       <c r="F251" s="0" t="n">
         <f aca="false">C251-C250</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>413</v>
+      <c r="B252" s="1" t="n">
+        <v>2756</v>
       </c>
       <c r="C252" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B252)</f>
-        <v>12301</v>
+        <v>10070</v>
       </c>
       <c r="D252" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C252,4)</f>
-        <v>300D</v>
+        <v>2756</v>
       </c>
       <c r="E252" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C252)</f>
-        <v>」</v>
+        <v>❖</v>
       </c>
       <c r="F252" s="0" t="n">
         <f aca="false">C252-C251</f>
-        <v>1</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B253" s="1" t="n">
-        <v>3041</v>
       </c>
       <c r="C253" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B253)</f>
-        <v>12353</v>
+        <v>11120</v>
       </c>
       <c r="D253" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C253,4)</f>
-        <v>3041</v>
+        <v>2B70</v>
       </c>
       <c r="E253" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C253)</f>
-        <v>ぁ</v>
+        <v>⭰</v>
       </c>
       <c r="F253" s="0" t="n">
         <f aca="false">C253-C252</f>
-        <v>52</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B254" s="1" t="n">
-        <v>3042</v>
+      <c r="B254" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C254" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B254)</f>
-        <v>12354</v>
+        <v>11121</v>
       </c>
       <c r="D254" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C254,4)</f>
-        <v>3042</v>
+        <v>2B71</v>
       </c>
       <c r="E254" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C254)</f>
-        <v>あ</v>
+        <v>⭱</v>
       </c>
       <c r="F254" s="0" t="n">
         <f aca="false">C254-C253</f>
@@ -8857,22 +8921,22 @@
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B255" s="1" t="n">
-        <v>3043</v>
+        <v>417</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C255" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B255)</f>
-        <v>12355</v>
+        <v>11122</v>
       </c>
       <c r="D255" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C255,4)</f>
-        <v>3043</v>
+        <v>2B72</v>
       </c>
       <c r="E255" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C255)</f>
-        <v>ぃ</v>
+        <v>⭲</v>
       </c>
       <c r="F255" s="0" t="n">
         <f aca="false">C255-C254</f>
@@ -8881,22 +8945,22 @@
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="B256" s="1" t="n">
-        <v>3044</v>
+        <v>419</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C256" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B256)</f>
-        <v>12356</v>
+        <v>11123</v>
       </c>
       <c r="D256" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C256,4)</f>
-        <v>3044</v>
+        <v>2B73</v>
       </c>
       <c r="E256" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C256)</f>
-        <v>い</v>
+        <v>⭳</v>
       </c>
       <c r="F256" s="0" t="n">
         <f aca="false">C256-C255</f>
@@ -8905,94 +8969,94 @@
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B257" s="1" t="n">
-        <v>3045</v>
+        <v>421</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="C257" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B257)</f>
-        <v>12357</v>
+        <v>11134</v>
       </c>
       <c r="D257" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C257,4)</f>
-        <v>3045</v>
+        <v>2B7E</v>
       </c>
       <c r="E257" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C257)</f>
-        <v>ぅ</v>
+        <v>⭾</v>
       </c>
       <c r="F257" s="0" t="n">
         <f aca="false">C257-C256</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B258" s="1" t="n">
-        <v>3046</v>
+        <v>423</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="C258" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B258)</f>
-        <v>12358</v>
+        <v>11168</v>
       </c>
       <c r="D258" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C258,4)</f>
-        <v>3046</v>
+        <v>2BA0</v>
       </c>
       <c r="E258" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C258)</f>
-        <v>う</v>
+        <v>⮠</v>
       </c>
       <c r="F258" s="0" t="n">
         <f aca="false">C258-C257</f>
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>3047</v>
+        <v>3001</v>
       </c>
       <c r="C259" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B259)</f>
-        <v>12359</v>
+        <v>12289</v>
       </c>
       <c r="D259" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C259,4)</f>
-        <v>3047</v>
+        <v>3001</v>
       </c>
       <c r="E259" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C259)</f>
-        <v>ぇ</v>
+        <v>、</v>
       </c>
       <c r="F259" s="0" t="n">
         <f aca="false">C259-C258</f>
-        <v>1</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>3048</v>
+        <v>3002</v>
       </c>
       <c r="C260" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B260)</f>
-        <v>12360</v>
+        <v>12290</v>
       </c>
       <c r="D260" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C260,4)</f>
-        <v>3048</v>
+        <v>3002</v>
       </c>
       <c r="E260" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C260)</f>
-        <v>え</v>
+        <v>。</v>
       </c>
       <c r="F260" s="0" t="n">
         <f aca="false">C260-C259</f>
@@ -9001,46 +9065,46 @@
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B261" s="1" t="n">
-        <v>3049</v>
+        <v>427</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C261" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B261)</f>
-        <v>12361</v>
+        <v>12300</v>
       </c>
       <c r="D261" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C261,4)</f>
-        <v>3049</v>
+        <v>300C</v>
       </c>
       <c r="E261" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C261)</f>
-        <v>ぉ</v>
+        <v>「</v>
       </c>
       <c r="F261" s="0" t="n">
         <f aca="false">C261-C260</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C262" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B262)</f>
-        <v>12362</v>
+        <v>12301</v>
       </c>
       <c r="D262" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C262,4)</f>
-        <v>304A</v>
+        <v>300D</v>
       </c>
       <c r="E262" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C262)</f>
-        <v>お</v>
+        <v>」</v>
       </c>
       <c r="F262" s="0" t="n">
         <f aca="false">C262-C261</f>
@@ -9049,46 +9113,46 @@
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>3041</v>
       </c>
       <c r="C263" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B263)</f>
-        <v>12363</v>
+        <v>12353</v>
       </c>
       <c r="D263" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C263,4)</f>
-        <v>304B</v>
+        <v>3041</v>
       </c>
       <c r="E263" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C263)</f>
-        <v>か</v>
+        <v>ぁ</v>
       </c>
       <c r="F263" s="0" t="n">
         <f aca="false">C263-C262</f>
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>3042</v>
       </c>
       <c r="C264" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B264)</f>
-        <v>12364</v>
+        <v>12354</v>
       </c>
       <c r="D264" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C264,4)</f>
-        <v>304C</v>
+        <v>3042</v>
       </c>
       <c r="E264" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C264)</f>
-        <v>が</v>
+        <v>あ</v>
       </c>
       <c r="F264" s="0" t="n">
         <f aca="false">C264-C263</f>
@@ -9097,22 +9161,22 @@
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>3043</v>
       </c>
       <c r="C265" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B265)</f>
-        <v>12365</v>
+        <v>12355</v>
       </c>
       <c r="D265" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C265,4)</f>
-        <v>304D</v>
+        <v>3043</v>
       </c>
       <c r="E265" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C265)</f>
-        <v>き</v>
+        <v>ぃ</v>
       </c>
       <c r="F265" s="0" t="n">
         <f aca="false">C265-C264</f>
@@ -9121,22 +9185,22 @@
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>3044</v>
       </c>
       <c r="C266" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B266)</f>
-        <v>12366</v>
+        <v>12356</v>
       </c>
       <c r="D266" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C266,4)</f>
-        <v>304E</v>
+        <v>3044</v>
       </c>
       <c r="E266" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C266)</f>
-        <v>ぎ</v>
+        <v>い</v>
       </c>
       <c r="F266" s="0" t="n">
         <f aca="false">C266-C265</f>
@@ -9145,22 +9209,22 @@
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>3045</v>
       </c>
       <c r="C267" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B267)</f>
-        <v>12367</v>
+        <v>12357</v>
       </c>
       <c r="D267" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C267,4)</f>
-        <v>304F</v>
+        <v>3045</v>
       </c>
       <c r="E267" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C267)</f>
-        <v>く</v>
+        <v>ぅ</v>
       </c>
       <c r="F267" s="0" t="n">
         <f aca="false">C267-C266</f>
@@ -9169,22 +9233,22 @@
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B268" s="1" t="n">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="C268" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B268)</f>
-        <v>12368</v>
+        <v>12358</v>
       </c>
       <c r="D268" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C268,4)</f>
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="E268" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C268)</f>
-        <v>ぐ</v>
+        <v>う</v>
       </c>
       <c r="F268" s="0" t="n">
         <f aca="false">C268-C267</f>
@@ -9193,22 +9257,22 @@
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B269" s="1" t="n">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="C269" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B269)</f>
-        <v>12369</v>
+        <v>12359</v>
       </c>
       <c r="D269" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C269,4)</f>
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="E269" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C269)</f>
-        <v>け</v>
+        <v>ぇ</v>
       </c>
       <c r="F269" s="0" t="n">
         <f aca="false">C269-C268</f>
@@ -9217,22 +9281,22 @@
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B270" s="1" t="n">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="C270" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B270)</f>
-        <v>12370</v>
+        <v>12360</v>
       </c>
       <c r="D270" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C270,4)</f>
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="E270" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C270)</f>
-        <v>げ</v>
+        <v>え</v>
       </c>
       <c r="F270" s="0" t="n">
         <f aca="false">C270-C269</f>
@@ -9241,22 +9305,22 @@
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B271" s="1" t="n">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="C271" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B271)</f>
-        <v>12371</v>
+        <v>12361</v>
       </c>
       <c r="D271" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C271,4)</f>
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="E271" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C271)</f>
-        <v>こ</v>
+        <v>ぉ</v>
       </c>
       <c r="F271" s="0" t="n">
         <f aca="false">C271-C270</f>
@@ -9265,22 +9329,22 @@
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B272" s="1" t="n">
-        <v>3054</v>
+        <v>440</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="C272" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B272)</f>
-        <v>12372</v>
+        <v>12362</v>
       </c>
       <c r="D272" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C272,4)</f>
-        <v>3054</v>
+        <v>304A</v>
       </c>
       <c r="E272" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C272)</f>
-        <v>ご</v>
+        <v>お</v>
       </c>
       <c r="F272" s="0" t="n">
         <f aca="false">C272-C271</f>
@@ -9289,22 +9353,22 @@
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="B273" s="1" t="n">
-        <v>3055</v>
+        <v>442</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C273" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B273)</f>
-        <v>12373</v>
+        <v>12363</v>
       </c>
       <c r="D273" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C273,4)</f>
-        <v>3055</v>
+        <v>304B</v>
       </c>
       <c r="E273" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C273)</f>
-        <v>さ</v>
+        <v>か</v>
       </c>
       <c r="F273" s="0" t="n">
         <f aca="false">C273-C272</f>
@@ -9313,22 +9377,22 @@
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B274" s="1" t="n">
-        <v>3056</v>
+        <v>444</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C274" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B274)</f>
-        <v>12374</v>
+        <v>12364</v>
       </c>
       <c r="D274" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C274,4)</f>
-        <v>3056</v>
+        <v>304C</v>
       </c>
       <c r="E274" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C274)</f>
-        <v>ざ</v>
+        <v>が</v>
       </c>
       <c r="F274" s="0" t="n">
         <f aca="false">C274-C273</f>
@@ -9337,22 +9401,22 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="B275" s="1" t="n">
-        <v>3057</v>
+        <v>446</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="C275" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B275)</f>
-        <v>12375</v>
+        <v>12365</v>
       </c>
       <c r="D275" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C275,4)</f>
-        <v>3057</v>
+        <v>304D</v>
       </c>
       <c r="E275" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C275)</f>
-        <v>し</v>
+        <v>き</v>
       </c>
       <c r="F275" s="0" t="n">
         <f aca="false">C275-C274</f>
@@ -9361,22 +9425,22 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="B276" s="1" t="n">
-        <v>3058</v>
+        <v>448</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="C276" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B276)</f>
-        <v>12376</v>
+        <v>12366</v>
       </c>
       <c r="D276" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C276,4)</f>
-        <v>3058</v>
+        <v>304E</v>
       </c>
       <c r="E276" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C276)</f>
-        <v>じ</v>
+        <v>ぎ</v>
       </c>
       <c r="F276" s="0" t="n">
         <f aca="false">C276-C275</f>
@@ -9385,22 +9449,22 @@
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="B277" s="1" t="n">
-        <v>3059</v>
+        <v>450</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C277" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B277)</f>
-        <v>12377</v>
+        <v>12367</v>
       </c>
       <c r="D277" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C277,4)</f>
-        <v>3059</v>
+        <v>304F</v>
       </c>
       <c r="E277" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C277)</f>
-        <v>す</v>
+        <v>く</v>
       </c>
       <c r="F277" s="0" t="n">
         <f aca="false">C277-C276</f>
@@ -9409,22 +9473,22 @@
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>3050</v>
       </c>
       <c r="C278" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B278)</f>
-        <v>12378</v>
+        <v>12368</v>
       </c>
       <c r="D278" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C278,4)</f>
-        <v>305A</v>
+        <v>3050</v>
       </c>
       <c r="E278" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C278)</f>
-        <v>ず</v>
+        <v>ぐ</v>
       </c>
       <c r="F278" s="0" t="n">
         <f aca="false">C278-C277</f>
@@ -9433,22 +9497,22 @@
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>3051</v>
       </c>
       <c r="C279" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B279)</f>
-        <v>12379</v>
+        <v>12369</v>
       </c>
       <c r="D279" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C279,4)</f>
-        <v>305B</v>
+        <v>3051</v>
       </c>
       <c r="E279" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C279)</f>
-        <v>せ</v>
+        <v>け</v>
       </c>
       <c r="F279" s="0" t="n">
         <f aca="false">C279-C278</f>
@@ -9457,22 +9521,22 @@
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>3052</v>
       </c>
       <c r="C280" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B280)</f>
-        <v>12380</v>
+        <v>12370</v>
       </c>
       <c r="D280" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C280,4)</f>
-        <v>305C</v>
+        <v>3052</v>
       </c>
       <c r="E280" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C280)</f>
-        <v>ぜ</v>
+        <v>げ</v>
       </c>
       <c r="F280" s="0" t="n">
         <f aca="false">C280-C279</f>
@@ -9481,22 +9545,22 @@
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>3053</v>
       </c>
       <c r="C281" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B281)</f>
-        <v>12381</v>
+        <v>12371</v>
       </c>
       <c r="D281" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C281,4)</f>
-        <v>305D</v>
+        <v>3053</v>
       </c>
       <c r="E281" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C281)</f>
-        <v>そ</v>
+        <v>こ</v>
       </c>
       <c r="F281" s="0" t="n">
         <f aca="false">C281-C280</f>
@@ -9505,22 +9569,22 @@
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>3054</v>
       </c>
       <c r="C282" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B282)</f>
-        <v>12382</v>
+        <v>12372</v>
       </c>
       <c r="D282" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C282,4)</f>
-        <v>305E</v>
+        <v>3054</v>
       </c>
       <c r="E282" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C282)</f>
-        <v>ぞ</v>
+        <v>ご</v>
       </c>
       <c r="F282" s="0" t="n">
         <f aca="false">C282-C281</f>
@@ -9529,22 +9593,22 @@
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>3055</v>
       </c>
       <c r="C283" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B283)</f>
-        <v>12383</v>
+        <v>12373</v>
       </c>
       <c r="D283" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C283,4)</f>
-        <v>305F</v>
+        <v>3055</v>
       </c>
       <c r="E283" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C283)</f>
-        <v>た</v>
+        <v>さ</v>
       </c>
       <c r="F283" s="0" t="n">
         <f aca="false">C283-C282</f>
@@ -9553,22 +9617,22 @@
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B284" s="1" t="n">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="C284" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B284)</f>
-        <v>12384</v>
+        <v>12374</v>
       </c>
       <c r="D284" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C284,4)</f>
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="E284" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C284)</f>
-        <v>だ</v>
+        <v>ざ</v>
       </c>
       <c r="F284" s="0" t="n">
         <f aca="false">C284-C283</f>
@@ -9577,22 +9641,22 @@
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B285" s="1" t="n">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="C285" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B285)</f>
-        <v>12385</v>
+        <v>12375</v>
       </c>
       <c r="D285" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C285,4)</f>
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="E285" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C285)</f>
-        <v>ち</v>
+        <v>し</v>
       </c>
       <c r="F285" s="0" t="n">
         <f aca="false">C285-C284</f>
@@ -9601,22 +9665,22 @@
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B286" s="1" t="n">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="C286" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B286)</f>
-        <v>12386</v>
+        <v>12376</v>
       </c>
       <c r="D286" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C286,4)</f>
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="E286" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C286)</f>
-        <v>ぢ</v>
+        <v>じ</v>
       </c>
       <c r="F286" s="0" t="n">
         <f aca="false">C286-C285</f>
@@ -9625,22 +9689,22 @@
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B287" s="1" t="n">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="C287" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B287)</f>
-        <v>12387</v>
+        <v>12377</v>
       </c>
       <c r="D287" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C287,4)</f>
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="E287" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C287)</f>
-        <v>っ</v>
+        <v>す</v>
       </c>
       <c r="F287" s="0" t="n">
         <f aca="false">C287-C286</f>
@@ -9649,22 +9713,22 @@
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B288" s="1" t="n">
-        <v>3064</v>
+        <v>462</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>463</v>
       </c>
       <c r="C288" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B288)</f>
-        <v>12388</v>
+        <v>12378</v>
       </c>
       <c r="D288" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C288,4)</f>
-        <v>3064</v>
+        <v>305A</v>
       </c>
       <c r="E288" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C288)</f>
-        <v>つ</v>
+        <v>ず</v>
       </c>
       <c r="F288" s="0" t="n">
         <f aca="false">C288-C287</f>
@@ -9673,22 +9737,22 @@
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="B289" s="1" t="n">
-        <v>3065</v>
+        <v>464</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="C289" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B289)</f>
-        <v>12389</v>
+        <v>12379</v>
       </c>
       <c r="D289" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C289,4)</f>
-        <v>3065</v>
+        <v>305B</v>
       </c>
       <c r="E289" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C289)</f>
-        <v>づ</v>
+        <v>せ</v>
       </c>
       <c r="F289" s="0" t="n">
         <f aca="false">C289-C288</f>
@@ -9697,22 +9761,22 @@
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B290" s="1" t="n">
-        <v>3066</v>
+        <v>466</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="C290" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B290)</f>
-        <v>12390</v>
+        <v>12380</v>
       </c>
       <c r="D290" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C290,4)</f>
-        <v>3066</v>
+        <v>305C</v>
       </c>
       <c r="E290" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C290)</f>
-        <v>て</v>
+        <v>ぜ</v>
       </c>
       <c r="F290" s="0" t="n">
         <f aca="false">C290-C289</f>
@@ -9721,22 +9785,22 @@
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B291" s="1" t="n">
-        <v>3067</v>
+        <v>468</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>469</v>
       </c>
       <c r="C291" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B291)</f>
-        <v>12391</v>
+        <v>12381</v>
       </c>
       <c r="D291" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C291,4)</f>
-        <v>3067</v>
+        <v>305D</v>
       </c>
       <c r="E291" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C291)</f>
-        <v>で</v>
+        <v>そ</v>
       </c>
       <c r="F291" s="0" t="n">
         <f aca="false">C291-C290</f>
@@ -9745,22 +9809,22 @@
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B292" s="1" t="n">
-        <v>3068</v>
+        <v>470</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="C292" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B292)</f>
-        <v>12392</v>
+        <v>12382</v>
       </c>
       <c r="D292" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C292,4)</f>
-        <v>3068</v>
+        <v>305E</v>
       </c>
       <c r="E292" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C292)</f>
-        <v>と</v>
+        <v>ぞ</v>
       </c>
       <c r="F292" s="0" t="n">
         <f aca="false">C292-C291</f>
@@ -9769,22 +9833,22 @@
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="B293" s="1" t="n">
-        <v>3069</v>
+        <v>472</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>473</v>
       </c>
       <c r="C293" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B293)</f>
-        <v>12393</v>
+        <v>12383</v>
       </c>
       <c r="D293" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C293,4)</f>
-        <v>3069</v>
+        <v>305F</v>
       </c>
       <c r="E293" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C293)</f>
-        <v>ど</v>
+        <v>た</v>
       </c>
       <c r="F293" s="0" t="n">
         <f aca="false">C293-C292</f>
@@ -9793,22 +9857,22 @@
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>3060</v>
       </c>
       <c r="C294" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B294)</f>
-        <v>12394</v>
+        <v>12384</v>
       </c>
       <c r="D294" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C294,4)</f>
-        <v>306A</v>
+        <v>3060</v>
       </c>
       <c r="E294" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C294)</f>
-        <v>な</v>
+        <v>だ</v>
       </c>
       <c r="F294" s="0" t="n">
         <f aca="false">C294-C293</f>
@@ -9817,22 +9881,22 @@
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>3061</v>
       </c>
       <c r="C295" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B295)</f>
-        <v>12395</v>
+        <v>12385</v>
       </c>
       <c r="D295" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C295,4)</f>
-        <v>306B</v>
+        <v>3061</v>
       </c>
       <c r="E295" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C295)</f>
-        <v>に</v>
+        <v>ち</v>
       </c>
       <c r="F295" s="0" t="n">
         <f aca="false">C295-C294</f>
@@ -9841,22 +9905,22 @@
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>3062</v>
       </c>
       <c r="C296" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B296)</f>
-        <v>12396</v>
+        <v>12386</v>
       </c>
       <c r="D296" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C296,4)</f>
-        <v>306C</v>
+        <v>3062</v>
       </c>
       <c r="E296" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C296)</f>
-        <v>ぬ</v>
+        <v>ぢ</v>
       </c>
       <c r="F296" s="0" t="n">
         <f aca="false">C296-C295</f>
@@ -9865,22 +9929,22 @@
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>3063</v>
       </c>
       <c r="C297" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B297)</f>
-        <v>12397</v>
+        <v>12387</v>
       </c>
       <c r="D297" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C297,4)</f>
-        <v>306D</v>
+        <v>3063</v>
       </c>
       <c r="E297" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C297)</f>
-        <v>ね</v>
+        <v>っ</v>
       </c>
       <c r="F297" s="0" t="n">
         <f aca="false">C297-C296</f>
@@ -9889,22 +9953,22 @@
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>3064</v>
       </c>
       <c r="C298" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B298)</f>
-        <v>12398</v>
+        <v>12388</v>
       </c>
       <c r="D298" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C298,4)</f>
-        <v>306E</v>
+        <v>3064</v>
       </c>
       <c r="E298" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C298)</f>
-        <v>の</v>
+        <v>つ</v>
       </c>
       <c r="F298" s="0" t="n">
         <f aca="false">C298-C297</f>
@@ -9913,22 +9977,22 @@
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>3065</v>
       </c>
       <c r="C299" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B299)</f>
-        <v>12399</v>
+        <v>12389</v>
       </c>
       <c r="D299" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C299,4)</f>
-        <v>306F</v>
+        <v>3065</v>
       </c>
       <c r="E299" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C299)</f>
-        <v>は</v>
+        <v>づ</v>
       </c>
       <c r="F299" s="0" t="n">
         <f aca="false">C299-C298</f>
@@ -9937,22 +10001,22 @@
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B300" s="1" t="n">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="C300" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B300)</f>
-        <v>12400</v>
+        <v>12390</v>
       </c>
       <c r="D300" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C300,4)</f>
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="E300" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C300)</f>
-        <v>ば</v>
+        <v>て</v>
       </c>
       <c r="F300" s="0" t="n">
         <f aca="false">C300-C299</f>
@@ -9961,22 +10025,22 @@
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B301" s="1" t="n">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C301" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B301)</f>
-        <v>12401</v>
+        <v>12391</v>
       </c>
       <c r="D301" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C301,4)</f>
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="E301" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C301)</f>
-        <v>ぱ</v>
+        <v>で</v>
       </c>
       <c r="F301" s="0" t="n">
         <f aca="false">C301-C300</f>
@@ -9985,22 +10049,22 @@
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B302" s="1" t="n">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C302" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B302)</f>
-        <v>12402</v>
+        <v>12392</v>
       </c>
       <c r="D302" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C302,4)</f>
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="E302" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C302)</f>
-        <v>ひ</v>
+        <v>と</v>
       </c>
       <c r="F302" s="0" t="n">
         <f aca="false">C302-C301</f>
@@ -10009,22 +10073,22 @@
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B303" s="1" t="n">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="C303" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B303)</f>
-        <v>12403</v>
+        <v>12393</v>
       </c>
       <c r="D303" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C303,4)</f>
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="E303" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C303)</f>
-        <v>び</v>
+        <v>ど</v>
       </c>
       <c r="F303" s="0" t="n">
         <f aca="false">C303-C302</f>
@@ -10033,22 +10097,22 @@
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="B304" s="1" t="n">
-        <v>3074</v>
+        <v>484</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="C304" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B304)</f>
-        <v>12404</v>
+        <v>12394</v>
       </c>
       <c r="D304" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C304,4)</f>
-        <v>3074</v>
+        <v>306A</v>
       </c>
       <c r="E304" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C304)</f>
-        <v>ぴ</v>
+        <v>な</v>
       </c>
       <c r="F304" s="0" t="n">
         <f aca="false">C304-C303</f>
@@ -10057,22 +10121,22 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B305" s="1" t="n">
-        <v>3075</v>
+        <v>486</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="C305" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B305)</f>
-        <v>12405</v>
+        <v>12395</v>
       </c>
       <c r="D305" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C305,4)</f>
-        <v>3075</v>
+        <v>306B</v>
       </c>
       <c r="E305" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C305)</f>
-        <v>ふ</v>
+        <v>に</v>
       </c>
       <c r="F305" s="0" t="n">
         <f aca="false">C305-C304</f>
@@ -10081,22 +10145,22 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B306" s="1" t="n">
-        <v>3076</v>
+        <v>488</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>489</v>
       </c>
       <c r="C306" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B306)</f>
-        <v>12406</v>
+        <v>12396</v>
       </c>
       <c r="D306" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C306,4)</f>
-        <v>3076</v>
+        <v>306C</v>
       </c>
       <c r="E306" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C306)</f>
-        <v>ぶ</v>
+        <v>ぬ</v>
       </c>
       <c r="F306" s="0" t="n">
         <f aca="false">C306-C305</f>
@@ -10105,22 +10169,22 @@
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B307" s="1" t="n">
-        <v>3077</v>
+        <v>490</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="C307" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B307)</f>
-        <v>12407</v>
+        <v>12397</v>
       </c>
       <c r="D307" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C307,4)</f>
-        <v>3077</v>
+        <v>306D</v>
       </c>
       <c r="E307" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C307)</f>
-        <v>ぷ</v>
+        <v>ね</v>
       </c>
       <c r="F307" s="0" t="n">
         <f aca="false">C307-C306</f>
@@ -10129,22 +10193,22 @@
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B308" s="1" t="n">
-        <v>3078</v>
+        <v>492</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="C308" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B308)</f>
-        <v>12408</v>
+        <v>12398</v>
       </c>
       <c r="D308" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C308,4)</f>
-        <v>3078</v>
+        <v>306E</v>
       </c>
       <c r="E308" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C308)</f>
-        <v>へ</v>
+        <v>の</v>
       </c>
       <c r="F308" s="0" t="n">
         <f aca="false">C308-C307</f>
@@ -10153,22 +10217,22 @@
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="B309" s="1" t="n">
-        <v>3079</v>
+        <v>494</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C309" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B309)</f>
-        <v>12409</v>
+        <v>12399</v>
       </c>
       <c r="D309" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C309,4)</f>
-        <v>3079</v>
+        <v>306F</v>
       </c>
       <c r="E309" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C309)</f>
-        <v>べ</v>
+        <v>は</v>
       </c>
       <c r="F309" s="0" t="n">
         <f aca="false">C309-C308</f>
@@ -10177,22 +10241,22 @@
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>3070</v>
       </c>
       <c r="C310" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B310)</f>
-        <v>12410</v>
+        <v>12400</v>
       </c>
       <c r="D310" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C310,4)</f>
-        <v>307A</v>
+        <v>3070</v>
       </c>
       <c r="E310" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C310)</f>
-        <v>ぺ</v>
+        <v>ば</v>
       </c>
       <c r="F310" s="0" t="n">
         <f aca="false">C310-C309</f>
@@ -10201,22 +10265,22 @@
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>3071</v>
       </c>
       <c r="C311" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B311)</f>
-        <v>12411</v>
+        <v>12401</v>
       </c>
       <c r="D311" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C311,4)</f>
-        <v>307B</v>
+        <v>3071</v>
       </c>
       <c r="E311" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C311)</f>
-        <v>ほ</v>
+        <v>ぱ</v>
       </c>
       <c r="F311" s="0" t="n">
         <f aca="false">C311-C310</f>
@@ -10225,22 +10289,22 @@
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>3072</v>
       </c>
       <c r="C312" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B312)</f>
-        <v>12412</v>
+        <v>12402</v>
       </c>
       <c r="D312" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C312,4)</f>
-        <v>307C</v>
+        <v>3072</v>
       </c>
       <c r="E312" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C312)</f>
-        <v>ぼ</v>
+        <v>ひ</v>
       </c>
       <c r="F312" s="0" t="n">
         <f aca="false">C312-C311</f>
@@ -10249,22 +10313,22 @@
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>3073</v>
       </c>
       <c r="C313" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B313)</f>
-        <v>12413</v>
+        <v>12403</v>
       </c>
       <c r="D313" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C313,4)</f>
-        <v>307D</v>
+        <v>3073</v>
       </c>
       <c r="E313" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C313)</f>
-        <v>ぽ</v>
+        <v>び</v>
       </c>
       <c r="F313" s="0" t="n">
         <f aca="false">C313-C312</f>
@@ -10273,22 +10337,22 @@
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>3074</v>
       </c>
       <c r="C314" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B314)</f>
-        <v>12414</v>
+        <v>12404</v>
       </c>
       <c r="D314" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C314,4)</f>
-        <v>307E</v>
+        <v>3074</v>
       </c>
       <c r="E314" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C314)</f>
-        <v>ま</v>
+        <v>ぴ</v>
       </c>
       <c r="F314" s="0" t="n">
         <f aca="false">C314-C313</f>
@@ -10297,22 +10361,22 @@
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>3075</v>
       </c>
       <c r="C315" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B315)</f>
-        <v>12415</v>
+        <v>12405</v>
       </c>
       <c r="D315" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C315,4)</f>
-        <v>307F</v>
+        <v>3075</v>
       </c>
       <c r="E315" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C315)</f>
-        <v>み</v>
+        <v>ふ</v>
       </c>
       <c r="F315" s="0" t="n">
         <f aca="false">C315-C314</f>
@@ -10321,22 +10385,22 @@
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B316" s="1" t="n">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="C316" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B316)</f>
-        <v>12416</v>
+        <v>12406</v>
       </c>
       <c r="D316" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C316,4)</f>
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="E316" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C316)</f>
-        <v>む</v>
+        <v>ぶ</v>
       </c>
       <c r="F316" s="0" t="n">
         <f aca="false">C316-C315</f>
@@ -10345,22 +10409,22 @@
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B317" s="1" t="n">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="C317" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B317)</f>
-        <v>12417</v>
+        <v>12407</v>
       </c>
       <c r="D317" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C317,4)</f>
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="E317" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C317)</f>
-        <v>め</v>
+        <v>ぷ</v>
       </c>
       <c r="F317" s="0" t="n">
         <f aca="false">C317-C316</f>
@@ -10369,22 +10433,22 @@
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B318" s="1" t="n">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="C318" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B318)</f>
-        <v>12418</v>
+        <v>12408</v>
       </c>
       <c r="D318" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C318,4)</f>
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="E318" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C318)</f>
-        <v>も</v>
+        <v>へ</v>
       </c>
       <c r="F318" s="0" t="n">
         <f aca="false">C318-C317</f>
@@ -10393,22 +10457,22 @@
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B319" s="1" t="n">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="C319" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B319)</f>
-        <v>12419</v>
+        <v>12409</v>
       </c>
       <c r="D319" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C319,4)</f>
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="E319" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C319)</f>
-        <v>ゃ</v>
+        <v>べ</v>
       </c>
       <c r="F319" s="0" t="n">
         <f aca="false">C319-C318</f>
@@ -10417,22 +10481,22 @@
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="B320" s="1" t="n">
-        <v>3084</v>
+        <v>506</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="C320" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B320)</f>
-        <v>12420</v>
+        <v>12410</v>
       </c>
       <c r="D320" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C320,4)</f>
-        <v>3084</v>
+        <v>307A</v>
       </c>
       <c r="E320" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C320)</f>
-        <v>や</v>
+        <v>ぺ</v>
       </c>
       <c r="F320" s="0" t="n">
         <f aca="false">C320-C319</f>
@@ -10441,22 +10505,22 @@
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="B321" s="1" t="n">
-        <v>3085</v>
+        <v>508</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="C321" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B321)</f>
-        <v>12421</v>
+        <v>12411</v>
       </c>
       <c r="D321" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C321,4)</f>
-        <v>3085</v>
+        <v>307B</v>
       </c>
       <c r="E321" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C321)</f>
-        <v>ゅ</v>
+        <v>ほ</v>
       </c>
       <c r="F321" s="0" t="n">
         <f aca="false">C321-C320</f>
@@ -10465,22 +10529,22 @@
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="B322" s="1" t="n">
-        <v>3086</v>
+        <v>510</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C322" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B322)</f>
-        <v>12422</v>
+        <v>12412</v>
       </c>
       <c r="D322" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C322,4)</f>
-        <v>3086</v>
+        <v>307C</v>
       </c>
       <c r="E322" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C322)</f>
-        <v>ゆ</v>
+        <v>ぼ</v>
       </c>
       <c r="F322" s="0" t="n">
         <f aca="false">C322-C321</f>
@@ -10489,22 +10553,22 @@
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B323" s="1" t="n">
-        <v>3087</v>
+        <v>512</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="C323" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B323)</f>
-        <v>12423</v>
+        <v>12413</v>
       </c>
       <c r="D323" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C323,4)</f>
-        <v>3087</v>
+        <v>307D</v>
       </c>
       <c r="E323" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C323)</f>
-        <v>ょ</v>
+        <v>ぽ</v>
       </c>
       <c r="F323" s="0" t="n">
         <f aca="false">C323-C322</f>
@@ -10513,22 +10577,22 @@
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B324" s="1" t="n">
-        <v>3088</v>
+        <v>514</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C324" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B324)</f>
-        <v>12424</v>
+        <v>12414</v>
       </c>
       <c r="D324" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C324,4)</f>
-        <v>3088</v>
+        <v>307E</v>
       </c>
       <c r="E324" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C324)</f>
-        <v>よ</v>
+        <v>ま</v>
       </c>
       <c r="F324" s="0" t="n">
         <f aca="false">C324-C323</f>
@@ -10537,22 +10601,22 @@
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="B325" s="1" t="n">
-        <v>3089</v>
+        <v>516</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C325" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B325)</f>
-        <v>12425</v>
+        <v>12415</v>
       </c>
       <c r="D325" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C325,4)</f>
-        <v>3089</v>
+        <v>307F</v>
       </c>
       <c r="E325" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C325)</f>
-        <v>ら</v>
+        <v>み</v>
       </c>
       <c r="F325" s="0" t="n">
         <f aca="false">C325-C324</f>
@@ -10561,22 +10625,22 @@
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>3080</v>
       </c>
       <c r="C326" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B326)</f>
-        <v>12426</v>
+        <v>12416</v>
       </c>
       <c r="D326" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C326,4)</f>
-        <v>308A</v>
+        <v>3080</v>
       </c>
       <c r="E326" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C326)</f>
-        <v>り</v>
+        <v>む</v>
       </c>
       <c r="F326" s="0" t="n">
         <f aca="false">C326-C325</f>
@@ -10585,22 +10649,22 @@
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>513</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>3081</v>
       </c>
       <c r="C327" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B327)</f>
-        <v>12427</v>
+        <v>12417</v>
       </c>
       <c r="D327" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C327,4)</f>
-        <v>308B</v>
+        <v>3081</v>
       </c>
       <c r="E327" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C327)</f>
-        <v>る</v>
+        <v>め</v>
       </c>
       <c r="F327" s="0" t="n">
         <f aca="false">C327-C326</f>
@@ -10609,22 +10673,22 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>3082</v>
       </c>
       <c r="C328" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B328)</f>
-        <v>12428</v>
+        <v>12418</v>
       </c>
       <c r="D328" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C328,4)</f>
-        <v>308C</v>
+        <v>3082</v>
       </c>
       <c r="E328" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C328)</f>
-        <v>れ</v>
+        <v>も</v>
       </c>
       <c r="F328" s="0" t="n">
         <f aca="false">C328-C327</f>
@@ -10633,22 +10697,22 @@
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>3083</v>
       </c>
       <c r="C329" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B329)</f>
-        <v>12429</v>
+        <v>12419</v>
       </c>
       <c r="D329" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C329,4)</f>
-        <v>308D</v>
+        <v>3083</v>
       </c>
       <c r="E329" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C329)</f>
-        <v>ろ</v>
+        <v>ゃ</v>
       </c>
       <c r="F329" s="0" t="n">
         <f aca="false">C329-C328</f>
@@ -10657,22 +10721,22 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>3084</v>
       </c>
       <c r="C330" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B330)</f>
-        <v>12430</v>
+        <v>12420</v>
       </c>
       <c r="D330" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C330,4)</f>
-        <v>308E</v>
+        <v>3084</v>
       </c>
       <c r="E330" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C330)</f>
-        <v>ゎ</v>
+        <v>や</v>
       </c>
       <c r="F330" s="0" t="n">
         <f aca="false">C330-C329</f>
@@ -10681,22 +10745,22 @@
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>3085</v>
       </c>
       <c r="C331" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B331)</f>
-        <v>12431</v>
+        <v>12421</v>
       </c>
       <c r="D331" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C331,4)</f>
-        <v>308F</v>
+        <v>3085</v>
       </c>
       <c r="E331" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C331)</f>
-        <v>わ</v>
+        <v>ゅ</v>
       </c>
       <c r="F331" s="0" t="n">
         <f aca="false">C331-C330</f>
@@ -10705,22 +10769,22 @@
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B332" s="1" t="n">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="C332" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B332)</f>
-        <v>12432</v>
+        <v>12422</v>
       </c>
       <c r="D332" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C332,4)</f>
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="E332" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C332)</f>
-        <v>ゐ</v>
+        <v>ゆ</v>
       </c>
       <c r="F332" s="0" t="n">
         <f aca="false">C332-C331</f>
@@ -10729,22 +10793,22 @@
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B333" s="1" t="n">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="C333" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B333)</f>
-        <v>12433</v>
+        <v>12423</v>
       </c>
       <c r="D333" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C333,4)</f>
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="E333" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C333)</f>
-        <v>ゑ</v>
+        <v>ょ</v>
       </c>
       <c r="F333" s="0" t="n">
         <f aca="false">C333-C332</f>
@@ -10753,22 +10817,22 @@
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B334" s="1" t="n">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="C334" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B334)</f>
-        <v>12434</v>
+        <v>12424</v>
       </c>
       <c r="D334" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C334,4)</f>
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="E334" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C334)</f>
-        <v>を</v>
+        <v>よ</v>
       </c>
       <c r="F334" s="0" t="n">
         <f aca="false">C334-C333</f>
@@ -10777,22 +10841,22 @@
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B335" s="1" t="n">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="C335" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B335)</f>
-        <v>12435</v>
+        <v>12425</v>
       </c>
       <c r="D335" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C335,4)</f>
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="E335" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C335)</f>
-        <v>ん</v>
+        <v>ら</v>
       </c>
       <c r="F335" s="0" t="n">
         <f aca="false">C335-C334</f>
@@ -10801,22 +10865,22 @@
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B336" s="1" t="n">
-        <v>3094</v>
+        <v>528</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>529</v>
       </c>
       <c r="C336" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B336)</f>
-        <v>12436</v>
+        <v>12426</v>
       </c>
       <c r="D336" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C336,4)</f>
-        <v>3094</v>
+        <v>308A</v>
       </c>
       <c r="E336" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C336)</f>
-        <v>ゔ</v>
+        <v>り</v>
       </c>
       <c r="F336" s="0" t="n">
         <f aca="false">C336-C335</f>
@@ -10825,22 +10889,22 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>528</v>
-      </c>
-      <c r="B337" s="1" t="n">
-        <v>3095</v>
+        <v>530</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="C337" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B337)</f>
-        <v>12437</v>
+        <v>12427</v>
       </c>
       <c r="D337" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C337,4)</f>
-        <v>3095</v>
+        <v>308B</v>
       </c>
       <c r="E337" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C337)</f>
-        <v>ゕ</v>
+        <v>る</v>
       </c>
       <c r="F337" s="0" t="n">
         <f aca="false">C337-C336</f>
@@ -10849,22 +10913,22 @@
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B338" s="1" t="n">
-        <v>3096</v>
+        <v>532</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="C338" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B338)</f>
-        <v>12438</v>
+        <v>12428</v>
       </c>
       <c r="D338" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C338,4)</f>
-        <v>3096</v>
+        <v>308C</v>
       </c>
       <c r="E338" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C338)</f>
-        <v>ゖ</v>
+        <v>れ</v>
       </c>
       <c r="F338" s="0" t="n">
         <f aca="false">C338-C337</f>
@@ -10873,46 +10937,46 @@
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="B339" s="1" t="n">
-        <v>3099</v>
+        <v>534</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="C339" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B339)</f>
-        <v>12441</v>
+        <v>12429</v>
       </c>
       <c r="D339" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C339,4)</f>
-        <v>3099</v>
+        <v>308D</v>
       </c>
       <c r="E339" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C339)</f>
-        <v>゙</v>
+        <v>ろ</v>
       </c>
       <c r="F339" s="0" t="n">
         <f aca="false">C339-C338</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C340" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B340)</f>
-        <v>12442</v>
+        <v>12430</v>
       </c>
       <c r="D340" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C340,4)</f>
-        <v>309A</v>
+        <v>308E</v>
       </c>
       <c r="E340" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C340)</f>
-        <v>゚</v>
+        <v>ゎ</v>
       </c>
       <c r="F340" s="0" t="n">
         <f aca="false">C340-C339</f>
@@ -10921,22 +10985,22 @@
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C341" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B341)</f>
-        <v>12443</v>
+        <v>12431</v>
       </c>
       <c r="D341" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C341,4)</f>
-        <v>309B</v>
+        <v>308F</v>
       </c>
       <c r="E341" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C341)</f>
-        <v>゛</v>
+        <v>わ</v>
       </c>
       <c r="F341" s="0" t="n">
         <f aca="false">C341-C340</f>
@@ -10945,22 +11009,22 @@
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>3090</v>
       </c>
       <c r="C342" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B342)</f>
-        <v>12444</v>
+        <v>12432</v>
       </c>
       <c r="D342" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C342,4)</f>
-        <v>309C</v>
+        <v>3090</v>
       </c>
       <c r="E342" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C342)</f>
-        <v>゜</v>
+        <v>ゐ</v>
       </c>
       <c r="F342" s="0" t="n">
         <f aca="false">C342-C341</f>
@@ -10969,22 +11033,22 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>3091</v>
       </c>
       <c r="C343" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B343)</f>
-        <v>12445</v>
+        <v>12433</v>
       </c>
       <c r="D343" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C343,4)</f>
-        <v>309D</v>
+        <v>3091</v>
       </c>
       <c r="E343" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C343)</f>
-        <v>ゝ</v>
+        <v>ゑ</v>
       </c>
       <c r="F343" s="0" t="n">
         <f aca="false">C343-C342</f>
@@ -10993,22 +11057,22 @@
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>3092</v>
       </c>
       <c r="C344" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B344)</f>
-        <v>12446</v>
+        <v>12434</v>
       </c>
       <c r="D344" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C344,4)</f>
-        <v>309E</v>
+        <v>3092</v>
       </c>
       <c r="E344" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C344)</f>
-        <v>ゞ</v>
+        <v>を</v>
       </c>
       <c r="F344" s="0" t="n">
         <f aca="false">C344-C343</f>
@@ -11017,22 +11081,22 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>3093</v>
       </c>
       <c r="C345" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B345)</f>
-        <v>12447</v>
+        <v>12435</v>
       </c>
       <c r="D345" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C345,4)</f>
-        <v>309F</v>
+        <v>3093</v>
       </c>
       <c r="E345" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C345)</f>
-        <v>ゟ</v>
+        <v>ん</v>
       </c>
       <c r="F345" s="0" t="n">
         <f aca="false">C345-C344</f>
@@ -11041,46 +11105,46 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="B346" s="1" t="s">
         <v>544</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>3094</v>
       </c>
       <c r="C346" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B346)</f>
-        <v>12539</v>
+        <v>12436</v>
       </c>
       <c r="D346" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C346,4)</f>
-        <v>30FB</v>
+        <v>3094</v>
       </c>
       <c r="E346" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C346)</f>
-        <v>・</v>
+        <v>ゔ</v>
       </c>
       <c r="F346" s="0" t="n">
         <f aca="false">C346-C345</f>
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>546</v>
+      <c r="B347" s="1" t="n">
+        <v>3095</v>
       </c>
       <c r="C347" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B347)</f>
-        <v>12540</v>
+        <v>12437</v>
       </c>
       <c r="D347" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C347,4)</f>
-        <v>30FC</v>
+        <v>3095</v>
       </c>
       <c r="E347" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C347)</f>
-        <v>ー</v>
+        <v>ゕ</v>
       </c>
       <c r="F347" s="0" t="n">
         <f aca="false">C347-C346</f>
@@ -11089,101 +11153,364 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>3096</v>
       </c>
       <c r="C348" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B348)</f>
-        <v>58128</v>
+        <v>12438</v>
       </c>
       <c r="D348" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C348,4)</f>
-        <v>E310</v>
+        <v>3096</v>
       </c>
       <c r="E348" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C348)</f>
-        <v></v>
+        <v>ゖ</v>
       </c>
       <c r="F348" s="0" t="n">
         <f aca="false">C348-C347</f>
-        <v>45588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>549</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>3099</v>
       </c>
       <c r="C349" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B349)</f>
-        <v>58336</v>
+        <v>12441</v>
       </c>
       <c r="D349" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C349,4)</f>
-        <v>E3E0</v>
+        <v>3099</v>
       </c>
       <c r="E349" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C349)</f>
-        <v></v>
+        <v>゙</v>
       </c>
       <c r="F349" s="0" t="n">
         <f aca="false">C349-C348</f>
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C350" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B350)</f>
-        <v>65269</v>
+        <v>12442</v>
       </c>
       <c r="D350" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C350,4)</f>
-        <v>FEF5</v>
+        <v>309A</v>
       </c>
       <c r="E350" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C350)</f>
-        <v>ﻵ</v>
+        <v>゚</v>
       </c>
       <c r="F350" s="0" t="n">
         <f aca="false">C350-C349</f>
-        <v>6933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C351" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B351)</f>
-        <v>65275</v>
+        <v>12443</v>
       </c>
       <c r="D351" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C351,4)</f>
-        <v>FEFB</v>
+        <v>309B</v>
       </c>
       <c r="E351" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C351)</f>
-        <v>ﻻ</v>
+        <v>゛</v>
       </c>
       <c r="F351" s="0" t="n">
         <f aca="false">C351-C350</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B352)</f>
+        <v>12444</v>
+      </c>
+      <c r="D352" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C352,4)</f>
+        <v>309C</v>
+      </c>
+      <c r="E352" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C352)</f>
+        <v>゜</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <f aca="false">C352-C351</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B353)</f>
+        <v>12445</v>
+      </c>
+      <c r="D353" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C353,4)</f>
+        <v>309D</v>
+      </c>
+      <c r="E353" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C353)</f>
+        <v>ゝ</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <f aca="false">C353-C352</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B354)</f>
+        <v>12446</v>
+      </c>
+      <c r="D354" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C354,4)</f>
+        <v>309E</v>
+      </c>
+      <c r="E354" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C354)</f>
+        <v>ゞ</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <f aca="false">C354-C353</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B355)</f>
+        <v>12447</v>
+      </c>
+      <c r="D355" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C355,4)</f>
+        <v>309F</v>
+      </c>
+      <c r="E355" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C355)</f>
+        <v>ゟ</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <f aca="false">C355-C354</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B356)</f>
+        <v>12539</v>
+      </c>
+      <c r="D356" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C356,4)</f>
+        <v>30FB</v>
+      </c>
+      <c r="E356" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C356)</f>
+        <v>・</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <f aca="false">C356-C355</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B357)</f>
+        <v>12540</v>
+      </c>
+      <c r="D357" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C357,4)</f>
+        <v>30FC</v>
+      </c>
+      <c r="E357" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C357)</f>
+        <v>ー</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <f aca="false">C357-C356</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B358)</f>
+        <v>58128</v>
+      </c>
+      <c r="D358" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C358,4)</f>
+        <v>E310</v>
+      </c>
+      <c r="E358" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C358)</f>
+        <v></v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <f aca="false">C358-C357</f>
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B359)</f>
+        <v>58336</v>
+      </c>
+      <c r="D359" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C359,4)</f>
+        <v>E3E0</v>
+      </c>
+      <c r="E359" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C359)</f>
+        <v></v>
+      </c>
+      <c r="F359" s="0" t="n">
+        <f aca="false">C359-C358</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B360)</f>
+        <v>58642</v>
+      </c>
+      <c r="D360" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C360,4)</f>
+        <v>E512</v>
+      </c>
+      <c r="E360" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C360)</f>
+        <v></v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <f aca="false">C360-C359</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B361)</f>
+        <v>65269</v>
+      </c>
+      <c r="D361" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C361,4)</f>
+        <v>FEF5</v>
+      </c>
+      <c r="E361" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C361)</f>
+        <v>ﻵ</v>
+      </c>
+      <c r="F361" s="0" t="n">
+        <f aca="false">C361-C359</f>
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B362)</f>
+        <v>65275</v>
+      </c>
+      <c r="D362" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C362,4)</f>
+        <v>FEFB</v>
+      </c>
+      <c r="E362" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C362)</f>
+        <v>ﻻ</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <f aca="false">C362-C361</f>
         <v>6</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -11202,12 +11529,12 @@
   </sheetPr>
   <dimension ref="A1:AH115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="G51" activeCellId="0" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11229,91 +11556,91 @@
   <sheetData>
     <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="27" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="28" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
       <c r="N1" s="29" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="30" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="R1" s="30"/>
       <c r="S1" s="30"/>
       <c r="T1" s="31" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="U1" s="31"/>
       <c r="V1" s="31"/>
       <c r="W1" s="32" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="33" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="AA1" s="33"/>
       <c r="AB1" s="33"/>
       <c r="AC1" s="34" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="AD1" s="34"/>
       <c r="AE1" s="34"/>
       <c r="AF1" s="35" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="AG1" s="35"/>
       <c r="AH1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>370</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="AC2" s="21" t="s">
         <v>308</v>
@@ -11373,25 +11700,25 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="W4" s="19" t="s">
         <v>402</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="AD4" s="21" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="AF4" s="22" t="s">
         <v>230</v>
@@ -11438,19 +11765,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="W6" s="19" t="s">
         <v>382</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="AC6" s="21" t="s">
         <v>286</v>
@@ -11510,25 +11837,25 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>376</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="AC8" s="21" t="s">
         <v>336</v>
       </c>
       <c r="AD8" s="21" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="AE8" s="21" t="s">
         <v>336</v>
@@ -11578,49 +11905,49 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="W10" s="19" t="s">
         <v>367</v>
@@ -11629,16 +11956,16 @@
         <v>368</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AC10" s="21" t="s">
         <v>294</v>
       </c>
       <c r="AD10" s="50" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="AE10" s="21" t="s">
         <v>294</v>
@@ -11716,25 +12043,25 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="W12" s="19" t="s">
         <v>369</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="AC12" s="21" t="s">
         <v>290</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="AE12" s="21" t="s">
         <v>290</v>
@@ -11784,19 +12111,19 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="W14" s="19" t="s">
         <v>388</v>
       </c>
       <c r="Z14" s="20" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="AC14" s="21" t="s">
         <v>330</v>
@@ -11846,19 +12173,19 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="W16" s="19" t="s">
         <v>397</v>
       </c>
       <c r="Z16" s="20" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="AC16" s="21" t="s">
         <v>289</v>
@@ -11914,25 +12241,25 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="T18" s="18" t="s">
         <v>168</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="W18" s="19" t="s">
         <v>391</v>
       </c>
       <c r="Z18" s="20" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="AC18" s="21" t="s">
         <v>333</v>
@@ -11971,10 +12298,10 @@
       <c r="R19" s="42"/>
       <c r="S19" s="42"/>
       <c r="T19" s="52" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="U19" s="44" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="V19" s="44"/>
       <c r="W19" s="45"/>
@@ -11992,19 +12319,19 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="W20" s="19" t="s">
         <v>393</v>
       </c>
       <c r="Z20" s="20" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="AC20" s="21" t="s">
         <v>292</v>
@@ -12060,19 +12387,19 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="W22" s="19" t="s">
         <v>389</v>
       </c>
       <c r="Z22" s="20" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="AC22" s="21" t="s">
         <v>332</v>
@@ -12128,25 +12455,25 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="W24" s="19" t="s">
         <v>404</v>
       </c>
       <c r="Z24" s="20" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="AC24" s="21" t="s">
         <v>331</v>
       </c>
       <c r="AD24" s="21" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="AE24" s="21" t="s">
         <v>331</v>
@@ -12196,31 +12523,31 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="W26" s="19" t="s">
         <v>403</v>
       </c>
       <c r="Z26" s="20" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="AC26" s="21" t="s">
         <v>334</v>
@@ -12280,19 +12607,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="W28" s="19" t="s">
         <v>400</v>
       </c>
       <c r="Z28" s="20" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="AC28" s="21" t="s">
         <v>335</v>
@@ -12348,13 +12675,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="W30" s="19" t="s">
         <v>390</v>
@@ -12363,7 +12690,7 @@
         <v>392</v>
       </c>
       <c r="Z30" s="20" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="AC30" s="21" t="s">
         <v>291</v>
@@ -12419,13 +12746,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="W32" s="19" t="s">
         <v>394</v>
@@ -12434,7 +12761,7 @@
         <v>396</v>
       </c>
       <c r="Z32" s="20" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AC32" s="21" t="s">
         <v>298</v>
@@ -12490,31 +12817,31 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="T34" s="18" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="U34" s="18" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="W34" s="19" t="s">
         <v>371</v>
@@ -12523,25 +12850,25 @@
         <v>372</v>
       </c>
       <c r="Z34" s="20" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="AC34" s="21" t="s">
         <v>310</v>
       </c>
       <c r="AD34" s="50" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="AE34" s="21" t="s">
         <v>310</v>
       </c>
       <c r="AF34" s="22" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="AG34" s="51" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="AH34" s="22" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,10 +12877,10 @@
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="38" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="G35" s="38"/>
       <c r="H35" s="39"/>
@@ -12569,10 +12896,10 @@
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
       <c r="T35" s="44" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="U35" s="44" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="V35" s="44"/>
       <c r="W35" s="45"/>
@@ -12590,13 +12917,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="W36" s="19" t="s">
         <v>364</v>
@@ -12605,13 +12932,13 @@
         <v>365</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="AC36" s="21" t="s">
         <v>328</v>
       </c>
       <c r="AD36" s="50" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="AE36" s="21" t="s">
         <v>328</v>
@@ -12675,19 +13002,19 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="W38" s="19" t="s">
         <v>366</v>
       </c>
       <c r="Z38" s="20" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="AC38" s="21" t="s">
         <v>307</v>
@@ -12737,13 +13064,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="W40" s="19" t="s">
         <v>373</v>
@@ -12752,7 +13079,7 @@
         <v>374</v>
       </c>
       <c r="Z40" s="20" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="AC40" s="21" t="s">
         <v>327</v>
@@ -12802,19 +13129,19 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="W42" s="19" t="s">
         <v>395</v>
       </c>
       <c r="Z42" s="20" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="AC42" s="21" t="s">
         <v>313</v>
@@ -12870,19 +13197,19 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="W44" s="19" t="s">
         <v>387</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="AC44" s="21" t="s">
         <v>305</v>
@@ -12938,19 +13265,19 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="W46" s="19" t="s">
         <v>378</v>
@@ -12959,13 +13286,13 @@
         <v>380</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="AC46" s="21" t="s">
         <v>309</v>
       </c>
       <c r="AD46" s="50" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="AE46" s="21" t="s">
         <v>309</v>
@@ -13018,25 +13345,25 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="W48" s="19" t="s">
         <v>386</v>
       </c>
       <c r="Z48" s="20" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AC48" s="21" t="s">
         <v>283</v>
       </c>
       <c r="AD48" s="50" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="AE48" s="21" t="s">
         <v>283</v>
@@ -13086,25 +13413,25 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="W50" s="19" t="s">
         <v>398</v>
       </c>
       <c r="Z50" s="20" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="AC50" s="21" t="s">
         <v>314</v>
@@ -13164,40 +13491,40 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="W52" s="19" t="s">
         <v>384</v>
       </c>
       <c r="Z52" s="20" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="AA52" s="20" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="AC52" s="21" t="s">
         <v>288</v>
       </c>
       <c r="AD52" s="21" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="AE52" s="21" t="s">
         <v>288</v>
@@ -13244,13 +13571,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="B54" s="12" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="D54" s="12" t="n">
         <v>1</v>
@@ -13259,10 +13586,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="I54" s="14" t="n">
         <v>1</v>
@@ -13271,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="M54" s="15" t="n">
         <v>1</v>
@@ -13280,19 +13607,19 @@
         <v>1</v>
       </c>
       <c r="U54" s="18" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="V54" s="18" t="n">
         <v>1</v>
       </c>
       <c r="Z54" s="20" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="AC54" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AD54" s="21" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="AE54" s="21" t="n">
         <v>1</v>
@@ -13301,7 +13628,7 @@
         <v>1</v>
       </c>
       <c r="AG54" s="22" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="AH54" s="22" t="n">
         <v>1</v>
@@ -13310,7 +13637,7 @@
     <row r="55" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="36"/>
       <c r="B55" s="37" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -13321,13 +13648,13 @@
       <c r="I55" s="39"/>
       <c r="J55" s="39"/>
       <c r="K55" s="40" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="L55" s="40" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="M55" s="40" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="N55" s="41"/>
       <c r="O55" s="41"/>
@@ -13336,13 +13663,13 @@
       <c r="R55" s="42"/>
       <c r="S55" s="42"/>
       <c r="T55" s="44" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="U55" s="44" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="V55" s="44" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="W55" s="45"/>
       <c r="X55" s="45"/>
@@ -13365,13 +13692,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="B56" s="12" t="n">
         <v>2</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="D56" s="12" t="n">
         <v>2</v>
@@ -13419,19 +13746,19 @@
         <v>2</v>
       </c>
       <c r="U56" s="18" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="V56" s="18" t="n">
         <v>2</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="AC56" s="21" t="n">
         <v>2</v>
       </c>
       <c r="AD56" s="21" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="AE56" s="21" t="n">
         <v>2</v>
@@ -13440,7 +13767,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="22" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="AH56" s="22" t="n">
         <v>2</v>
@@ -13449,7 +13776,7 @@
     <row r="57" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="36"/>
       <c r="B57" s="37" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -13461,29 +13788,29 @@
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="39" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="J57" s="39"/>
       <c r="K57" s="40" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="L57" s="40" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="M57" s="40" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="N57" s="41" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="O57" s="41" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="P57" s="41" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="Q57" s="42"/>
       <c r="R57" s="42"/>
@@ -13524,13 +13851,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="B58" s="12" t="n">
         <v>3</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="D58" s="12" t="n">
         <v>3</v>
@@ -13560,7 +13887,7 @@
         <v>3</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="P58" s="16" t="n">
         <v>3</v>
@@ -13578,22 +13905,22 @@
         <v>3</v>
       </c>
       <c r="U58" s="18" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="V58" s="18" t="n">
         <v>3</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="AA58" s="20" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="AC58" s="21" t="n">
         <v>3</v>
       </c>
       <c r="AD58" s="21" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="AE58" s="21" t="n">
         <v>3</v>
@@ -13602,7 +13929,7 @@
         <v>3</v>
       </c>
       <c r="AG58" s="22" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="AH58" s="22" t="n">
         <v>3</v>
@@ -13611,7 +13938,7 @@
     <row r="59" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="36"/>
       <c r="B59" s="37" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -13623,20 +13950,20 @@
       </c>
       <c r="G59" s="38"/>
       <c r="H59" s="39" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="J59" s="39"/>
       <c r="K59" s="40" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="L59" s="40" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="M59" s="40" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="N59" s="41" t="s">
         <v>47</v>
@@ -13651,13 +13978,13 @@
       <c r="R59" s="42"/>
       <c r="S59" s="42"/>
       <c r="T59" s="44" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="U59" s="44" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="V59" s="44" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="W59" s="45"/>
       <c r="X59" s="45"/>
@@ -13678,7 +14005,7 @@
         <v>76</v>
       </c>
       <c r="AG59" s="22" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="AH59" s="22" t="s">
         <v>76</v>
@@ -13686,13 +14013,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="B60" s="12" t="n">
         <v>4</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="D60" s="12" t="n">
         <v>4</v>
@@ -13701,10 +14028,10 @@
         <v>4</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="I60" s="14" t="n">
         <v>4</v>
@@ -13713,7 +14040,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="M60" s="15" t="n">
         <v>4</v>
@@ -13722,7 +14049,7 @@
         <v>4</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="P60" s="16" t="n">
         <v>4</v>
@@ -13731,22 +14058,22 @@
         <v>4</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="V60" s="18" t="n">
         <v>4</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="AA60" s="20" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="AC60" s="21" t="n">
         <v>4</v>
       </c>
       <c r="AD60" s="21" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="AE60" s="21" t="n">
         <v>4</v>
@@ -13755,7 +14082,7 @@
         <v>4</v>
       </c>
       <c r="AG60" s="22" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="AH60" s="22" t="n">
         <v>4</v>
@@ -13764,7 +14091,7 @@
     <row r="61" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="36"/>
       <c r="B61" s="37" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -13772,20 +14099,20 @@
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="39" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="J61" s="39"/>
       <c r="K61" s="40" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="L61" s="40" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="M61" s="40" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="N61" s="41" t="s">
         <v>55</v>
@@ -13800,13 +14127,13 @@
       <c r="R61" s="42"/>
       <c r="S61" s="42"/>
       <c r="T61" s="44" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="U61" s="44" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="V61" s="44" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="W61" s="45"/>
       <c r="X61" s="45"/>
@@ -13835,13 +14162,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="B62" s="12" t="n">
         <v>5</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="D62" s="12" t="n">
         <v>5</v>
@@ -13850,10 +14177,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="I62" s="14" t="n">
         <v>5</v>
@@ -13862,7 +14189,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="M62" s="15" t="n">
         <v>5</v>
@@ -13871,7 +14198,7 @@
         <v>5</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="P62" s="16" t="n">
         <v>5</v>
@@ -13880,22 +14207,22 @@
         <v>5</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="V62" s="18" t="n">
         <v>5</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="AA62" s="20" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="AC62" s="21" t="n">
         <v>5</v>
       </c>
       <c r="AD62" s="21" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="AE62" s="21" t="n">
         <v>5</v>
@@ -13904,7 +14231,7 @@
         <v>5</v>
       </c>
       <c r="AG62" s="22" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="AH62" s="22" t="n">
         <v>5</v>
@@ -13913,7 +14240,7 @@
     <row r="63" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="36"/>
       <c r="B63" s="37" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -13921,10 +14248,10 @@
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="39" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="J63" s="39"/>
       <c r="K63" s="40" t="s">
@@ -13984,13 +14311,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="B64" s="12" t="n">
         <v>6</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="D64" s="12" t="n">
         <v>6</v>
@@ -13999,10 +14326,10 @@
         <v>6</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="I64" s="14" t="n">
         <v>6</v>
@@ -14011,7 +14338,7 @@
         <v>6</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="M64" s="15" t="n">
         <v>6</v>
@@ -14020,7 +14347,7 @@
         <v>6</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="P64" s="16" t="n">
         <v>6</v>
@@ -14029,7 +14356,7 @@
         <v>6</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="S64" s="17" t="n">
         <v>6</v>
@@ -14038,22 +14365,22 @@
         <v>6</v>
       </c>
       <c r="U64" s="18" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="V64" s="18" t="n">
         <v>6</v>
       </c>
       <c r="Z64" s="20" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="AA64" s="20" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AC64" s="21" t="n">
         <v>6</v>
       </c>
       <c r="AD64" s="21" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="AE64" s="21" t="n">
         <v>6</v>
@@ -14062,7 +14389,7 @@
         <v>6</v>
       </c>
       <c r="AG64" s="22" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="AH64" s="22" t="n">
         <v>6</v>
@@ -14071,7 +14398,7 @@
     <row r="65" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="36"/>
       <c r="B65" s="37" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -14079,10 +14406,10 @@
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="39" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="J65" s="39"/>
       <c r="K65" s="40" t="s">
@@ -14130,13 +14457,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="B66" s="12" t="n">
         <v>7</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="D66" s="12" t="n">
         <v>7</v>
@@ -14145,7 +14472,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>136</v>
@@ -14157,7 +14484,7 @@
         <v>7</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="M66" s="15" t="n">
         <v>7</v>
@@ -14166,7 +14493,7 @@
         <v>7</v>
       </c>
       <c r="O66" s="16" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="P66" s="16" t="n">
         <v>7</v>
@@ -14175,7 +14502,7 @@
         <v>7</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="S66" s="17" t="n">
         <v>7</v>
@@ -14184,22 +14511,22 @@
         <v>7</v>
       </c>
       <c r="U66" s="18" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="V66" s="18" t="n">
         <v>7</v>
       </c>
       <c r="Z66" s="20" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="AA66" s="20" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="AC66" s="21" t="n">
         <v>7</v>
       </c>
       <c r="AD66" s="21" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="AE66" s="21" t="n">
         <v>7</v>
@@ -14208,7 +14535,7 @@
         <v>7</v>
       </c>
       <c r="AG66" s="22" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="AH66" s="22" t="n">
         <v>7</v>
@@ -14217,15 +14544,15 @@
     <row r="67" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="36"/>
       <c r="B67" s="37" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="38" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="14" t="s">
@@ -14239,25 +14566,25 @@
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
       <c r="N67" s="41" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="O67" s="41" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="P67" s="41" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="Q67" s="42"/>
       <c r="R67" s="42"/>
       <c r="S67" s="42"/>
       <c r="T67" s="44" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="U67" s="44" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="V67" s="44" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="W67" s="45"/>
       <c r="X67" s="45"/>
@@ -14280,13 +14607,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="B68" s="12" t="n">
         <v>8</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="D68" s="12" t="n">
         <v>8</v>
@@ -14295,10 +14622,10 @@
         <v>8</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="I68" s="14" t="n">
         <v>8</v>
@@ -14307,7 +14634,7 @@
         <v>8</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="M68" s="15" t="n">
         <v>8</v>
@@ -14316,7 +14643,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="P68" s="16" t="n">
         <v>8</v>
@@ -14325,7 +14652,7 @@
         <v>8</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="S68" s="17" t="n">
         <v>8</v>
@@ -14334,22 +14661,22 @@
         <v>8</v>
       </c>
       <c r="U68" s="18" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="V68" s="18" t="n">
         <v>8</v>
       </c>
       <c r="Z68" s="20" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="AA68" s="20" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="AC68" s="21" t="n">
         <v>8</v>
       </c>
       <c r="AD68" s="21" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="AE68" s="21" t="n">
         <v>8</v>
@@ -14358,7 +14685,7 @@
         <v>8</v>
       </c>
       <c r="AG68" s="22" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="AH68" s="22" t="n">
         <v>8</v>
@@ -14367,15 +14694,15 @@
     <row r="69" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="36"/>
       <c r="B69" s="37" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="38" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="G69" s="38"/>
       <c r="H69" s="39" t="s">
@@ -14389,25 +14716,25 @@
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
       <c r="N69" s="41" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="O69" s="41" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="P69" s="41" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="Q69" s="42"/>
       <c r="R69" s="42"/>
       <c r="S69" s="42"/>
       <c r="T69" s="44" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="U69" s="44" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="V69" s="44" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="W69" s="45"/>
       <c r="X69" s="45"/>
@@ -14436,13 +14763,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="B70" s="12" t="n">
         <v>9</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="D70" s="12" t="n">
         <v>9</v>
@@ -14451,7 +14778,7 @@
         <v>9</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="H70" s="55" t="s">
         <v>134</v>
@@ -14464,7 +14791,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="M70" s="15" t="n">
         <v>9</v>
@@ -14473,7 +14800,7 @@
         <v>9</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="P70" s="16" t="n">
         <v>9</v>
@@ -14482,7 +14809,7 @@
         <v>9</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="S70" s="17" t="n">
         <v>9</v>
@@ -14491,22 +14818,22 @@
         <v>9</v>
       </c>
       <c r="U70" s="18" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="V70" s="18" t="n">
         <v>9</v>
       </c>
       <c r="Z70" s="20" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="AA70" s="20" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="AC70" s="21" t="n">
         <v>9</v>
       </c>
       <c r="AD70" s="21" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="AE70" s="21" t="n">
         <v>9</v>
@@ -14515,7 +14842,7 @@
         <v>9</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="AH70" s="22" t="n">
         <v>9</v>
@@ -14524,47 +14851,47 @@
     <row r="71" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="36"/>
       <c r="B71" s="37" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="38" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="39" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="I71" s="39" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="J71" s="39"/>
       <c r="K71" s="40"/>
       <c r="L71" s="40"/>
       <c r="M71" s="40"/>
       <c r="N71" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="O71" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="P71" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="Q71" s="42"/>
       <c r="R71" s="42"/>
       <c r="S71" s="42"/>
       <c r="T71" s="44" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="U71" s="44" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="V71" s="44" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="W71" s="45"/>
       <c r="X71" s="45"/>
@@ -14593,13 +14920,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>12</v>
@@ -14654,16 +14981,16 @@
         <v>12</v>
       </c>
       <c r="Z72" s="20" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="AA72" s="20" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="AC72" s="21" t="s">
         <v>12</v>
       </c>
       <c r="AD72" s="21" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="AE72" s="21" t="s">
         <v>12</v>
@@ -14672,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="22" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="AH72" s="22" t="n">
         <v>0</v>
@@ -14681,47 +15008,47 @@
     <row r="73" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="36"/>
       <c r="B73" s="37" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="38" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="G73" s="38"/>
       <c r="H73" s="39" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="I73" s="39" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="J73" s="39"/>
       <c r="K73" s="40"/>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
       <c r="N73" s="41" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="O73" s="41" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="P73" s="41" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="Q73" s="42"/>
       <c r="R73" s="42"/>
       <c r="S73" s="42"/>
       <c r="T73" s="44" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="U73" s="44" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="V73" s="44" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="W73" s="45"/>
       <c r="X73" s="45"/>
@@ -14750,10 +15077,10 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>688</v>
+        <v>706</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="75" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14794,10 +15121,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14838,10 +15165,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14882,10 +15209,10 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>693</v>
+        <v>710</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="81" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14926,7 +15253,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>24</v>
@@ -14970,88 +15297,88 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>126</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="I84" s="55" t="s">
         <v>70</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="M84" s="15" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="P84" s="16" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="Q84" s="17" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="R84" s="17" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="S84" s="17" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="T84" s="18" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="U84" s="18" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="V84" s="18" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="AA84" s="20" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="AF84" s="22" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="AG84" s="22" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="AH84" s="22" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="36"/>
       <c r="B85" s="37" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
@@ -15065,10 +15392,10 @@
         <v>16</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="I85" s="39" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="J85" s="39"/>
       <c r="K85" s="40"/>
@@ -15078,13 +15405,13 @@
       <c r="O85" s="41"/>
       <c r="P85" s="41"/>
       <c r="Q85" s="42" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="R85" s="42" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="S85" s="42" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="T85" s="44" t="s">
         <v>16</v>
@@ -15116,13 +15443,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>14</v>
@@ -15140,7 +15467,7 @@
         <v>14</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>45</v>
@@ -15151,41 +15478,41 @@
       <c r="M86" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N86" s="56" t="s">
+      <c r="N86" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="O86" s="56" t="s">
+      <c r="O86" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="P86" s="56" t="s">
+      <c r="P86" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="Q86" s="57" t="s">
+      <c r="Q86" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="R86" s="57" t="s">
+      <c r="R86" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="S86" s="57" t="s">
+      <c r="S86" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="T86" s="58" t="s">
-        <v>678</v>
-      </c>
-      <c r="U86" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="V86" s="58" t="s">
-        <v>678</v>
+      <c r="T86" s="60" t="s">
+        <v>697</v>
+      </c>
+      <c r="U86" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="V86" s="60" t="s">
+        <v>697</v>
       </c>
       <c r="Z86" s="20" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="AF86" s="22" t="s">
         <v>14</v>
       </c>
       <c r="AG86" s="22" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="AH86" s="22" t="s">
         <v>14</v>
@@ -15194,7 +15521,7 @@
     <row r="87" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="36"/>
       <c r="B87" s="37" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -15202,10 +15529,10 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
       <c r="H87" s="39" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="I87" s="39" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="J87" s="39"/>
       <c r="K87" s="40"/>
@@ -15224,13 +15551,13 @@
         <v>144</v>
       </c>
       <c r="T87" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="U87" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="V87" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="W87" s="45"/>
       <c r="X87" s="45"/>
@@ -15253,16 +15580,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>160</v>
@@ -15271,7 +15598,7 @@
         <v>124</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="I88" s="55" t="s">
         <v>57</v>
@@ -15280,19 +15607,19 @@
         <v>18</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="M88" s="15" t="s">
         <v>18</v>
       </c>
       <c r="N88" s="16" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="P88" s="16" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="Q88" s="17" t="s">
         <v>136</v>
@@ -15303,41 +15630,41 @@
       <c r="S88" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="T88" s="58" t="s">
+      <c r="T88" s="60" t="s">
         <v>164</v>
       </c>
       <c r="U88" s="18" t="s">
         <v>162</v>
       </c>
       <c r="Z88" s="20" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="AA88" s="20" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="AC88" s="21" t="s">
         <v>296</v>
       </c>
       <c r="AD88" s="21" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="AE88" s="21" t="s">
         <v>296</v>
       </c>
       <c r="AF88" s="22" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="AG88" s="22" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="AH88" s="22" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="36"/>
       <c r="B89" s="37" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -15348,37 +15675,37 @@
       <c r="I89" s="39"/>
       <c r="J89" s="39"/>
       <c r="K89" s="40" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="L89" s="40" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="M89" s="40" t="s">
-        <v>589</v>
-      </c>
-      <c r="N89" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="N89" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="O89" s="59" t="s">
+      <c r="O89" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="P89" s="59" t="s">
+      <c r="P89" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="Q89" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="R89" s="60" t="s">
-        <v>589</v>
-      </c>
-      <c r="S89" s="60" t="s">
-        <v>589</v>
+      <c r="Q89" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="R89" s="62" t="s">
+        <v>608</v>
+      </c>
+      <c r="S89" s="62" t="s">
+        <v>608</v>
       </c>
       <c r="T89" s="43" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="U89" s="43" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="V89" s="43"/>
       <c r="W89" s="45"/>
@@ -15402,141 +15729,141 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="I90" s="14" t="s">
         <v>47</v>
       </c>
       <c r="K90" s="15" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="M90" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="N90" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="N90" s="58" t="s">
         <v>78</v>
       </c>
       <c r="O90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P90" s="56" t="s">
+      <c r="P90" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="Q90" s="57" t="s">
-        <v>672</v>
-      </c>
-      <c r="R90" s="57" t="s">
-        <v>681</v>
-      </c>
-      <c r="S90" s="57" t="s">
-        <v>672</v>
-      </c>
-      <c r="T90" s="58" t="s">
+      <c r="Q90" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="R90" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="S90" s="59" t="s">
+        <v>691</v>
+      </c>
+      <c r="T90" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="U90" s="58" t="s">
+      <c r="U90" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="V90" s="58"/>
+      <c r="V90" s="60"/>
       <c r="Z90" s="20" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="AA90" s="20" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="AC90" s="21" t="s">
         <v>302</v>
       </c>
       <c r="AD90" s="21" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="AE90" s="21" t="s">
         <v>302</v>
       </c>
       <c r="AF90" s="22" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="AG90" s="22" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="AH90" s="22" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="36"/>
       <c r="B91" s="37" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="38" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="F91" s="38" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="G91" s="38"/>
-      <c r="H91" s="61" t="s">
+      <c r="H91" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="I91" s="61" t="s">
+      <c r="I91" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="J91" s="61"/>
+      <c r="J91" s="63"/>
       <c r="K91" s="40" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="L91" s="40" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="M91" s="40" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="N91" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="O91" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="P91" s="41" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="Q91" s="42" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="R91" s="42" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="S91" s="42" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="T91" s="44" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="U91" s="44" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="V91" s="44"/>
       <c r="W91" s="45"/>
@@ -15560,25 +15887,25 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="I92" s="14" t="s">
         <v>80</v>
@@ -15590,13 +15917,13 @@
         <v>99</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="O92" s="16" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="P92" s="16" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="Q92" s="17" t="s">
         <v>156</v>
@@ -15608,19 +15935,19 @@
         <v>120</v>
       </c>
       <c r="T92" s="18" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="U92" s="18" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="Z92" s="20" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="AC92" s="21" t="s">
         <v>304</v>
       </c>
       <c r="AD92" s="50" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="AE92" s="21" t="s">
         <v>304</v>
@@ -15629,7 +15956,7 @@
         <v>16</v>
       </c>
       <c r="AG92" s="51" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="AH92" s="22" t="s">
         <v>16</v>
@@ -15638,7 +15965,7 @@
     <row r="93" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="36"/>
       <c r="B93" s="37" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -15649,10 +15976,10 @@
       <c r="I93" s="39"/>
       <c r="J93" s="39"/>
       <c r="K93" s="40" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="L93" s="40" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="M93" s="40"/>
       <c r="N93" s="41"/>
@@ -15695,96 +16022,96 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="K94" s="15" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="M94" s="15" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="N94" s="16" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="P94" s="16" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="Q94" s="17" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="R94" s="17" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="S94" s="17" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="T94" s="18" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="U94" s="18" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="V94" s="18" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="AC94" s="21" t="s">
         <v>16</v>
       </c>
       <c r="AD94" s="21" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="AE94" s="21" t="s">
         <v>16</v>
       </c>
       <c r="AF94" s="22" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="AG94" s="22" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="AH94" s="22" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
     </row>
     <row r="95" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="36"/>
       <c r="B95" s="37" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="38" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="F95" s="38" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="G95" s="38"/>
       <c r="H95" s="39"/>
@@ -15800,13 +16127,13 @@
       <c r="R95" s="42"/>
       <c r="S95" s="42"/>
       <c r="T95" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="U95" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="V95" s="44" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="W95" s="45"/>
       <c r="X95" s="45"/>
@@ -15823,16 +16150,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>152</v>
@@ -15841,10 +16168,10 @@
         <v>116</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>146</v>
@@ -15861,26 +16188,26 @@
       <c r="Q96" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="R96" s="57" t="s">
+      <c r="R96" s="59" t="s">
         <v>134</v>
       </c>
       <c r="S96" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="T96" s="58" t="s">
+      <c r="T96" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="U96" s="58" t="s">
+      <c r="U96" s="60" t="s">
         <v>170</v>
       </c>
       <c r="Z96" s="20" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="AC96" s="21" t="s">
         <v>329</v>
       </c>
       <c r="AD96" s="21" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="AE96" s="21" t="s">
         <v>329</v>
@@ -15898,7 +16225,7 @@
     <row r="97" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="36"/>
       <c r="B97" s="37" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
@@ -15915,13 +16242,13 @@
       <c r="O97" s="41"/>
       <c r="P97" s="41"/>
       <c r="Q97" s="42" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="R97" s="42" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="S97" s="42" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="T97" s="44" t="s">
         <v>78</v>
@@ -15951,16 +16278,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C98" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>130</v>
@@ -15972,7 +16299,7 @@
         <v>120</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>78</v>
@@ -15983,32 +16310,32 @@
       <c r="M98" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="N98" s="56" t="s">
+      <c r="N98" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="O98" s="56" t="s">
+      <c r="O98" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="P98" s="56" t="s">
+      <c r="P98" s="58" t="s">
         <v>86</v>
       </c>
       <c r="Q98" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="R98" s="57" t="s">
+      <c r="R98" s="59" t="s">
         <v>150</v>
       </c>
       <c r="S98" s="17" t="s">
         <v>95</v>
       </c>
       <c r="T98" s="18" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="U98" s="18" t="s">
         <v>166</v>
       </c>
       <c r="Z98" s="20" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="AC98" s="21" t="s">
         <v>311</v>
@@ -16020,19 +16347,19 @@
         <v>311</v>
       </c>
       <c r="AF98" s="22" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="AG98" s="22" t="s">
         <v>8</v>
       </c>
       <c r="AH98" s="22" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="36"/>
       <c r="B99" s="37" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
@@ -16043,25 +16370,25 @@
       <c r="I99" s="39"/>
       <c r="J99" s="39"/>
       <c r="K99" s="40" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="L99" s="40" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="M99" s="40" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="N99" s="41"/>
       <c r="O99" s="41"/>
       <c r="P99" s="41"/>
       <c r="Q99" s="42" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="R99" s="42" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="S99" s="42" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="T99" s="44"/>
       <c r="U99" s="44"/>
@@ -16081,86 +16408,86 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>70</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="I100" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="K100" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="K100" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="L100" s="62" t="s">
+      <c r="L100" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="M100" s="62" t="s">
+      <c r="M100" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="N100" s="56" t="s">
+      <c r="N100" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="P100" s="56" t="s">
+      <c r="O100" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="P100" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="57" t="s">
+      <c r="Q100" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="S100" s="57" t="s">
+      <c r="R100" s="59" t="s">
+        <v>681</v>
+      </c>
+      <c r="S100" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="58" t="s">
+      <c r="T100" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="U100" s="58" t="s">
+      <c r="U100" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="V100" s="58"/>
+      <c r="V100" s="60"/>
       <c r="Z100" s="20" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="AC100" s="21" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="AD100" s="21" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="AE100" s="21" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="AF100" s="22" t="s">
         <v>18</v>
       </c>
       <c r="AG100" s="22" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="AH100" s="22" t="s">
         <v>18</v>
@@ -16169,7 +16496,7 @@
     <row r="101" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="36"/>
       <c r="B101" s="37" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -16195,10 +16522,10 @@
       <c r="R101" s="42"/>
       <c r="S101" s="42"/>
       <c r="T101" s="44" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="U101" s="44" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="V101" s="44"/>
       <c r="W101" s="45"/>
@@ -16216,52 +16543,52 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="M102" s="15" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="N102" s="16" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="O102" s="16" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="P102" s="16" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="Q102" s="17" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="S102" s="17" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="T102" s="18" t="s">
         <v>152</v>
@@ -16270,10 +16597,10 @@
         <v>116</v>
       </c>
       <c r="Z102" s="20" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="AA102" s="20" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="AC102" s="21" t="s">
         <v>334</v>
@@ -16288,7 +16615,7 @@
         <v>10</v>
       </c>
       <c r="AG102" s="22" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="AH102" s="22" t="s">
         <v>10</v>
@@ -16297,7 +16624,7 @@
     <row r="103" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="36"/>
       <c r="B103" s="37" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -16313,13 +16640,13 @@
       <c r="N103" s="41"/>
       <c r="O103" s="41"/>
       <c r="P103" s="41"/>
-      <c r="Q103" s="60" t="s">
+      <c r="Q103" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="R103" s="60" t="s">
+      <c r="R103" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="S103" s="60" t="s">
+      <c r="S103" s="62" t="s">
         <v>64</v>
       </c>
       <c r="T103" s="43"/>
@@ -16340,52 +16667,52 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="M104" s="15" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="P104" s="16" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="Q104" s="17" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="S104" s="17" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="T104" s="18" t="s">
         <v>134</v>
@@ -16394,34 +16721,34 @@
         <v>99</v>
       </c>
       <c r="Z104" s="20" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="AA104" s="20" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="AC104" s="21" t="s">
         <v>306</v>
       </c>
       <c r="AD104" s="21" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="AE104" s="21" t="s">
         <v>306</v>
       </c>
       <c r="AF104" s="22" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="AG104" s="22" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="AH104" s="22" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
     </row>
     <row r="105" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="36"/>
       <c r="B105" s="37" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -16437,13 +16764,13 @@
       <c r="N105" s="41"/>
       <c r="O105" s="41"/>
       <c r="P105" s="41"/>
-      <c r="Q105" s="60" t="s">
+      <c r="Q105" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="R105" s="60" t="s">
+      <c r="R105" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="S105" s="60" t="s">
+      <c r="S105" s="62" t="s">
         <v>88</v>
       </c>
       <c r="T105" s="43"/>
@@ -16464,73 +16791,73 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="I106" s="14" t="s">
         <v>55</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="L106" s="15" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="M106" s="15" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="N106" s="16" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="P106" s="16" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="Q106" s="17" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="S106" s="17" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="T106" s="18" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="U106" s="18" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="V106" s="18" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="Z106" s="20" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="AA106" s="20" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="AC106" s="21" t="s">
         <v>312</v>
@@ -16542,18 +16869,18 @@
         <v>312</v>
       </c>
       <c r="AF106" s="22" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="AG106" s="22" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="AH106" s="22" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="12" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="Q107" s="17" t="s">
         <v>70</v>
@@ -16566,402 +16893,402 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="63"/>
-      <c r="B108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="C108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="D108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="E108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="F108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="G108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="H108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="I108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="J108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="K108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="L108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="M108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="N108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="O108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="P108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="R108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="S108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="T108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="U108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="V108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="W108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="X108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="Z108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="AB108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="AC108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="AE108" s="63" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF108" s="63" t="s">
-        <v>713</v>
-      </c>
-      <c r="AG108" s="63" t="s">
-        <v>714</v>
-      </c>
-      <c r="AH108" s="63" t="s">
-        <v>715</v>
+      <c r="A108" s="65"/>
+      <c r="B108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="D108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="E108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="F108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="G108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="H108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="I108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="J108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="K108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="L108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="M108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="N108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="O108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="P108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="R108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="S108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="T108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="U108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="V108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="W108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="X108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="AC108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE108" s="65" t="s">
+        <v>732</v>
+      </c>
+      <c r="AF108" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="AG108" s="65" t="s">
+        <v>731</v>
+      </c>
+      <c r="AH108" s="65" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="63"/>
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
-      <c r="G109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="H109" s="63"/>
-      <c r="I109" s="63"/>
-      <c r="J109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="K109" s="63"/>
-      <c r="L109" s="63"/>
-      <c r="M109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="N109" s="63"/>
-      <c r="O109" s="63"/>
-      <c r="P109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q109" s="63"/>
-      <c r="R109" s="63"/>
-      <c r="S109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="T109" s="63"/>
-      <c r="U109" s="63"/>
-      <c r="V109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="W109" s="63"/>
-      <c r="X109" s="63"/>
-      <c r="Y109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="Z109" s="63"/>
-      <c r="AA109" s="63"/>
-      <c r="AB109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="AC109" s="63"/>
-      <c r="AD109" s="63"/>
-      <c r="AE109" s="64" t="s">
-        <v>716</v>
-      </c>
-      <c r="AF109" s="63"/>
-      <c r="AG109" s="63"/>
-      <c r="AH109" s="64" t="s">
-        <v>716</v>
+      <c r="A109" s="65"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="N109" s="65"/>
+      <c r="O109" s="65"/>
+      <c r="P109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q109" s="65"/>
+      <c r="R109" s="65"/>
+      <c r="S109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="T109" s="65"/>
+      <c r="U109" s="65"/>
+      <c r="V109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="W109" s="65"/>
+      <c r="X109" s="65"/>
+      <c r="Y109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z109" s="65"/>
+      <c r="AA109" s="65"/>
+      <c r="AB109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="AC109" s="65"/>
+      <c r="AD109" s="65"/>
+      <c r="AE109" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF109" s="65"/>
+      <c r="AG109" s="65"/>
+      <c r="AH109" s="66" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="63"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="63"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="63"/>
-      <c r="H110" s="63"/>
-      <c r="I110" s="63"/>
-      <c r="J110" s="63"/>
-      <c r="K110" s="63"/>
-      <c r="L110" s="63"/>
-      <c r="M110" s="63"/>
-      <c r="N110" s="63"/>
-      <c r="O110" s="63"/>
-      <c r="P110" s="63"/>
-      <c r="Q110" s="63"/>
-      <c r="R110" s="63"/>
-      <c r="S110" s="63"/>
-      <c r="T110" s="63"/>
-      <c r="U110" s="63"/>
-      <c r="V110" s="63"/>
-      <c r="W110" s="63"/>
-      <c r="X110" s="63"/>
-      <c r="Y110" s="63"/>
-      <c r="Z110" s="63"/>
-      <c r="AA110" s="63"/>
-      <c r="AB110" s="63"/>
-      <c r="AC110" s="63"/>
-      <c r="AD110" s="63"/>
-      <c r="AE110" s="63"/>
-      <c r="AF110" s="63"/>
-      <c r="AG110" s="63"/>
-      <c r="AH110" s="63"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
+      <c r="L110" s="65"/>
+      <c r="M110" s="65"/>
+      <c r="N110" s="65"/>
+      <c r="O110" s="65"/>
+      <c r="P110" s="65"/>
+      <c r="Q110" s="65"/>
+      <c r="R110" s="65"/>
+      <c r="S110" s="65"/>
+      <c r="T110" s="65"/>
+      <c r="U110" s="65"/>
+      <c r="V110" s="65"/>
+      <c r="W110" s="65"/>
+      <c r="X110" s="65"/>
+      <c r="Y110" s="65"/>
+      <c r="Z110" s="65"/>
+      <c r="AA110" s="65"/>
+      <c r="AB110" s="65"/>
+      <c r="AC110" s="65"/>
+      <c r="AD110" s="65"/>
+      <c r="AE110" s="65"/>
+      <c r="AF110" s="65"/>
+      <c r="AG110" s="65"/>
+      <c r="AH110" s="65"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="63"/>
-      <c r="B111" s="65" t="s">
-        <v>717</v>
-      </c>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65" t="s">
-        <v>718</v>
-      </c>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65" t="s">
-        <v>719</v>
-      </c>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65" t="s">
-        <v>720</v>
-      </c>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65" t="s">
-        <v>721</v>
-      </c>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65" t="s">
-        <v>722</v>
-      </c>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65" t="s">
-        <v>723</v>
-      </c>
-      <c r="U111" s="65"/>
-      <c r="V111" s="65"/>
-      <c r="W111" s="65" t="s">
-        <v>724</v>
-      </c>
-      <c r="X111" s="65"/>
-      <c r="Y111" s="65"/>
-      <c r="Z111" s="65" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA111" s="65"/>
-      <c r="AB111" s="65"/>
-      <c r="AC111" s="65" t="s">
-        <v>726</v>
-      </c>
-      <c r="AD111" s="65"/>
-      <c r="AE111" s="65"/>
-      <c r="AF111" s="65" t="s">
-        <v>727</v>
-      </c>
-      <c r="AG111" s="65"/>
-      <c r="AH111" s="65"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="67" t="s">
+        <v>734</v>
+      </c>
+      <c r="C111" s="67"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="67" t="s">
+        <v>735</v>
+      </c>
+      <c r="F111" s="67"/>
+      <c r="G111" s="67"/>
+      <c r="H111" s="67" t="s">
+        <v>736</v>
+      </c>
+      <c r="I111" s="67"/>
+      <c r="J111" s="67"/>
+      <c r="K111" s="67" t="s">
+        <v>737</v>
+      </c>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="67" t="s">
+        <v>738</v>
+      </c>
+      <c r="O111" s="67"/>
+      <c r="P111" s="67"/>
+      <c r="Q111" s="67" t="s">
+        <v>739</v>
+      </c>
+      <c r="R111" s="67"/>
+      <c r="S111" s="67"/>
+      <c r="T111" s="67" t="s">
+        <v>740</v>
+      </c>
+      <c r="U111" s="67"/>
+      <c r="V111" s="67"/>
+      <c r="W111" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="X111" s="67"/>
+      <c r="Y111" s="67"/>
+      <c r="Z111" s="67" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA111" s="67"/>
+      <c r="AB111" s="67"/>
+      <c r="AC111" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD111" s="67"/>
+      <c r="AE111" s="67"/>
+      <c r="AF111" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="AG111" s="67"/>
+      <c r="AH111" s="67"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="63"/>
-      <c r="B112" s="63"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="63"/>
-      <c r="E112" s="63"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="63"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="63"/>
-      <c r="J112" s="63"/>
-      <c r="K112" s="63"/>
-      <c r="L112" s="63"/>
-      <c r="M112" s="63"/>
-      <c r="N112" s="63"/>
-      <c r="O112" s="63"/>
-      <c r="P112" s="63"/>
-      <c r="Q112" s="63"/>
-      <c r="R112" s="63"/>
-      <c r="S112" s="63"/>
-      <c r="T112" s="63"/>
-      <c r="U112" s="63"/>
-      <c r="V112" s="63"/>
-      <c r="W112" s="63"/>
-      <c r="X112" s="63"/>
-      <c r="Y112" s="63"/>
-      <c r="Z112" s="63"/>
-      <c r="AA112" s="63"/>
-      <c r="AB112" s="63"/>
-      <c r="AC112" s="63"/>
-      <c r="AD112" s="63"/>
-      <c r="AE112" s="63"/>
-      <c r="AF112" s="63"/>
-      <c r="AG112" s="63"/>
-      <c r="AH112" s="63"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
+      <c r="L112" s="65"/>
+      <c r="M112" s="65"/>
+      <c r="N112" s="65"/>
+      <c r="O112" s="65"/>
+      <c r="P112" s="65"/>
+      <c r="Q112" s="65"/>
+      <c r="R112" s="65"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="65"/>
+      <c r="V112" s="65"/>
+      <c r="W112" s="65"/>
+      <c r="X112" s="65"/>
+      <c r="Y112" s="65"/>
+      <c r="Z112" s="65"/>
+      <c r="AA112" s="65"/>
+      <c r="AB112" s="65"/>
+      <c r="AC112" s="65"/>
+      <c r="AD112" s="65"/>
+      <c r="AE112" s="65"/>
+      <c r="AF112" s="65"/>
+      <c r="AG112" s="65"/>
+      <c r="AH112" s="65"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="63"/>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="63"/>
-      <c r="J113" s="63"/>
-      <c r="K113" s="63"/>
-      <c r="L113" s="63"/>
-      <c r="M113" s="63"/>
-      <c r="N113" s="63"/>
-      <c r="O113" s="63"/>
-      <c r="P113" s="63"/>
-      <c r="Q113" s="63"/>
-      <c r="R113" s="63"/>
-      <c r="S113" s="63"/>
-      <c r="T113" s="63"/>
-      <c r="U113" s="63"/>
-      <c r="V113" s="63"/>
-      <c r="W113" s="63"/>
-      <c r="X113" s="63"/>
-      <c r="Y113" s="63"/>
-      <c r="Z113" s="63"/>
-      <c r="AA113" s="63"/>
-      <c r="AB113" s="63"/>
-      <c r="AC113" s="63"/>
-      <c r="AD113" s="63"/>
-      <c r="AE113" s="63"/>
-      <c r="AF113" s="63"/>
-      <c r="AG113" s="63"/>
-      <c r="AH113" s="63"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="65"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="65"/>
+      <c r="V113" s="65"/>
+      <c r="W113" s="65"/>
+      <c r="X113" s="65"/>
+      <c r="Y113" s="65"/>
+      <c r="Z113" s="65"/>
+      <c r="AA113" s="65"/>
+      <c r="AB113" s="65"/>
+      <c r="AC113" s="65"/>
+      <c r="AD113" s="65"/>
+      <c r="AE113" s="65"/>
+      <c r="AF113" s="65"/>
+      <c r="AG113" s="65"/>
+      <c r="AH113" s="65"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="63"/>
-      <c r="B114" s="63"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="63"/>
-      <c r="E114" s="63"/>
-      <c r="F114" s="63"/>
-      <c r="G114" s="63"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="63"/>
-      <c r="J114" s="63"/>
-      <c r="K114" s="63"/>
-      <c r="L114" s="63"/>
-      <c r="M114" s="63"/>
-      <c r="N114" s="63"/>
-      <c r="O114" s="63"/>
-      <c r="P114" s="63"/>
-      <c r="Q114" s="63"/>
-      <c r="R114" s="63"/>
-      <c r="S114" s="63"/>
-      <c r="T114" s="63"/>
-      <c r="U114" s="63"/>
-      <c r="V114" s="63"/>
-      <c r="W114" s="63"/>
-      <c r="X114" s="63"/>
-      <c r="Y114" s="63"/>
-      <c r="Z114" s="63"/>
-      <c r="AA114" s="63"/>
-      <c r="AB114" s="63"/>
-      <c r="AC114" s="63"/>
-      <c r="AD114" s="63"/>
-      <c r="AE114" s="63"/>
-      <c r="AF114" s="63"/>
-      <c r="AG114" s="63"/>
-      <c r="AH114" s="63"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="65"/>
+      <c r="L114" s="65"/>
+      <c r="M114" s="65"/>
+      <c r="N114" s="65"/>
+      <c r="O114" s="65"/>
+      <c r="P114" s="65"/>
+      <c r="Q114" s="65"/>
+      <c r="R114" s="65"/>
+      <c r="S114" s="65"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="65"/>
+      <c r="V114" s="65"/>
+      <c r="W114" s="65"/>
+      <c r="X114" s="65"/>
+      <c r="Y114" s="65"/>
+      <c r="Z114" s="65"/>
+      <c r="AA114" s="65"/>
+      <c r="AB114" s="65"/>
+      <c r="AC114" s="65"/>
+      <c r="AD114" s="65"/>
+      <c r="AE114" s="65"/>
+      <c r="AF114" s="65"/>
+      <c r="AG114" s="65"/>
+      <c r="AH114" s="65"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="63"/>
-      <c r="B115" s="63"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="63"/>
-      <c r="K115" s="63"/>
-      <c r="L115" s="63"/>
-      <c r="M115" s="63"/>
-      <c r="N115" s="63"/>
-      <c r="O115" s="63"/>
-      <c r="P115" s="63"/>
-      <c r="Q115" s="63"/>
-      <c r="R115" s="63"/>
-      <c r="S115" s="63"/>
-      <c r="T115" s="63"/>
-      <c r="U115" s="63"/>
-      <c r="V115" s="63"/>
-      <c r="W115" s="63"/>
-      <c r="X115" s="63"/>
-      <c r="Y115" s="63"/>
-      <c r="Z115" s="63"/>
-      <c r="AA115" s="63"/>
-      <c r="AB115" s="63"/>
-      <c r="AC115" s="63"/>
-      <c r="AD115" s="63"/>
-      <c r="AE115" s="63"/>
-      <c r="AF115" s="63"/>
-      <c r="AG115" s="63"/>
-      <c r="AH115" s="63"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65"/>
+      <c r="M115" s="65"/>
+      <c r="N115" s="65"/>
+      <c r="O115" s="65"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="65"/>
+      <c r="R115" s="65"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="65"/>
+      <c r="V115" s="65"/>
+      <c r="W115" s="65"/>
+      <c r="X115" s="65"/>
+      <c r="Y115" s="65"/>
+      <c r="Z115" s="65"/>
+      <c r="AA115" s="65"/>
+      <c r="AB115" s="65"/>
+      <c r="AC115" s="65"/>
+      <c r="AD115" s="65"/>
+      <c r="AE115" s="65"/>
+      <c r="AF115" s="65"/>
+      <c r="AG115" s="65"/>
+      <c r="AH115" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="named_glyphs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="797">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -2355,24 +2355,21 @@
     <t xml:space="preserve">KC_NONUS_HASH</t>
   </si>
   <si>
+    <t xml:space="preserve">KC_SEMICOLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_QUOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_GRAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\v\xb2</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">KC_SEMICOLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC_QUOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KC_GRAVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\v\xb2</t>
-  </si>
-  <si>
     <t xml:space="preserve">KC_COMMA</t>
   </si>
   <si>
@@ -2383,6 +2380,12 @@
   </si>
   <si>
     <t xml:space="preserve">KC_SLASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC_NONUS_BACKSLASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;|</t>
   </si>
   <si>
     <t xml:space="preserve">lower</t>
@@ -2907,15 +2910,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2986,11 +2980,11 @@
   </sheetPr>
   <dimension ref="A1:G393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D367" activeCellId="0" sqref="D367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
@@ -12357,19 +12351,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH115"/>
+  <dimension ref="A1:AH1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="C79" activeCellId="0" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="J67" activeCellId="0" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="14" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="15" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="16" width="16.9"/>
@@ -16855,94 +16849,32 @@
         <v>770</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>16</v>
+        <v>737</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>16</v>
+        <v>737</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>771</v>
-      </c>
-      <c r="I94" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="K94" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="M94" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="N94" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="O94" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="P94" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q94" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="R94" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="S94" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="T94" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="U94" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="V94" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="AC94" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD94" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="AE94" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF94" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="AG94" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="AH94" s="24" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="95" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="38"/>
       <c r="B95" s="39" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
       <c r="E95" s="40" t="s">
-        <v>732</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>732</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="41"/>
       <c r="I95" s="41"/>
@@ -16956,15 +16888,9 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
       <c r="S95" s="44"/>
-      <c r="T95" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="U95" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="V95" s="46" t="s">
-        <v>732</v>
-      </c>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
       <c r="W95" s="47"/>
       <c r="X95" s="47"/>
       <c r="Y95" s="47"/>
@@ -16980,7 +16906,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>695</v>
@@ -17108,7 +17034,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>735</v>
@@ -17189,10 +17115,12 @@
     <row r="99" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="38"/>
       <c r="B99" s="39" t="s">
-        <v>774</v>
+        <v>8</v>
       </c>
       <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
+      <c r="D99" s="39" t="s">
+        <v>8</v>
+      </c>
       <c r="E99" s="40"/>
       <c r="F99" s="40"/>
       <c r="G99" s="40"/>
@@ -17238,7 +17166,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>18</v>
@@ -17259,13 +17187,13 @@
         <v>738</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K100" s="66" t="s">
         <v>86</v>
@@ -17308,7 +17236,7 @@
         <v>733</v>
       </c>
       <c r="AD100" s="23" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="AE100" s="23" t="s">
         <v>733</v>
@@ -17352,10 +17280,10 @@
       <c r="R101" s="44"/>
       <c r="S101" s="44"/>
       <c r="T101" s="46" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="U101" s="46" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="V101" s="46"/>
       <c r="W101" s="47"/>
@@ -17373,17 +17301,20 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="E102" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="F102" s="15" t="s">
         <v>695</v>
       </c>
@@ -17391,34 +17322,34 @@
         <v>695</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K102" s="17" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="L102" s="17" t="s">
         <v>695</v>
       </c>
       <c r="M102" s="17" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="O102" s="18" t="s">
         <v>695</v>
       </c>
       <c r="P102" s="18" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="Q102" s="19" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="R102" s="19" t="s">
         <v>695</v>
       </c>
       <c r="S102" s="19" t="s">
-        <v>682</v>
+        <v>10</v>
       </c>
       <c r="T102" s="20" t="s">
         <v>152</v>
@@ -17445,7 +17376,7 @@
         <v>10</v>
       </c>
       <c r="AG102" s="24" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="AH102" s="24" t="s">
         <v>10</v>
@@ -17454,11 +17385,15 @@
     <row r="103" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="38"/>
       <c r="B103" s="39" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="40"/>
+      <c r="D103" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>695</v>
+      </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
       <c r="H103" s="41"/>
@@ -17497,16 +17432,19 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C104" s="14" t="s">
         <v>733</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>777</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>696</v>
@@ -17518,31 +17456,31 @@
         <v>678</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L104" s="17" t="s">
         <v>696</v>
       </c>
       <c r="M104" s="17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O104" s="18" t="s">
         <v>696</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R104" s="19" t="s">
         <v>696</v>
       </c>
       <c r="S104" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T104" s="20" t="s">
         <v>134</v>
@@ -17560,19 +17498,19 @@
         <v>306</v>
       </c>
       <c r="AD104" s="23" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AE104" s="23" t="s">
         <v>306</v>
       </c>
       <c r="AF104" s="24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AG104" s="24" t="s">
         <v>733</v>
       </c>
       <c r="AH104" s="24" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="105" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17582,7 +17520,9 @@
       </c>
       <c r="C105" s="39"/>
       <c r="D105" s="39"/>
-      <c r="E105" s="40"/>
+      <c r="E105" s="40" t="s">
+        <v>696</v>
+      </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
       <c r="H105" s="41"/>
@@ -17621,7 +17561,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>678</v>
@@ -17675,13 +17615,13 @@
         <v>748</v>
       </c>
       <c r="T106" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U106" s="20" t="s">
         <v>696</v>
       </c>
       <c r="V106" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Z106" s="22" t="s">
         <v>527</v>
@@ -17723,258 +17663,249 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="67"/>
-      <c r="B108" s="67" t="s">
+      <c r="A108" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="AC108" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD108" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE108" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="38"/>
+      <c r="B109" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="C108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="D108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="E108" s="67" t="s">
+      <c r="C109" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="D109" s="39" t="s">
         <v>781</v>
       </c>
-      <c r="F108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="G108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="H108" s="67" t="s">
+      <c r="E109" s="40" t="s">
         <v>781</v>
       </c>
-      <c r="I108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="J108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="K108" s="67" t="s">
+      <c r="F109" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="41" t="s">
         <v>781</v>
       </c>
-      <c r="L108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="M108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="N108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="O108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="P108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="Q108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="R108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="S108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="T108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="U108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="V108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="W108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="X108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="Y108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="Z108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="AC108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="AD108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE108" s="67" t="s">
-        <v>783</v>
-      </c>
-      <c r="AF108" s="67" t="s">
-        <v>781</v>
-      </c>
-      <c r="AG108" s="67" t="s">
-        <v>782</v>
-      </c>
-      <c r="AH108" s="67" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="67"/>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="K109" s="67"/>
-      <c r="L109" s="67"/>
-      <c r="M109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="N109" s="67"/>
-      <c r="O109" s="67"/>
-      <c r="P109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="Q109" s="67"/>
-      <c r="R109" s="67"/>
-      <c r="S109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="T109" s="67"/>
-      <c r="U109" s="67"/>
-      <c r="V109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="W109" s="67"/>
-      <c r="X109" s="67"/>
-      <c r="Y109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="Z109" s="67"/>
-      <c r="AA109" s="67"/>
-      <c r="AB109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="AC109" s="67"/>
-      <c r="AD109" s="67"/>
-      <c r="AE109" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="AF109" s="67"/>
-      <c r="AG109" s="67"/>
-      <c r="AH109" s="68" t="s">
-        <v>784</v>
-      </c>
+      <c r="I109" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="J109" s="41"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="43"/>
+      <c r="O109" s="43"/>
+      <c r="P109" s="43"/>
+      <c r="Q109" s="44"/>
+      <c r="R109" s="44"/>
+      <c r="S109" s="44"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="46"/>
+      <c r="V109" s="46"/>
+      <c r="W109" s="47"/>
+      <c r="X109" s="47"/>
+      <c r="Y109" s="47"/>
+      <c r="Z109" s="48"/>
+      <c r="AA109" s="48"/>
+      <c r="AB109" s="48"/>
+      <c r="AC109" s="49"/>
+      <c r="AD109" s="49"/>
+      <c r="AE109" s="49"/>
+      <c r="AF109" s="50"/>
+      <c r="AG109" s="50"/>
+      <c r="AH109" s="50"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="67"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67"/>
-      <c r="M110" s="67"/>
-      <c r="N110" s="67"/>
-      <c r="O110" s="67"/>
-      <c r="P110" s="67"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="67"/>
-      <c r="S110" s="67"/>
-      <c r="T110" s="67"/>
-      <c r="U110" s="67"/>
-      <c r="V110" s="67"/>
-      <c r="W110" s="67"/>
-      <c r="X110" s="67"/>
-      <c r="Y110" s="67"/>
-      <c r="Z110" s="67"/>
-      <c r="AA110" s="67"/>
-      <c r="AB110" s="67"/>
-      <c r="AC110" s="67"/>
-      <c r="AD110" s="67"/>
-      <c r="AE110" s="67"/>
-      <c r="AF110" s="67"/>
-      <c r="AG110" s="67"/>
-      <c r="AH110" s="67"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="C110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="D110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="E110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="F110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="G110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="H110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="I110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="J110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="K110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="L110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="M110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="N110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="O110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="P110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="R110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="S110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="T110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="U110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="V110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="W110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="X110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="Y110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="Z110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="AC110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE110" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="AF110" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="AG110" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH110" s="67" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="67"/>
-      <c r="B111" s="69" t="s">
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="68" t="s">
         <v>785</v>
       </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69" t="s">
-        <v>786</v>
-      </c>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69" t="s">
-        <v>787</v>
-      </c>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69" t="s">
-        <v>788</v>
-      </c>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="69" t="s">
-        <v>789</v>
-      </c>
-      <c r="O111" s="69"/>
-      <c r="P111" s="69"/>
-      <c r="Q111" s="69" t="s">
-        <v>790</v>
-      </c>
-      <c r="R111" s="69"/>
-      <c r="S111" s="69"/>
-      <c r="T111" s="69" t="s">
-        <v>791</v>
-      </c>
-      <c r="U111" s="69"/>
-      <c r="V111" s="69"/>
-      <c r="W111" s="69" t="s">
-        <v>792</v>
-      </c>
-      <c r="X111" s="69"/>
-      <c r="Y111" s="69"/>
-      <c r="Z111" s="69" t="s">
-        <v>793</v>
-      </c>
-      <c r="AA111" s="69"/>
-      <c r="AB111" s="69"/>
-      <c r="AC111" s="69" t="s">
-        <v>794</v>
-      </c>
-      <c r="AD111" s="69"/>
-      <c r="AE111" s="69"/>
-      <c r="AF111" s="69" t="s">
-        <v>795</v>
-      </c>
-      <c r="AG111" s="69"/>
-      <c r="AH111" s="69"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="H111" s="67"/>
+      <c r="I111" s="67"/>
+      <c r="J111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="K111" s="67"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="N111" s="67"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q111" s="67"/>
+      <c r="R111" s="67"/>
+      <c r="S111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="T111" s="67"/>
+      <c r="U111" s="67"/>
+      <c r="V111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="W111" s="67"/>
+      <c r="X111" s="67"/>
+      <c r="Y111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="Z111" s="67"/>
+      <c r="AA111" s="67"/>
+      <c r="AB111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="AC111" s="67"/>
+      <c r="AD111" s="67"/>
+      <c r="AE111" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="AF111" s="67"/>
+      <c r="AG111" s="67"/>
+      <c r="AH111" s="68" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="67"/>
@@ -18014,39 +17945,61 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="67"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
-      <c r="R113" s="67"/>
-      <c r="S113" s="67"/>
-      <c r="T113" s="67"/>
-      <c r="U113" s="67"/>
-      <c r="V113" s="67"/>
-      <c r="W113" s="67"/>
-      <c r="X113" s="67"/>
-      <c r="Y113" s="67"/>
-      <c r="Z113" s="67"/>
-      <c r="AA113" s="67"/>
-      <c r="AB113" s="67"/>
-      <c r="AC113" s="67"/>
-      <c r="AD113" s="67"/>
-      <c r="AE113" s="67"/>
-      <c r="AF113" s="67"/>
-      <c r="AG113" s="67"/>
-      <c r="AH113" s="67"/>
+      <c r="B113" s="69" t="s">
+        <v>786</v>
+      </c>
+      <c r="C113" s="69"/>
+      <c r="D113" s="69"/>
+      <c r="E113" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="F113" s="69"/>
+      <c r="G113" s="69"/>
+      <c r="H113" s="69" t="s">
+        <v>788</v>
+      </c>
+      <c r="I113" s="69"/>
+      <c r="J113" s="69"/>
+      <c r="K113" s="69" t="s">
+        <v>789</v>
+      </c>
+      <c r="L113" s="69"/>
+      <c r="M113" s="69"/>
+      <c r="N113" s="69" t="s">
+        <v>790</v>
+      </c>
+      <c r="O113" s="69"/>
+      <c r="P113" s="69"/>
+      <c r="Q113" s="69" t="s">
+        <v>791</v>
+      </c>
+      <c r="R113" s="69"/>
+      <c r="S113" s="69"/>
+      <c r="T113" s="69" t="s">
+        <v>792</v>
+      </c>
+      <c r="U113" s="69"/>
+      <c r="V113" s="69"/>
+      <c r="W113" s="69" t="s">
+        <v>793</v>
+      </c>
+      <c r="X113" s="69"/>
+      <c r="Y113" s="69"/>
+      <c r="Z113" s="69" t="s">
+        <v>794</v>
+      </c>
+      <c r="AA113" s="69"/>
+      <c r="AB113" s="69"/>
+      <c r="AC113" s="69" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD113" s="69"/>
+      <c r="AE113" s="69"/>
+      <c r="AF113" s="69" t="s">
+        <v>796</v>
+      </c>
+      <c r="AG113" s="69"/>
+      <c r="AH113" s="69"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="67"/>
@@ -18120,6 +18073,80 @@
       <c r="AG115" s="67"/>
       <c r="AH115" s="67"/>
     </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="67"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="67"/>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="67"/>
+      <c r="J116" s="67"/>
+      <c r="K116" s="67"/>
+      <c r="L116" s="67"/>
+      <c r="M116" s="67"/>
+      <c r="N116" s="67"/>
+      <c r="O116" s="67"/>
+      <c r="P116" s="67"/>
+      <c r="Q116" s="67"/>
+      <c r="R116" s="67"/>
+      <c r="S116" s="67"/>
+      <c r="T116" s="67"/>
+      <c r="U116" s="67"/>
+      <c r="V116" s="67"/>
+      <c r="W116" s="67"/>
+      <c r="X116" s="67"/>
+      <c r="Y116" s="67"/>
+      <c r="Z116" s="67"/>
+      <c r="AA116" s="67"/>
+      <c r="AB116" s="67"/>
+      <c r="AC116" s="67"/>
+      <c r="AD116" s="67"/>
+      <c r="AE116" s="67"/>
+      <c r="AF116" s="67"/>
+      <c r="AG116" s="67"/>
+      <c r="AH116" s="67"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="67"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="67"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="67"/>
+      <c r="L117" s="67"/>
+      <c r="M117" s="67"/>
+      <c r="N117" s="67"/>
+      <c r="O117" s="67"/>
+      <c r="P117" s="67"/>
+      <c r="Q117" s="67"/>
+      <c r="R117" s="67"/>
+      <c r="S117" s="67"/>
+      <c r="T117" s="67"/>
+      <c r="U117" s="67"/>
+      <c r="V117" s="67"/>
+      <c r="W117" s="67"/>
+      <c r="X117" s="67"/>
+      <c r="Y117" s="67"/>
+      <c r="Z117" s="67"/>
+      <c r="AA117" s="67"/>
+      <c r="AB117" s="67"/>
+      <c r="AC117" s="67"/>
+      <c r="AD117" s="67"/>
+      <c r="AE117" s="67"/>
+      <c r="AF117" s="67"/>
+      <c r="AG117" s="67"/>
+      <c r="AH117" s="67"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="B1:D1"/>
@@ -18133,24 +18160,24 @@
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="Q111:S111"/>
-    <mergeCell ref="T111:V111"/>
-    <mergeCell ref="W111:Y111"/>
-    <mergeCell ref="Z111:AB111"/>
-    <mergeCell ref="AC111:AE111"/>
-    <mergeCell ref="AF111:AH111"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AF113:AH113"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="ISO 639-1 &gt;&gt;&#10;https://en.wikipedia.org/wiki/List_of_ISO_639-1_codes"/>
-    <hyperlink ref="B111" r:id="rId2" display="https://www.branah.com/english"/>
-    <hyperlink ref="N111" r:id="rId3" display="https://www.branah.com/portuguese"/>
-    <hyperlink ref="Q111" r:id="rId4" display="https://www.branah.com/italian"/>
-    <hyperlink ref="AF111" r:id="rId5" display="https://www.branah.com/greek"/>
+    <hyperlink ref="B113" r:id="rId2" display="https://www.branah.com/english"/>
+    <hyperlink ref="N113" r:id="rId3" display="https://www.branah.com/portuguese"/>
+    <hyperlink ref="Q113" r:id="rId4" display="https://www.branah.com/italian"/>
+    <hyperlink ref="AF113" r:id="rId5" display="https://www.branah.com/greek"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -2984,7 +2984,7 @@
       <selection pane="topLeft" activeCell="D367" activeCellId="0" sqref="D367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
@@ -12354,16 +12354,16 @@
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
-      <selection pane="bottomRight" activeCell="J67" activeCellId="0" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="B94" activeCellId="0" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="14" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="15" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="16" width="16.9"/>

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="named_glyphs" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="809">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -1837,6 +1837,42 @@
   </si>
   <si>
     <t xml:space="preserve">e5B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_FAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5B8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_DOCUMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_MIXED_DOCUMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_IMAGE_DOCUMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5Bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVATE_IMAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e5bc</t>
   </si>
   <si>
     <t xml:space="preserve">CLIPBOARD_PASTE</t>
@@ -2978,13 +3014,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G393"/>
+  <dimension ref="A1:G399"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D367" activeCellId="0" sqref="D367"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H375" activeCellId="0" sqref="H375"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.74"/>
@@ -12082,24 +12118,24 @@
       <c r="A379" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="B379" s="9" t="s">
+      <c r="B379" s="12" t="s">
         <v>606</v>
       </c>
       <c r="C379" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B379)</f>
-        <v>58826</v>
+        <v>58807</v>
       </c>
       <c r="D379" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C379,4)</f>
-        <v>E5CA</v>
+        <v>E5B7</v>
       </c>
       <c r="E379" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C379)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F379" s="0" t="n">
         <f aca="false">C379-C378</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G379" s="11"/>
     </row>
@@ -12107,24 +12143,24 @@
       <c r="A380" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="B380" s="9" t="s">
+      <c r="B380" s="1" t="s">
         <v>608</v>
       </c>
       <c r="C380" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B380)</f>
-        <v>58837</v>
+        <v>58808</v>
       </c>
       <c r="D380" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C380,4)</f>
-        <v>E5D5</v>
+        <v>E5B8</v>
       </c>
       <c r="E380" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C380)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F380" s="0" t="n">
         <f aca="false">C380-C379</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G380" s="11"/>
     </row>
@@ -12132,20 +12168,20 @@
       <c r="A381" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" s="12" t="s">
         <v>610</v>
       </c>
       <c r="C381" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B381)</f>
-        <v>58838</v>
+        <v>58809</v>
       </c>
       <c r="D381" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C381,4)</f>
-        <v>E5D6</v>
+        <v>E5B9</v>
       </c>
       <c r="E381" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C381)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F381" s="0" t="n">
         <f aca="false">C381-C380</f>
@@ -12157,20 +12193,20 @@
       <c r="A382" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="B382" s="9" t="s">
+      <c r="B382" s="1" t="s">
         <v>612</v>
       </c>
       <c r="C382" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B382)</f>
-        <v>58839</v>
+        <v>58810</v>
       </c>
       <c r="D382" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C382,4)</f>
-        <v>E5D7</v>
+        <v>E5BA</v>
       </c>
       <c r="E382" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C382)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F382" s="0" t="n">
         <f aca="false">C382-C381</f>
@@ -12182,20 +12218,20 @@
       <c r="A383" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B383" s="12" t="s">
         <v>614</v>
       </c>
       <c r="C383" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B383)</f>
-        <v>58840</v>
+        <v>58811</v>
       </c>
       <c r="D383" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C383,4)</f>
-        <v>E5D8</v>
+        <v>E5BB</v>
       </c>
       <c r="E383" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C383)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F383" s="0" t="n">
         <f aca="false">C383-C382</f>
@@ -12207,20 +12243,20 @@
       <c r="A384" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="1" t="s">
         <v>616</v>
       </c>
       <c r="C384" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B384)</f>
-        <v>58841</v>
+        <v>58812</v>
       </c>
       <c r="D384" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C384,4)</f>
-        <v>E5D9</v>
+        <v>E5BC</v>
       </c>
       <c r="E384" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C384)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F384" s="0" t="n">
         <f aca="false">C384-C383</f>
@@ -12232,24 +12268,24 @@
       <c r="A385" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B385" s="9" t="s">
         <v>618</v>
       </c>
       <c r="C385" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B385)</f>
-        <v>58842</v>
+        <v>58826</v>
       </c>
       <c r="D385" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C385,4)</f>
-        <v>E5DA</v>
+        <v>E5CA</v>
       </c>
       <c r="E385" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C385)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F385" s="0" t="n">
         <f aca="false">C385-C384</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G385" s="11"/>
     </row>
@@ -12262,19 +12298,19 @@
       </c>
       <c r="C386" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B386)</f>
-        <v>58843</v>
+        <v>58837</v>
       </c>
       <c r="D386" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C386,4)</f>
-        <v>E5DB</v>
+        <v>E5D5</v>
       </c>
       <c r="E386" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C386)</f>
-        <v></v>
+        <v></v>
       </c>
       <c r="F386" s="0" t="n">
         <f aca="false">C386-C385</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G386" s="11"/>
     </row>
@@ -12287,54 +12323,204 @@
       </c>
       <c r="C387" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B387)</f>
-        <v>65269</v>
+        <v>58838</v>
       </c>
       <c r="D387" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C387,4)</f>
-        <v>FEF5</v>
+        <v>E5D6</v>
       </c>
       <c r="E387" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C387)</f>
-        <v>ﻵ</v>
+        <v></v>
       </c>
       <c r="F387" s="0" t="n">
         <f aca="false">C387-C386</f>
-        <v>6426</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G387" s="11"/>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="B388" s="9" t="s">
         <v>624</v>
       </c>
       <c r="C388" s="0" t="n">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B388)</f>
-        <v>65275</v>
+        <v>58839</v>
       </c>
       <c r="D388" s="6" t="str">
         <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C388,4)</f>
-        <v>FEFB</v>
+        <v>E5D7</v>
       </c>
       <c r="E388" s="7" t="str">
         <f aca="false">_xlfn.UNICHAR(C388)</f>
-        <v>ﻻ</v>
+        <v></v>
       </c>
       <c r="F388" s="0" t="n">
         <f aca="false">C388-C387</f>
+        <v>1</v>
+      </c>
+      <c r="G388" s="11"/>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B389)</f>
+        <v>58840</v>
+      </c>
+      <c r="D389" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C389,4)</f>
+        <v>E5D8</v>
+      </c>
+      <c r="E389" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C389)</f>
+        <v></v>
+      </c>
+      <c r="F389" s="0" t="n">
+        <f aca="false">C389-C388</f>
+        <v>1</v>
+      </c>
+      <c r="G389" s="11"/>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B390)</f>
+        <v>58841</v>
+      </c>
+      <c r="D390" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C390,4)</f>
+        <v>E5D9</v>
+      </c>
+      <c r="E390" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C390)</f>
+        <v></v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <f aca="false">C390-C389</f>
+        <v>1</v>
+      </c>
+      <c r="G390" s="11"/>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B391)</f>
+        <v>58842</v>
+      </c>
+      <c r="D391" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C391,4)</f>
+        <v>E5DA</v>
+      </c>
+      <c r="E391" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C391)</f>
+        <v></v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <f aca="false">C391-C390</f>
+        <v>1</v>
+      </c>
+      <c r="G391" s="11"/>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B392)</f>
+        <v>58843</v>
+      </c>
+      <c r="D392" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C392,4)</f>
+        <v>E5DB</v>
+      </c>
+      <c r="E392" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C392)</f>
+        <v></v>
+      </c>
+      <c r="F392" s="0" t="n">
+        <f aca="false">C392-C391</f>
+        <v>1</v>
+      </c>
+      <c r="G392" s="11"/>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B393)</f>
+        <v>65269</v>
+      </c>
+      <c r="D393" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C393,4)</f>
+        <v>FEF5</v>
+      </c>
+      <c r="E393" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C393)</f>
+        <v>ﻵ</v>
+      </c>
+      <c r="F393" s="0" t="n">
+        <f aca="false">C393-C392</f>
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getHex2Dec(B394)</f>
+        <v>65275</v>
+      </c>
+      <c r="D394" s="6" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C394,4)</f>
+        <v>FEFB</v>
+      </c>
+      <c r="E394" s="7" t="str">
+        <f aca="false">_xlfn.UNICHAR(C394)</f>
+        <v>ﻻ</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <f aca="false">C394-C393</f>
         <v>6</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B389" s="0"/>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B393" s="10"/>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0"/>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G363:G386"/>
+    <mergeCell ref="G363:G392"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12353,7 +12539,7 @@
   </sheetPr>
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -12363,7 +12549,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="14" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="15" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="16" width="16.9"/>
@@ -12380,85 +12566,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="28" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="29" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
       <c r="K1" s="30" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="32" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="R1" s="32"/>
       <c r="S1" s="32"/>
       <c r="T1" s="33" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="U1" s="33"/>
       <c r="V1" s="33"/>
       <c r="W1" s="34" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="X1" s="34"/>
       <c r="Y1" s="34"/>
       <c r="Z1" s="35" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="35"/>
       <c r="AC1" s="36" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
       <c r="AF1" s="37" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AG1" s="37"/>
       <c r="AH1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="W2" s="21" t="s">
         <v>370</v>
@@ -12524,13 +12710,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="W4" s="21" t="s">
         <v>402</v>
@@ -12539,10 +12725,10 @@
         <v>463</v>
       </c>
       <c r="AC4" s="23" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AD4" s="23" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AF4" s="24" t="s">
         <v>230</v>
@@ -12589,13 +12775,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="W6" s="21" t="s">
         <v>382</v>
@@ -12661,13 +12847,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="W8" s="21" t="s">
         <v>376</v>
@@ -12679,7 +12865,7 @@
         <v>336</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AE8" s="23" t="s">
         <v>336</v>
@@ -12729,49 +12915,49 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="U10" s="20" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="W10" s="21" t="s">
         <v>367</v>
@@ -12789,7 +12975,7 @@
         <v>294</v>
       </c>
       <c r="AD10" s="52" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AE10" s="23" t="s">
         <v>294</v>
@@ -12867,13 +13053,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>369</v>
@@ -12885,7 +13071,7 @@
         <v>290</v>
       </c>
       <c r="AD12" s="23" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AE12" s="23" t="s">
         <v>290</v>
@@ -12935,13 +13121,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="W14" s="21" t="s">
         <v>388</v>
@@ -12997,13 +13183,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="W16" s="21" t="s">
         <v>397</v>
@@ -13065,19 +13251,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="T18" s="20" t="s">
         <v>168</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="W18" s="21" t="s">
         <v>391</v>
@@ -13122,10 +13308,10 @@
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
       <c r="T19" s="54" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="U19" s="46" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="V19" s="46"/>
       <c r="W19" s="47"/>
@@ -13143,13 +13329,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="W20" s="21" t="s">
         <v>393</v>
@@ -13211,13 +13397,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="W22" s="21" t="s">
         <v>389</v>
@@ -13279,13 +13465,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="W24" s="21" t="s">
         <v>404</v>
@@ -13297,7 +13483,7 @@
         <v>331</v>
       </c>
       <c r="AD24" s="23" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AE24" s="23" t="s">
         <v>331</v>
@@ -13347,25 +13533,25 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="W26" s="21" t="s">
         <v>403</v>
@@ -13431,13 +13617,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="W28" s="21" t="s">
         <v>400</v>
@@ -13499,13 +13685,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="W30" s="21" t="s">
         <v>390</v>
@@ -13570,13 +13756,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="W32" s="21" t="s">
         <v>394</v>
@@ -13641,31 +13827,31 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="T34" s="20" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="W34" s="21" t="s">
         <v>371</v>
@@ -13680,19 +13866,19 @@
         <v>310</v>
       </c>
       <c r="AD34" s="52" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="AE34" s="23" t="s">
         <v>310</v>
       </c>
       <c r="AF34" s="24" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="AG34" s="53" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="AH34" s="24" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13701,10 +13887,10 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="40" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="41"/>
@@ -13720,10 +13906,10 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="46" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="U35" s="46" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="V35" s="46"/>
       <c r="W35" s="47"/>
@@ -13741,13 +13927,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="W36" s="21" t="s">
         <v>364</v>
@@ -13762,7 +13948,7 @@
         <v>328</v>
       </c>
       <c r="AD36" s="52" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="AE36" s="23" t="s">
         <v>328</v>
@@ -13826,13 +14012,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="W38" s="21" t="s">
         <v>366</v>
@@ -13888,13 +14074,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="W40" s="21" t="s">
         <v>373</v>
@@ -13953,13 +14139,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="W42" s="21" t="s">
         <v>395</v>
@@ -14021,13 +14207,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="W44" s="21" t="s">
         <v>387</v>
@@ -14089,19 +14275,19 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="W46" s="21" t="s">
         <v>378</v>
@@ -14116,7 +14302,7 @@
         <v>309</v>
       </c>
       <c r="AD46" s="52" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="AE46" s="23" t="s">
         <v>309</v>
@@ -14169,13 +14355,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="W48" s="21" t="s">
         <v>386</v>
@@ -14187,7 +14373,7 @@
         <v>283</v>
       </c>
       <c r="AD48" s="52" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="AE48" s="23" t="s">
         <v>283</v>
@@ -14237,19 +14423,19 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="W50" s="21" t="s">
         <v>398</v>
@@ -14315,25 +14501,25 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="H52" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>715</v>
-      </c>
       <c r="I52" s="16" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="W52" s="21" t="s">
         <v>384</v>
@@ -14348,7 +14534,7 @@
         <v>288</v>
       </c>
       <c r="AD52" s="23" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="AE52" s="23" t="s">
         <v>288</v>
@@ -14395,13 +14581,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B54" s="14" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="D54" s="14" t="n">
         <v>1</v>
@@ -14410,10 +14596,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="I54" s="16" t="n">
         <v>1</v>
@@ -14422,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="M54" s="17" t="n">
         <v>1</v>
@@ -14431,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="U54" s="20" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="V54" s="20" t="n">
         <v>1</v>
@@ -14443,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="AD54" s="23" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="AE54" s="23" t="n">
         <v>1</v>
@@ -14452,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="AG54" s="24" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="AH54" s="24" t="n">
         <v>1</v>
@@ -14461,7 +14647,7 @@
     <row r="55" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="38"/>
       <c r="B55" s="39" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
@@ -14472,13 +14658,13 @@
       <c r="I55" s="41"/>
       <c r="J55" s="41"/>
       <c r="K55" s="42" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="L55" s="42" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="N55" s="43"/>
       <c r="O55" s="43"/>
@@ -14487,13 +14673,13 @@
       <c r="R55" s="44"/>
       <c r="S55" s="44"/>
       <c r="T55" s="46" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="U55" s="46" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="V55" s="46" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="W55" s="47"/>
       <c r="X55" s="47"/>
@@ -14516,13 +14702,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="B56" s="14" t="n">
         <v>2</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="D56" s="14" t="n">
         <v>2</v>
@@ -14570,7 +14756,7 @@
         <v>2</v>
       </c>
       <c r="U56" s="20" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="V56" s="20" t="n">
         <v>2</v>
@@ -14582,7 +14768,7 @@
         <v>2</v>
       </c>
       <c r="AD56" s="23" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="AE56" s="23" t="n">
         <v>2</v>
@@ -14591,7 +14777,7 @@
         <v>2</v>
       </c>
       <c r="AG56" s="24" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="AH56" s="24" t="n">
         <v>2</v>
@@ -14600,7 +14786,7 @@
     <row r="57" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="38"/>
       <c r="B57" s="39" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -14612,29 +14798,29 @@
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="41" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="I57" s="41" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="J57" s="41"/>
       <c r="K57" s="42" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="L57" s="42" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="M57" s="42" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="N57" s="43" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="O57" s="43" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="P57" s="43" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="Q57" s="44"/>
       <c r="R57" s="44"/>
@@ -14675,13 +14861,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="B58" s="14" t="n">
         <v>3</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>3</v>
@@ -14711,7 +14897,7 @@
         <v>3</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="P58" s="18" t="n">
         <v>3</v>
@@ -14729,7 +14915,7 @@
         <v>3</v>
       </c>
       <c r="U58" s="20" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="V58" s="20" t="n">
         <v>3</v>
@@ -14744,7 +14930,7 @@
         <v>3</v>
       </c>
       <c r="AD58" s="23" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="AE58" s="23" t="n">
         <v>3</v>
@@ -14753,7 +14939,7 @@
         <v>3</v>
       </c>
       <c r="AG58" s="24" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="AH58" s="24" t="n">
         <v>3</v>
@@ -14762,7 +14948,7 @@
     <row r="59" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="38"/>
       <c r="B59" s="39" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
@@ -14774,20 +14960,20 @@
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="41" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="I59" s="41" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="J59" s="41"/>
       <c r="K59" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="L59" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="M59" s="42" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="N59" s="43" t="s">
         <v>47</v>
@@ -14802,13 +14988,13 @@
       <c r="R59" s="44"/>
       <c r="S59" s="44"/>
       <c r="T59" s="46" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="U59" s="46" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="V59" s="46" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="W59" s="47"/>
       <c r="X59" s="47"/>
@@ -14829,7 +15015,7 @@
         <v>76</v>
       </c>
       <c r="AG59" s="24" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="AH59" s="24" t="s">
         <v>76</v>
@@ -14837,13 +15023,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="B60" s="14" t="n">
         <v>4</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="D60" s="14" t="n">
         <v>4</v>
@@ -14852,10 +15038,10 @@
         <v>4</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="I60" s="16" t="n">
         <v>4</v>
@@ -14864,7 +15050,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="M60" s="17" t="n">
         <v>4</v>
@@ -14873,7 +15059,7 @@
         <v>4</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="P60" s="18" t="n">
         <v>4</v>
@@ -14882,7 +15068,7 @@
         <v>4</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="V60" s="20" t="n">
         <v>4</v>
@@ -14897,7 +15083,7 @@
         <v>4</v>
       </c>
       <c r="AD60" s="23" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="AE60" s="23" t="n">
         <v>4</v>
@@ -14906,7 +15092,7 @@
         <v>4</v>
       </c>
       <c r="AG60" s="24" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="AH60" s="24" t="n">
         <v>4</v>
@@ -14915,7 +15101,7 @@
     <row r="61" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="38"/>
       <c r="B61" s="39" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
@@ -14923,20 +15109,20 @@
       <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="41" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="I61" s="41" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="J61" s="41"/>
       <c r="K61" s="42" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="L61" s="42" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="M61" s="42" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="N61" s="43" t="s">
         <v>55</v>
@@ -14951,13 +15137,13 @@
       <c r="R61" s="44"/>
       <c r="S61" s="44"/>
       <c r="T61" s="46" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="U61" s="46" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="V61" s="46" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="W61" s="47"/>
       <c r="X61" s="47"/>
@@ -14986,13 +15172,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="B62" s="14" t="n">
         <v>5</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="D62" s="14" t="n">
         <v>5</v>
@@ -15001,10 +15187,10 @@
         <v>5</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="I62" s="16" t="n">
         <v>5</v>
@@ -15013,7 +15199,7 @@
         <v>5</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="M62" s="17" t="n">
         <v>5</v>
@@ -15022,7 +15208,7 @@
         <v>5</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="P62" s="18" t="n">
         <v>5</v>
@@ -15031,7 +15217,7 @@
         <v>5</v>
       </c>
       <c r="U62" s="20" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="V62" s="20" t="n">
         <v>5</v>
@@ -15046,7 +15232,7 @@
         <v>5</v>
       </c>
       <c r="AD62" s="23" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="AE62" s="23" t="n">
         <v>5</v>
@@ -15055,7 +15241,7 @@
         <v>5</v>
       </c>
       <c r="AG62" s="24" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="AH62" s="24" t="n">
         <v>5</v>
@@ -15064,7 +15250,7 @@
     <row r="63" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="38"/>
       <c r="B63" s="39" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
@@ -15072,10 +15258,10 @@
       <c r="F63" s="40"/>
       <c r="G63" s="40"/>
       <c r="H63" s="41" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="I63" s="41" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="J63" s="41"/>
       <c r="K63" s="42" t="s">
@@ -15135,13 +15321,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="B64" s="14" t="n">
         <v>6</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="D64" s="14" t="n">
         <v>6</v>
@@ -15150,10 +15336,10 @@
         <v>6</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="I64" s="16" t="n">
         <v>6</v>
@@ -15162,7 +15348,7 @@
         <v>6</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="M64" s="17" t="n">
         <v>6</v>
@@ -15171,7 +15357,7 @@
         <v>6</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="P64" s="18" t="n">
         <v>6</v>
@@ -15180,7 +15366,7 @@
         <v>6</v>
       </c>
       <c r="R64" s="19" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="S64" s="19" t="n">
         <v>6</v>
@@ -15189,7 +15375,7 @@
         <v>6</v>
       </c>
       <c r="U64" s="20" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="V64" s="20" t="n">
         <v>6</v>
@@ -15204,7 +15390,7 @@
         <v>6</v>
       </c>
       <c r="AD64" s="23" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AE64" s="23" t="n">
         <v>6</v>
@@ -15213,7 +15399,7 @@
         <v>6</v>
       </c>
       <c r="AG64" s="24" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="AH64" s="24" t="n">
         <v>6</v>
@@ -15222,7 +15408,7 @@
     <row r="65" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="38"/>
       <c r="B65" s="39" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
@@ -15230,10 +15416,10 @@
       <c r="F65" s="40"/>
       <c r="G65" s="40"/>
       <c r="H65" s="41" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="J65" s="41"/>
       <c r="K65" s="42" t="s">
@@ -15281,13 +15467,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="B66" s="14" t="n">
         <v>7</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="D66" s="14" t="n">
         <v>7</v>
@@ -15296,7 +15482,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>136</v>
@@ -15308,7 +15494,7 @@
         <v>7</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="M66" s="17" t="n">
         <v>7</v>
@@ -15317,7 +15503,7 @@
         <v>7</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="P66" s="18" t="n">
         <v>7</v>
@@ -15326,7 +15512,7 @@
         <v>7</v>
       </c>
       <c r="R66" s="19" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="S66" s="19" t="n">
         <v>7</v>
@@ -15335,7 +15521,7 @@
         <v>7</v>
       </c>
       <c r="U66" s="20" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="V66" s="20" t="n">
         <v>7</v>
@@ -15350,7 +15536,7 @@
         <v>7</v>
       </c>
       <c r="AD66" s="23" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AE66" s="23" t="n">
         <v>7</v>
@@ -15359,7 +15545,7 @@
         <v>7</v>
       </c>
       <c r="AG66" s="24" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="AH66" s="24" t="n">
         <v>7</v>
@@ -15368,15 +15554,15 @@
     <row r="67" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="38"/>
       <c r="B67" s="39" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="40" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="G67" s="40"/>
       <c r="H67" s="16" t="s">
@@ -15390,25 +15576,25 @@
       <c r="L67" s="42"/>
       <c r="M67" s="42"/>
       <c r="N67" s="43" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="O67" s="43" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="P67" s="43" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="Q67" s="44"/>
       <c r="R67" s="44"/>
       <c r="S67" s="44"/>
       <c r="T67" s="46" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="U67" s="46" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="V67" s="46" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="W67" s="47"/>
       <c r="X67" s="47"/>
@@ -15431,13 +15617,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="B68" s="14" t="n">
         <v>8</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D68" s="14" t="n">
         <v>8</v>
@@ -15446,10 +15632,10 @@
         <v>8</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="I68" s="16" t="n">
         <v>8</v>
@@ -15458,7 +15644,7 @@
         <v>8</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="M68" s="17" t="n">
         <v>8</v>
@@ -15467,7 +15653,7 @@
         <v>8</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="P68" s="18" t="n">
         <v>8</v>
@@ -15476,7 +15662,7 @@
         <v>8</v>
       </c>
       <c r="R68" s="19" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="S68" s="19" t="n">
         <v>8</v>
@@ -15485,7 +15671,7 @@
         <v>8</v>
       </c>
       <c r="U68" s="20" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="V68" s="20" t="n">
         <v>8</v>
@@ -15500,7 +15686,7 @@
         <v>8</v>
       </c>
       <c r="AD68" s="23" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="AE68" s="23" t="n">
         <v>8</v>
@@ -15509,7 +15695,7 @@
         <v>8</v>
       </c>
       <c r="AG68" s="24" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="AH68" s="24" t="n">
         <v>8</v>
@@ -15518,15 +15704,15 @@
     <row r="69" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="38"/>
       <c r="B69" s="39" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="40" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="41" t="s">
@@ -15540,25 +15726,25 @@
       <c r="L69" s="42"/>
       <c r="M69" s="42"/>
       <c r="N69" s="43" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="O69" s="43" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="P69" s="43" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="Q69" s="44"/>
       <c r="R69" s="44"/>
       <c r="S69" s="44"/>
       <c r="T69" s="46" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="U69" s="46" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="V69" s="46" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="W69" s="47"/>
       <c r="X69" s="47"/>
@@ -15587,13 +15773,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="B70" s="14" t="n">
         <v>9</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D70" s="14" t="n">
         <v>9</v>
@@ -15602,7 +15788,7 @@
         <v>9</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="H70" s="57" t="s">
         <v>134</v>
@@ -15615,7 +15801,7 @@
         <v>9</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="M70" s="17" t="n">
         <v>9</v>
@@ -15624,7 +15810,7 @@
         <v>9</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="P70" s="18" t="n">
         <v>9</v>
@@ -15633,7 +15819,7 @@
         <v>9</v>
       </c>
       <c r="R70" s="19" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="S70" s="19" t="n">
         <v>9</v>
@@ -15642,7 +15828,7 @@
         <v>9</v>
       </c>
       <c r="U70" s="20" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="V70" s="20" t="n">
         <v>9</v>
@@ -15657,7 +15843,7 @@
         <v>9</v>
       </c>
       <c r="AD70" s="23" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="AE70" s="23" t="n">
         <v>9</v>
@@ -15666,7 +15852,7 @@
         <v>9</v>
       </c>
       <c r="AG70" s="24" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="AH70" s="24" t="n">
         <v>9</v>
@@ -15675,47 +15861,47 @@
     <row r="71" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="38"/>
       <c r="B71" s="39" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="40" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="F71" s="40" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="41" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="I71" s="41" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="J71" s="41"/>
       <c r="K71" s="42"/>
       <c r="L71" s="42"/>
       <c r="M71" s="42"/>
       <c r="N71" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="O71" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="P71" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="Q71" s="44"/>
       <c r="R71" s="44"/>
       <c r="S71" s="44"/>
       <c r="T71" s="46" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="U71" s="46" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="V71" s="46" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="W71" s="47"/>
       <c r="X71" s="47"/>
@@ -15744,13 +15930,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>12</v>
@@ -15814,7 +16000,7 @@
         <v>12</v>
       </c>
       <c r="AD72" s="23" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="AE72" s="23" t="s">
         <v>12</v>
@@ -15823,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="24" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="AH72" s="24" t="n">
         <v>0</v>
@@ -15832,47 +16018,47 @@
     <row r="73" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="38"/>
       <c r="B73" s="39" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="40" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="41" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="J73" s="41"/>
       <c r="K73" s="42"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
       <c r="N73" s="43" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="O73" s="43" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="P73" s="43" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="Q73" s="44"/>
       <c r="R73" s="44"/>
       <c r="S73" s="44"/>
       <c r="T73" s="46" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="U73" s="46" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="V73" s="46" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="W73" s="47"/>
       <c r="X73" s="47"/>
@@ -15901,7 +16087,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="B74" s="58" t="s">
         <v>431</v>
@@ -15945,10 +16131,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15989,7 +16175,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>410</v>
@@ -16033,7 +16219,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="B80" s="59" t="s">
         <v>425</v>
@@ -16077,7 +16263,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>24</v>
@@ -16121,67 +16307,67 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>126</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="I84" s="57" t="s">
         <v>70</v>
       </c>
       <c r="K84" s="17" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="M84" s="17" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="Q84" s="19" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="R84" s="19" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="S84" s="19" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="T84" s="20" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="U84" s="20" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="V84" s="20" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="Z84" s="22" t="s">
         <v>516</v>
@@ -16190,19 +16376,19 @@
         <v>570</v>
       </c>
       <c r="AF84" s="24" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="AG84" s="24" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="AH84" s="24" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="85" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="38"/>
       <c r="B85" s="39" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
@@ -16216,10 +16402,10 @@
         <v>16</v>
       </c>
       <c r="H85" s="41" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="I85" s="41" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="J85" s="41"/>
       <c r="K85" s="42"/>
@@ -16229,13 +16415,13 @@
       <c r="O85" s="43"/>
       <c r="P85" s="43"/>
       <c r="Q85" s="44" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="R85" s="44" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="S85" s="44" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="T85" s="46" t="s">
         <v>16</v>
@@ -16267,13 +16453,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>14</v>
@@ -16291,7 +16477,7 @@
         <v>14</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="K86" s="17" t="s">
         <v>45</v>
@@ -16321,13 +16507,13 @@
         <v>105</v>
       </c>
       <c r="T86" s="62" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="U86" s="62" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="V86" s="62" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="Z86" s="22" t="s">
         <v>512</v>
@@ -16336,7 +16522,7 @@
         <v>14</v>
       </c>
       <c r="AG86" s="24" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="AH86" s="24" t="s">
         <v>14</v>
@@ -16345,7 +16531,7 @@
     <row r="87" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="38"/>
       <c r="B87" s="39" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
@@ -16353,10 +16539,10 @@
       <c r="F87" s="40"/>
       <c r="G87" s="40"/>
       <c r="H87" s="41" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="I87" s="41" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="J87" s="41"/>
       <c r="K87" s="42"/>
@@ -16375,13 +16561,13 @@
         <v>144</v>
       </c>
       <c r="T87" s="46" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="U87" s="46" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="V87" s="46" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="W87" s="47"/>
       <c r="X87" s="47"/>
@@ -16404,16 +16590,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>160</v>
@@ -16422,7 +16608,7 @@
         <v>124</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="I88" s="57" t="s">
         <v>57</v>
@@ -16431,19 +16617,19 @@
         <v>18</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="M88" s="17" t="s">
         <v>18</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="Q88" s="19" t="s">
         <v>136</v>
@@ -16470,25 +16656,25 @@
         <v>296</v>
       </c>
       <c r="AD88" s="23" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="AE88" s="23" t="s">
         <v>296</v>
       </c>
       <c r="AF88" s="24" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AG88" s="24" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="AH88" s="24" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="38"/>
       <c r="B89" s="39" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
@@ -16499,13 +16685,13 @@
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
       <c r="K89" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="L89" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="M89" s="42" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="N89" s="63" t="s">
         <v>57</v>
@@ -16517,19 +16703,19 @@
         <v>57</v>
       </c>
       <c r="Q89" s="64" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="R89" s="64" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="S89" s="64" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="T89" s="45" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="U89" s="45" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="V89" s="45"/>
       <c r="W89" s="47"/>
@@ -16553,37 +16739,37 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>47</v>
       </c>
       <c r="K90" s="17" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="M90" s="17" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="N90" s="60" t="s">
         <v>78</v>
@@ -16595,13 +16781,13 @@
         <v>78</v>
       </c>
       <c r="Q90" s="61" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="R90" s="61" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="S90" s="61" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="T90" s="62" t="s">
         <v>160</v>
@@ -16620,33 +16806,33 @@
         <v>302</v>
       </c>
       <c r="AD90" s="23" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="AE90" s="23" t="s">
         <v>302</v>
       </c>
       <c r="AF90" s="24" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AG90" s="24" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="AH90" s="24" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="91" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="38"/>
       <c r="B91" s="39" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
       <c r="E91" s="40" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="F91" s="40" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="G91" s="40"/>
       <c r="H91" s="65" t="s">
@@ -16657,37 +16843,37 @@
       </c>
       <c r="J91" s="65"/>
       <c r="K91" s="42" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="L91" s="42" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="M91" s="42" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="N91" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="O91" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="P91" s="43" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="Q91" s="44" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="R91" s="44" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="S91" s="44" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="T91" s="46" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="U91" s="46" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="V91" s="46"/>
       <c r="W91" s="47"/>
@@ -16711,25 +16897,25 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>80</v>
@@ -16741,13 +16927,13 @@
         <v>99</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="Q92" s="19" t="s">
         <v>156</v>
@@ -16759,10 +16945,10 @@
         <v>120</v>
       </c>
       <c r="T92" s="20" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="U92" s="20" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="Z92" s="22" t="s">
         <v>526</v>
@@ -16771,7 +16957,7 @@
         <v>304</v>
       </c>
       <c r="AD92" s="52" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="AE92" s="23" t="s">
         <v>304</v>
@@ -16780,7 +16966,7 @@
         <v>16</v>
       </c>
       <c r="AG92" s="53" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AH92" s="24" t="s">
         <v>16</v>
@@ -16789,7 +16975,7 @@
     <row r="93" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="38"/>
       <c r="B93" s="39" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
@@ -16800,10 +16986,10 @@
       <c r="I93" s="41"/>
       <c r="J93" s="41"/>
       <c r="K93" s="42" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="L93" s="42" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="M93" s="42"/>
       <c r="N93" s="43"/>
@@ -16846,33 +17032,33 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="38"/>
       <c r="B95" s="39" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C95" s="39"/>
       <c r="D95" s="39"/>
       <c r="E95" s="40" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="F95" s="40"/>
       <c r="G95" s="40"/>
@@ -16906,16 +17092,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="E96" s="15" t="s">
         <v>152</v>
@@ -16924,10 +17110,10 @@
         <v>116</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="K96" s="17" t="s">
         <v>146</v>
@@ -16963,7 +17149,7 @@
         <v>329</v>
       </c>
       <c r="AD96" s="23" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="AE96" s="23" t="s">
         <v>329</v>
@@ -16981,7 +17167,7 @@
     <row r="97" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="38"/>
       <c r="B97" s="39" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
@@ -16998,13 +17184,13 @@
       <c r="O97" s="43"/>
       <c r="P97" s="43"/>
       <c r="Q97" s="44" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="R97" s="44" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="S97" s="44" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="T97" s="46" t="s">
         <v>78</v>
@@ -17034,16 +17220,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>130</v>
@@ -17055,7 +17241,7 @@
         <v>120</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="K98" s="17" t="s">
         <v>78</v>
@@ -17085,7 +17271,7 @@
         <v>95</v>
       </c>
       <c r="T98" s="20" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="U98" s="20" t="s">
         <v>166</v>
@@ -17103,13 +17289,13 @@
         <v>311</v>
       </c>
       <c r="AF98" s="24" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="AG98" s="24" t="s">
         <v>8</v>
       </c>
       <c r="AH98" s="24" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="99" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17128,25 +17314,25 @@
       <c r="I99" s="41"/>
       <c r="J99" s="41"/>
       <c r="K99" s="42" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="L99" s="42" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="M99" s="42" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="N99" s="43"/>
       <c r="O99" s="43"/>
       <c r="P99" s="43"/>
       <c r="Q99" s="44" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="R99" s="44" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="S99" s="44" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="T99" s="46"/>
       <c r="U99" s="46"/>
@@ -17166,34 +17352,34 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>70</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>6</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="K100" s="66" t="s">
         <v>86</v>
@@ -17208,7 +17394,7 @@
         <v>16</v>
       </c>
       <c r="O100" s="60" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="P100" s="60" t="s">
         <v>16</v>
@@ -17217,7 +17403,7 @@
         <v>16</v>
       </c>
       <c r="R100" s="61" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="S100" s="61" t="s">
         <v>16</v>
@@ -17233,19 +17419,19 @@
         <v>542</v>
       </c>
       <c r="AC100" s="23" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AD100" s="23" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="AE100" s="23" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AF100" s="24" t="s">
         <v>18</v>
       </c>
       <c r="AG100" s="24" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="AH100" s="24" t="s">
         <v>18</v>
@@ -17254,7 +17440,7 @@
     <row r="101" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="38"/>
       <c r="B101" s="39" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
@@ -17280,10 +17466,10 @@
       <c r="R101" s="44"/>
       <c r="S101" s="44"/>
       <c r="T101" s="46" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="U101" s="46" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="V101" s="46"/>
       <c r="W101" s="47"/>
@@ -17301,13 +17487,13 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>10</v>
@@ -17316,19 +17502,19 @@
         <v>10</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="K102" s="17" t="s">
         <v>10</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="M102" s="17" t="s">
         <v>10</v>
@@ -17337,7 +17523,7 @@
         <v>10</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="P102" s="18" t="s">
         <v>10</v>
@@ -17346,7 +17532,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="19" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="S102" s="19" t="s">
         <v>10</v>
@@ -17376,7 +17562,7 @@
         <v>10</v>
       </c>
       <c r="AG102" s="24" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="AH102" s="24" t="s">
         <v>10</v>
@@ -17385,14 +17571,14 @@
     <row r="103" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="38"/>
       <c r="B103" s="39" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C103" s="39"/>
       <c r="D103" s="39" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="F103" s="40"/>
       <c r="G103" s="40"/>
@@ -17432,55 +17618,55 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="K104" s="17" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="M104" s="17" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="Q104" s="19" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="R104" s="19" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="S104" s="19" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="T104" s="20" t="s">
         <v>134</v>
@@ -17498,30 +17684,30 @@
         <v>306</v>
       </c>
       <c r="AD104" s="23" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="AE104" s="23" t="s">
         <v>306</v>
       </c>
       <c r="AF104" s="24" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="AG104" s="24" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AH104" s="24" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="105" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="38"/>
       <c r="B105" s="39" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="C105" s="39"/>
       <c r="D105" s="39"/>
       <c r="E105" s="40" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="F105" s="40"/>
       <c r="G105" s="40"/>
@@ -17561,67 +17747,67 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="I106" s="16" t="s">
         <v>55</v>
       </c>
       <c r="K106" s="17" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="M106" s="17" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="P106" s="18" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="Q106" s="19" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="R106" s="19" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="S106" s="19" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="T106" s="20" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="U106" s="20" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="V106" s="20" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="Z106" s="22" t="s">
         <v>527</v>
@@ -17639,18 +17825,18 @@
         <v>312</v>
       </c>
       <c r="AF106" s="24" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AG106" s="24" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="AH106" s="24" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="14" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="Q107" s="19" t="s">
         <v>70</v>
@@ -17664,34 +17850,34 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="AC108" s="23" t="s">
         <v>16</v>
       </c>
       <c r="AD108" s="23" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="AE108" s="23" t="s">
         <v>16</v>
@@ -17700,26 +17886,26 @@
     <row r="109" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="38"/>
       <c r="B109" s="39" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="E109" s="40" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="F109" s="40" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="41" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="I109" s="41" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="J109" s="41"/>
       <c r="K109" s="42"/>
@@ -17750,103 +17936,103 @@
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="67"/>
       <c r="B110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="F110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="G110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="I110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="J110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="K110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="L110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="M110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="N110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="O110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="P110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="Q110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="R110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="S110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="T110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="U110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="V110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="W110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="X110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="Y110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="Z110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="AA110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="AB110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="AC110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="AD110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="AE110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="AF110" s="67" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="AG110" s="67" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="AH110" s="67" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17854,57 +18040,57 @@
       <c r="B111" s="67"/>
       <c r="C111" s="67"/>
       <c r="D111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="E111" s="67"/>
       <c r="F111" s="67"/>
       <c r="G111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="H111" s="67"/>
       <c r="I111" s="67"/>
       <c r="J111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="K111" s="67"/>
       <c r="L111" s="67"/>
       <c r="M111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="N111" s="67"/>
       <c r="O111" s="67"/>
       <c r="P111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="Q111" s="67"/>
       <c r="R111" s="67"/>
       <c r="S111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="T111" s="67"/>
       <c r="U111" s="67"/>
       <c r="V111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="W111" s="67"/>
       <c r="X111" s="67"/>
       <c r="Y111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="Z111" s="67"/>
       <c r="AA111" s="67"/>
       <c r="AB111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="AC111" s="67"/>
       <c r="AD111" s="67"/>
       <c r="AE111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="AF111" s="67"/>
       <c r="AG111" s="67"/>
       <c r="AH111" s="68" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17946,57 +18132,57 @@
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="67"/>
       <c r="B113" s="69" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="C113" s="69"/>
       <c r="D113" s="69"/>
       <c r="E113" s="69" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="F113" s="69"/>
       <c r="G113" s="69"/>
       <c r="H113" s="69" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="I113" s="69"/>
       <c r="J113" s="69"/>
       <c r="K113" s="69" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="L113" s="69"/>
       <c r="M113" s="69"/>
       <c r="N113" s="69" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="O113" s="69"/>
       <c r="P113" s="69"/>
       <c r="Q113" s="69" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="R113" s="69"/>
       <c r="S113" s="69"/>
       <c r="T113" s="69" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="U113" s="69"/>
       <c r="V113" s="69"/>
       <c r="W113" s="69" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="X113" s="69"/>
       <c r="Y113" s="69"/>
       <c r="Z113" s="69" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="AA113" s="69"/>
       <c r="AB113" s="69"/>
       <c r="AC113" s="69" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="AD113" s="69"/>
       <c r="AE113" s="69"/>
       <c r="AF113" s="69" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="AG113" s="69"/>
       <c r="AH113" s="69"/>

--- a/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
+++ b/keyboards/handwired/polykybd/split72/keymaps/default/lang/lang_lut.xlsx
@@ -3333,8 +3333,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A513" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H551" activeCellId="0" sqref="H551"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C540" activeCellId="0" sqref="C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13035,7 +13035,10 @@
       <c r="A403" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="B403" s="10"/>
+      <c r="B403" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C403+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F600</v>
+      </c>
       <c r="C403" s="0" t="n">
         <v>62976</v>
       </c>
@@ -13059,7 +13062,10 @@
       <c r="A404" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="B404" s="10"/>
+      <c r="B404" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C404+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F601</v>
+      </c>
       <c r="C404" s="0" t="n">
         <v>62977</v>
       </c>
@@ -13081,7 +13087,10 @@
       <c r="A405" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B405" s="10"/>
+      <c r="B405" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C405+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F602</v>
+      </c>
       <c r="C405" s="0" t="n">
         <v>62978</v>
       </c>
@@ -13103,7 +13112,10 @@
       <c r="A406" s="0" t="s">
         <v>657</v>
       </c>
-      <c r="B406" s="10"/>
+      <c r="B406" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C406+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F603</v>
+      </c>
       <c r="C406" s="0" t="n">
         <v>62979</v>
       </c>
@@ -13125,7 +13137,10 @@
       <c r="A407" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B407" s="10"/>
+      <c r="B407" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C407+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F604</v>
+      </c>
       <c r="C407" s="0" t="n">
         <v>62980</v>
       </c>
@@ -13147,7 +13162,10 @@
       <c r="A408" s="0" t="s">
         <v>659</v>
       </c>
-      <c r="B408" s="10"/>
+      <c r="B408" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C408+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F605</v>
+      </c>
       <c r="C408" s="0" t="n">
         <v>62981</v>
       </c>
@@ -13169,7 +13187,10 @@
       <c r="A409" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="B409" s="10"/>
+      <c r="B409" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C409+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F606</v>
+      </c>
       <c r="C409" s="0" t="n">
         <v>62982</v>
       </c>
@@ -13191,7 +13212,10 @@
       <c r="A410" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="B410" s="10"/>
+      <c r="B410" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C410+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F607</v>
+      </c>
       <c r="C410" s="0" t="n">
         <v>62983</v>
       </c>
@@ -13213,7 +13237,10 @@
       <c r="A411" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="B411" s="10"/>
+      <c r="B411" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C411+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F608</v>
+      </c>
       <c r="C411" s="0" t="n">
         <v>62984</v>
       </c>
@@ -13235,7 +13262,10 @@
       <c r="A412" s="0" t="s">
         <v>663</v>
       </c>
-      <c r="B412" s="10"/>
+      <c r="B412" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C412+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F609</v>
+      </c>
       <c r="C412" s="0" t="n">
         <v>62985</v>
       </c>
@@ -13257,7 +13287,10 @@
       <c r="A413" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="B413" s="10"/>
+      <c r="B413" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C413+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60A</v>
+      </c>
       <c r="C413" s="0" t="n">
         <v>62986</v>
       </c>
@@ -13279,7 +13312,10 @@
       <c r="A414" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="B414" s="10"/>
+      <c r="B414" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C414+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60B</v>
+      </c>
       <c r="C414" s="0" t="n">
         <v>62987</v>
       </c>
@@ -13301,7 +13337,10 @@
       <c r="A415" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="B415" s="10"/>
+      <c r="B415" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C415+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60C</v>
+      </c>
       <c r="C415" s="0" t="n">
         <v>62988</v>
       </c>
@@ -13323,7 +13362,10 @@
       <c r="A416" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="B416" s="10"/>
+      <c r="B416" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C416+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60D</v>
+      </c>
       <c r="C416" s="0" t="n">
         <v>62989</v>
       </c>
@@ -13345,7 +13387,10 @@
       <c r="A417" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="B417" s="10"/>
+      <c r="B417" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C417+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60E</v>
+      </c>
       <c r="C417" s="0" t="n">
         <v>62990</v>
       </c>
@@ -13367,7 +13412,10 @@
       <c r="A418" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="B418" s="10"/>
+      <c r="B418" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C418+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F60F</v>
+      </c>
       <c r="C418" s="0" t="n">
         <v>62991</v>
       </c>
@@ -13389,7 +13437,10 @@
       <c r="A419" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="B419" s="10"/>
+      <c r="B419" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C419+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F610</v>
+      </c>
       <c r="C419" s="0" t="n">
         <v>62992</v>
       </c>
@@ -13411,7 +13462,10 @@
       <c r="A420" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="B420" s="10"/>
+      <c r="B420" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C420+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F611</v>
+      </c>
       <c r="C420" s="0" t="n">
         <v>62993</v>
       </c>
@@ -13433,7 +13487,10 @@
       <c r="A421" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="B421" s="10"/>
+      <c r="B421" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C421+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F612</v>
+      </c>
       <c r="C421" s="0" t="n">
         <v>62994</v>
       </c>
@@ -13455,7 +13512,10 @@
       <c r="A422" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="B422" s="10"/>
+      <c r="B422" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C422+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F613</v>
+      </c>
       <c r="C422" s="0" t="n">
         <v>62995</v>
       </c>
@@ -13477,7 +13537,10 @@
       <c r="A423" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="B423" s="10"/>
+      <c r="B423" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C423+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F614</v>
+      </c>
       <c r="C423" s="0" t="n">
         <v>62996</v>
       </c>
@@ -13499,7 +13562,10 @@
       <c r="A424" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="B424" s="10"/>
+      <c r="B424" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C424+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F615</v>
+      </c>
       <c r="C424" s="0" t="n">
         <v>62997</v>
       </c>
@@ -13521,7 +13587,10 @@
       <c r="A425" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="B425" s="10"/>
+      <c r="B425" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C425+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F616</v>
+      </c>
       <c r="C425" s="0" t="n">
         <v>62998</v>
       </c>
@@ -13543,7 +13612,10 @@
       <c r="A426" s="0" t="s">
         <v>677</v>
       </c>
-      <c r="B426" s="10"/>
+      <c r="B426" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C426+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F617</v>
+      </c>
       <c r="C426" s="0" t="n">
         <v>62999</v>
       </c>
@@ -13565,7 +13637,10 @@
       <c r="A427" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="B427" s="10"/>
+      <c r="B427" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C427+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F618</v>
+      </c>
       <c r="C427" s="0" t="n">
         <v>63000</v>
       </c>
@@ -13587,7 +13662,10 @@
       <c r="A428" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="B428" s="10"/>
+      <c r="B428" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C428+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F619</v>
+      </c>
       <c r="C428" s="0" t="n">
         <v>63001</v>
       </c>
@@ -13609,7 +13687,10 @@
       <c r="A429" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="B429" s="10"/>
+      <c r="B429" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C429+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61A</v>
+      </c>
       <c r="C429" s="0" t="n">
         <v>63002</v>
       </c>
@@ -13631,7 +13712,10 @@
       <c r="A430" s="0" t="s">
         <v>681</v>
       </c>
-      <c r="B430" s="10"/>
+      <c r="B430" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C430+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61B</v>
+      </c>
       <c r="C430" s="0" t="n">
         <v>63003</v>
       </c>
@@ -13653,7 +13737,10 @@
       <c r="A431" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="B431" s="10"/>
+      <c r="B431" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C431+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61C</v>
+      </c>
       <c r="C431" s="0" t="n">
         <v>63004</v>
       </c>
@@ -13675,7 +13762,10 @@
       <c r="A432" s="0" t="s">
         <v>683</v>
       </c>
-      <c r="B432" s="10"/>
+      <c r="B432" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C432+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61D</v>
+      </c>
       <c r="C432" s="0" t="n">
         <v>63005</v>
       </c>
@@ -13697,7 +13787,10 @@
       <c r="A433" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="B433" s="10"/>
+      <c r="B433" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C433+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61E</v>
+      </c>
       <c r="C433" s="0" t="n">
         <v>63006</v>
       </c>
@@ -13719,7 +13812,10 @@
       <c r="A434" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="B434" s="10"/>
+      <c r="B434" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C434+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F61F</v>
+      </c>
       <c r="C434" s="0" t="n">
         <v>63007</v>
       </c>
@@ -13741,7 +13837,10 @@
       <c r="A435" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="B435" s="10"/>
+      <c r="B435" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C435+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F620</v>
+      </c>
       <c r="C435" s="0" t="n">
         <v>63008</v>
       </c>
@@ -13763,7 +13862,10 @@
       <c r="A436" s="0" t="s">
         <v>687</v>
       </c>
-      <c r="B436" s="10"/>
+      <c r="B436" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C436+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F621</v>
+      </c>
       <c r="C436" s="0" t="n">
         <v>63009</v>
       </c>
@@ -13785,7 +13887,10 @@
       <c r="A437" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="B437" s="10"/>
+      <c r="B437" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C437+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F622</v>
+      </c>
       <c r="C437" s="0" t="n">
         <v>63010</v>
       </c>
@@ -13807,7 +13912,10 @@
       <c r="A438" s="0" t="s">
         <v>689</v>
       </c>
-      <c r="B438" s="10"/>
+      <c r="B438" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C438+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F623</v>
+      </c>
       <c r="C438" s="0" t="n">
         <v>63011</v>
       </c>
@@ -13829,7 +13937,10 @@
       <c r="A439" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="B439" s="10"/>
+      <c r="B439" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C439+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F624</v>
+      </c>
       <c r="C439" s="0" t="n">
         <v>63012</v>
       </c>
@@ -13851,7 +13962,10 @@
       <c r="A440" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="B440" s="10"/>
+      <c r="B440" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C440+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F625</v>
+      </c>
       <c r="C440" s="0" t="n">
         <v>63013</v>
       </c>
@@ -13873,7 +13987,10 @@
       <c r="A441" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="B441" s="10"/>
+      <c r="B441" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C441+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F626</v>
+      </c>
       <c r="C441" s="0" t="n">
         <v>63014</v>
       </c>
@@ -13895,7 +14012,10 @@
       <c r="A442" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="B442" s="10"/>
+      <c r="B442" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C442+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F627</v>
+      </c>
       <c r="C442" s="0" t="n">
         <v>63015</v>
       </c>
@@ -13917,7 +14037,10 @@
       <c r="A443" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="B443" s="10"/>
+      <c r="B443" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C443+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F628</v>
+      </c>
       <c r="C443" s="0" t="n">
         <v>63016</v>
       </c>
@@ -13939,7 +14062,10 @@
       <c r="A444" s="0" t="s">
         <v>695</v>
       </c>
-      <c r="B444" s="10"/>
+      <c r="B444" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C444+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F629</v>
+      </c>
       <c r="C444" s="0" t="n">
         <v>63017</v>
       </c>
@@ -13961,7 +14087,10 @@
       <c r="A445" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="B445" s="10"/>
+      <c r="B445" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C445+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62A</v>
+      </c>
       <c r="C445" s="0" t="n">
         <v>63018</v>
       </c>
@@ -13983,7 +14112,10 @@
       <c r="A446" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="B446" s="10"/>
+      <c r="B446" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C446+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62B</v>
+      </c>
       <c r="C446" s="0" t="n">
         <v>63019</v>
       </c>
@@ -14005,7 +14137,10 @@
       <c r="A447" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B447" s="10"/>
+      <c r="B447" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C447+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62C</v>
+      </c>
       <c r="C447" s="0" t="n">
         <v>63020</v>
       </c>
@@ -14027,7 +14162,10 @@
       <c r="A448" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="B448" s="10"/>
+      <c r="B448" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C448+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62D</v>
+      </c>
       <c r="C448" s="0" t="n">
         <v>63021</v>
       </c>
@@ -14049,7 +14187,10 @@
       <c r="A449" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="B449" s="10"/>
+      <c r="B449" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C449+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62E</v>
+      </c>
       <c r="C449" s="0" t="n">
         <v>63022</v>
       </c>
@@ -14071,7 +14212,10 @@
       <c r="A450" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="B450" s="10"/>
+      <c r="B450" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C450+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F62F</v>
+      </c>
       <c r="C450" s="0" t="n">
         <v>63023</v>
       </c>
@@ -14093,7 +14237,10 @@
       <c r="A451" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="B451" s="10"/>
+      <c r="B451" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C451+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F630</v>
+      </c>
       <c r="C451" s="0" t="n">
         <v>63024</v>
       </c>
@@ -14115,7 +14262,10 @@
       <c r="A452" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="B452" s="10"/>
+      <c r="B452" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C452+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F631</v>
+      </c>
       <c r="C452" s="0" t="n">
         <v>63025</v>
       </c>
@@ -14137,7 +14287,10 @@
       <c r="A453" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="B453" s="10"/>
+      <c r="B453" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C453+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F632</v>
+      </c>
       <c r="C453" s="0" t="n">
         <v>63026</v>
       </c>
@@ -14159,7 +14312,10 @@
       <c r="A454" s="0" t="s">
         <v>705</v>
       </c>
-      <c r="B454" s="10"/>
+      <c r="B454" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C454+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F633</v>
+      </c>
       <c r="C454" s="0" t="n">
         <v>63027</v>
       </c>
@@ -14181,7 +14337,10 @@
       <c r="A455" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="B455" s="10"/>
+      <c r="B455" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C455+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F634</v>
+      </c>
       <c r="C455" s="0" t="n">
         <v>63028</v>
       </c>
@@ -14203,7 +14362,10 @@
       <c r="A456" s="0" t="s">
         <v>707</v>
       </c>
-      <c r="B456" s="10"/>
+      <c r="B456" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C456+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F635</v>
+      </c>
       <c r="C456" s="0" t="n">
         <v>63029</v>
       </c>
@@ -14225,7 +14387,10 @@
       <c r="A457" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B457" s="10"/>
+      <c r="B457" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C457+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F636</v>
+      </c>
       <c r="C457" s="0" t="n">
         <v>63030</v>
       </c>
@@ -14247,7 +14412,10 @@
       <c r="A458" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="B458" s="10"/>
+      <c r="B458" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C458+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F637</v>
+      </c>
       <c r="C458" s="0" t="n">
         <v>63031</v>
       </c>
@@ -14269,7 +14437,10 @@
       <c r="A459" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="B459" s="10"/>
+      <c r="B459" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C459+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F638</v>
+      </c>
       <c r="C459" s="0" t="n">
         <v>63032</v>
       </c>
@@ -14291,7 +14462,10 @@
       <c r="A460" s="0" t="s">
         <v>711</v>
       </c>
-      <c r="B460" s="10"/>
+      <c r="B460" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C460+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F639</v>
+      </c>
       <c r="C460" s="0" t="n">
         <v>63033</v>
       </c>
@@ -14313,7 +14487,10 @@
       <c r="A461" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="B461" s="10"/>
+      <c r="B461" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C461+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F644</v>
+      </c>
       <c r="C461" s="0" t="n">
         <v>63044</v>
       </c>
@@ -14335,7 +14512,10 @@
       <c r="A462" s="0" t="s">
         <v>713</v>
       </c>
-      <c r="B462" s="10"/>
+      <c r="B462" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C462+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F645</v>
+      </c>
       <c r="C462" s="0" t="n">
         <v>63045</v>
       </c>
@@ -14357,7 +14537,10 @@
       <c r="A463" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="B463" s="10"/>
+      <c r="B463" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C463+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F646</v>
+      </c>
       <c r="C463" s="0" t="n">
         <v>63046</v>
       </c>
@@ -14379,7 +14562,10 @@
       <c r="A464" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="B464" s="10"/>
+      <c r="B464" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C464+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F647</v>
+      </c>
       <c r="C464" s="0" t="n">
         <v>63047</v>
       </c>
@@ -14401,7 +14587,10 @@
       <c r="A465" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="B465" s="10"/>
+      <c r="B465" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C465+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F648</v>
+      </c>
       <c r="C465" s="0" t="n">
         <v>63048</v>
       </c>
@@ -14423,7 +14612,10 @@
       <c r="A466" s="0" t="s">
         <v>717</v>
       </c>
-      <c r="B466" s="10"/>
+      <c r="B466" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C466+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F649</v>
+      </c>
       <c r="C466" s="0" t="n">
         <v>63049</v>
       </c>
@@ -14445,7 +14637,10 @@
       <c r="A467" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B467" s="10"/>
+      <c r="B467" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C467+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64A</v>
+      </c>
       <c r="C467" s="0" t="n">
         <v>63050</v>
       </c>
@@ -14467,7 +14662,10 @@
       <c r="A468" s="0" t="s">
         <v>719</v>
       </c>
-      <c r="B468" s="10"/>
+      <c r="B468" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C468+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64B</v>
+      </c>
       <c r="C468" s="0" t="n">
         <v>63051</v>
       </c>
@@ -14489,7 +14687,10 @@
       <c r="A469" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="B469" s="10"/>
+      <c r="B469" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C469+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64C</v>
+      </c>
       <c r="C469" s="0" t="n">
         <v>63052</v>
       </c>
@@ -14511,7 +14712,10 @@
       <c r="A470" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="B470" s="10"/>
+      <c r="B470" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C470+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64D</v>
+      </c>
       <c r="C470" s="0" t="n">
         <v>63053</v>
       </c>
@@ -14533,7 +14737,10 @@
       <c r="A471" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="B471" s="10"/>
+      <c r="B471" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C471+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64E</v>
+      </c>
       <c r="C471" s="0" t="n">
         <v>63054</v>
       </c>
@@ -14555,7 +14762,10 @@
       <c r="A472" s="0" t="s">
         <v>723</v>
       </c>
-      <c r="B472" s="10"/>
+      <c r="B472" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C472+com.sun.star.sheet.addin.Analysis.getHex2Dec(10000))</f>
+        <v>1F64F</v>
+      </c>
       <c r="C472" s="0" t="n">
         <v>63055</v>
       </c>
@@ -14578,7 +14788,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C473+64768))</f>
         <v>PRIVATE_EMOJI_1F440</v>
       </c>
-      <c r="B473" s="10"/>
+      <c r="B473" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C473+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F440</v>
+      </c>
       <c r="C473" s="0" t="n">
         <v>63296</v>
       </c>
@@ -14603,7 +14816,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C474+64768))</f>
         <v>PRIVATE_EMOJI_1F441</v>
       </c>
-      <c r="B474" s="10"/>
+      <c r="B474" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C474+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F441</v>
+      </c>
       <c r="C474" s="0" t="n">
         <v>63297</v>
       </c>
@@ -14626,7 +14842,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C475+64768))</f>
         <v>PRIVATE_EMOJI_1F442</v>
       </c>
-      <c r="B475" s="10"/>
+      <c r="B475" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C475+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F442</v>
+      </c>
       <c r="C475" s="0" t="n">
         <v>63298</v>
       </c>
@@ -14649,7 +14868,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C476+64768))</f>
         <v>PRIVATE_EMOJI_1F443</v>
       </c>
-      <c r="B476" s="10"/>
+      <c r="B476" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C476+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F443</v>
+      </c>
       <c r="C476" s="0" t="n">
         <v>63299</v>
       </c>
@@ -14672,7 +14894,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C477+64768))</f>
         <v>PRIVATE_EMOJI_1F444</v>
       </c>
-      <c r="B477" s="10"/>
+      <c r="B477" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C477+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F444</v>
+      </c>
       <c r="C477" s="0" t="n">
         <v>63300</v>
       </c>
@@ -14695,7 +14920,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C478+64768))</f>
         <v>PRIVATE_EMOJI_1F445</v>
       </c>
-      <c r="B478" s="10"/>
+      <c r="B478" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C478+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F445</v>
+      </c>
       <c r="C478" s="0" t="n">
         <v>63301</v>
       </c>
@@ -14718,7 +14946,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C479+64768))</f>
         <v>PRIVATE_EMOJI_1F446</v>
       </c>
-      <c r="B479" s="10"/>
+      <c r="B479" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C479+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F446</v>
+      </c>
       <c r="C479" s="0" t="n">
         <v>63302</v>
       </c>
@@ -14741,7 +14972,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C480+64768))</f>
         <v>PRIVATE_EMOJI_1F447</v>
       </c>
-      <c r="B480" s="10"/>
+      <c r="B480" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C480+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F447</v>
+      </c>
       <c r="C480" s="0" t="n">
         <v>63303</v>
       </c>
@@ -14764,7 +14998,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C481+64768))</f>
         <v>PRIVATE_EMOJI_1F448</v>
       </c>
-      <c r="B481" s="10"/>
+      <c r="B481" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C481+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F448</v>
+      </c>
       <c r="C481" s="0" t="n">
         <v>63304</v>
       </c>
@@ -14787,7 +15024,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C482+64768))</f>
         <v>PRIVATE_EMOJI_1F449</v>
       </c>
-      <c r="B482" s="10"/>
+      <c r="B482" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C482+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F449</v>
+      </c>
       <c r="C482" s="0" t="n">
         <v>63305</v>
       </c>
@@ -14810,7 +15050,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C483+64768))</f>
         <v>PRIVATE_EMOJI_1F44A</v>
       </c>
-      <c r="B483" s="10"/>
+      <c r="B483" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C483+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44A</v>
+      </c>
       <c r="C483" s="0" t="n">
         <v>63306</v>
       </c>
@@ -14833,7 +15076,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C484+64768))</f>
         <v>PRIVATE_EMOJI_1F44B</v>
       </c>
-      <c r="B484" s="10"/>
+      <c r="B484" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C484+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44B</v>
+      </c>
       <c r="C484" s="0" t="n">
         <v>63307</v>
       </c>
@@ -14856,7 +15102,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C485+64768))</f>
         <v>PRIVATE_EMOJI_1F44C</v>
       </c>
-      <c r="B485" s="10"/>
+      <c r="B485" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C485+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44C</v>
+      </c>
       <c r="C485" s="0" t="n">
         <v>63308</v>
       </c>
@@ -14879,7 +15128,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C486+64768))</f>
         <v>PRIVATE_EMOJI_1F44D</v>
       </c>
-      <c r="B486" s="10"/>
+      <c r="B486" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C486+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44D</v>
+      </c>
       <c r="C486" s="0" t="n">
         <v>63309</v>
       </c>
@@ -14902,7 +15154,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C487+64768))</f>
         <v>PRIVATE_EMOJI_1F44E</v>
       </c>
-      <c r="B487" s="10"/>
+      <c r="B487" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C487+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44E</v>
+      </c>
       <c r="C487" s="0" t="n">
         <v>63310</v>
       </c>
@@ -14925,7 +15180,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C488+64768))</f>
         <v>PRIVATE_EMOJI_1F44F</v>
       </c>
-      <c r="B488" s="10"/>
+      <c r="B488" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C488+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F44F</v>
+      </c>
       <c r="C488" s="0" t="n">
         <v>63311</v>
       </c>
@@ -14948,7 +15206,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C489+64768))</f>
         <v>PRIVATE_EMOJI_1F450</v>
       </c>
-      <c r="B489" s="10"/>
+      <c r="B489" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C489+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F450</v>
+      </c>
       <c r="C489" s="0" t="n">
         <v>63312</v>
       </c>
@@ -14971,7 +15232,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C490+64768))</f>
         <v>PRIVATE_EMOJI_1F451</v>
       </c>
-      <c r="B490" s="10"/>
+      <c r="B490" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C490+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F451</v>
+      </c>
       <c r="C490" s="0" t="n">
         <v>63313</v>
       </c>
@@ -14994,7 +15258,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C491+64768))</f>
         <v>PRIVATE_EMOJI_1F452</v>
       </c>
-      <c r="B491" s="10"/>
+      <c r="B491" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C491+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F452</v>
+      </c>
       <c r="C491" s="0" t="n">
         <v>63314</v>
       </c>
@@ -15017,7 +15284,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C492+64768))</f>
         <v>PRIVATE_EMOJI_1F453</v>
       </c>
-      <c r="B492" s="10"/>
+      <c r="B492" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C492+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F453</v>
+      </c>
       <c r="C492" s="0" t="n">
         <v>63315</v>
       </c>
@@ -15040,7 +15310,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C493+64768))</f>
         <v>PRIVATE_EMOJI_1F47B</v>
       </c>
-      <c r="B493" s="10"/>
+      <c r="B493" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C493+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F47B</v>
+      </c>
       <c r="C493" s="0" t="n">
         <f aca="false">128123-64768</f>
         <v>63355</v>
@@ -15064,7 +15337,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C494+64768))</f>
         <v>PRIVATE_EMOJI_1F47C</v>
       </c>
-      <c r="B494" s="10"/>
+      <c r="B494" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C494+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F47C</v>
+      </c>
       <c r="C494" s="0" t="n">
         <v>63356</v>
       </c>
@@ -15087,7 +15363,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C495+64768))</f>
         <v>PRIVATE_EMOJI_1F47D</v>
       </c>
-      <c r="B495" s="10"/>
+      <c r="B495" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C495+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F47D</v>
+      </c>
       <c r="C495" s="0" t="n">
         <v>63357</v>
       </c>
@@ -15110,7 +15389,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C496+64768))</f>
         <v>PRIVATE_EMOJI_1F47E</v>
       </c>
-      <c r="B496" s="10"/>
+      <c r="B496" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C496+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F47E</v>
+      </c>
       <c r="C496" s="0" t="n">
         <v>63358</v>
       </c>
@@ -15133,7 +15415,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C497+64768))</f>
         <v>PRIVATE_EMOJI_1F47F</v>
       </c>
-      <c r="B497" s="10"/>
+      <c r="B497" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C497+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F47F</v>
+      </c>
       <c r="C497" s="0" t="n">
         <v>63359</v>
       </c>
@@ -15156,7 +15441,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C498+64768))</f>
         <v>PRIVATE_EMOJI_1F480</v>
       </c>
-      <c r="B498" s="10"/>
+      <c r="B498" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C498+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F480</v>
+      </c>
       <c r="C498" s="0" t="n">
         <v>63360</v>
       </c>
@@ -15179,7 +15467,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C499+64768))</f>
         <v>PRIVATE_EMOJI_1F481</v>
       </c>
-      <c r="B499" s="10"/>
+      <c r="B499" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C499+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F481</v>
+      </c>
       <c r="C499" s="0" t="n">
         <v>63361</v>
       </c>
@@ -15202,7 +15493,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C500+64768))</f>
         <v>PRIVATE_EMOJI_1F482</v>
       </c>
-      <c r="B500" s="10"/>
+      <c r="B500" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C500+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F482</v>
+      </c>
       <c r="C500" s="0" t="n">
         <v>63362</v>
       </c>
@@ -15225,7 +15519,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C501+64768))</f>
         <v>PRIVATE_EMOJI_1F483</v>
       </c>
-      <c r="B501" s="10"/>
+      <c r="B501" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C501+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F483</v>
+      </c>
       <c r="C501" s="0" t="n">
         <v>63363</v>
       </c>
@@ -15248,7 +15545,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C502+64768))</f>
         <v>PRIVATE_EMOJI_1F484</v>
       </c>
-      <c r="B502" s="10"/>
+      <c r="B502" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C502+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F484</v>
+      </c>
       <c r="C502" s="0" t="n">
         <v>63364</v>
       </c>
@@ -15271,7 +15571,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C503+64768))</f>
         <v>PRIVATE_EMOJI_1F485</v>
       </c>
-      <c r="B503" s="10"/>
+      <c r="B503" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C503+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F485</v>
+      </c>
       <c r="C503" s="0" t="n">
         <v>63365</v>
       </c>
@@ -15294,7 +15597,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C504+64768))</f>
         <v>PRIVATE_EMOJI_1F489</v>
       </c>
-      <c r="B504" s="10"/>
+      <c r="B504" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C504+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F489</v>
+      </c>
       <c r="C504" s="0" t="n">
         <v>63369</v>
       </c>
@@ -15317,7 +15623,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C505+64768))</f>
         <v>PRIVATE_EMOJI_1F48A</v>
       </c>
-      <c r="B505" s="10"/>
+      <c r="B505" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C505+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48A</v>
+      </c>
       <c r="C505" s="0" t="n">
         <v>63370</v>
       </c>
@@ -15340,7 +15649,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C506+64768))</f>
         <v>PRIVATE_EMOJI_1F48B</v>
       </c>
-      <c r="B506" s="10"/>
+      <c r="B506" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C506+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48B</v>
+      </c>
       <c r="C506" s="0" t="n">
         <v>63371</v>
       </c>
@@ -15363,7 +15675,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C507+64768))</f>
         <v>PRIVATE_EMOJI_1F48C</v>
       </c>
-      <c r="B507" s="10"/>
+      <c r="B507" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C507+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48C</v>
+      </c>
       <c r="C507" s="0" t="n">
         <v>63372</v>
       </c>
@@ -15386,7 +15701,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C508+64768))</f>
         <v>PRIVATE_EMOJI_1F48D</v>
       </c>
-      <c r="B508" s="10"/>
+      <c r="B508" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C508+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48D</v>
+      </c>
       <c r="C508" s="0" t="n">
         <v>63373</v>
       </c>
@@ -15409,7 +15727,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C509+64768))</f>
         <v>PRIVATE_EMOJI_1F48E</v>
       </c>
-      <c r="B509" s="10"/>
+      <c r="B509" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C509+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48E</v>
+      </c>
       <c r="C509" s="0" t="n">
         <v>63374</v>
       </c>
@@ -15432,7 +15753,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C510+64768))</f>
         <v>PRIVATE_EMOJI_1F48F</v>
       </c>
-      <c r="B510" s="10"/>
+      <c r="B510" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C510+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F48F</v>
+      </c>
       <c r="C510" s="0" t="n">
         <v>63375</v>
       </c>
@@ -15455,7 +15779,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C511+64768))</f>
         <v>PRIVATE_EMOJI_1F490</v>
       </c>
-      <c r="B511" s="10"/>
+      <c r="B511" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C511+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F490</v>
+      </c>
       <c r="C511" s="0" t="n">
         <v>63376</v>
       </c>
@@ -15478,7 +15805,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C512+64768))</f>
         <v>PRIVATE_EMOJI_1F491</v>
       </c>
-      <c r="B512" s="10"/>
+      <c r="B512" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C512+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F491</v>
+      </c>
       <c r="C512" s="0" t="n">
         <v>63377</v>
       </c>
@@ -15501,7 +15831,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C513+64768))</f>
         <v>PRIVATE_EMOJI_1F492</v>
       </c>
-      <c r="B513" s="10"/>
+      <c r="B513" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C513+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F492</v>
+      </c>
       <c r="C513" s="0" t="n">
         <v>63378</v>
       </c>
@@ -15524,7 +15857,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C514+64768))</f>
         <v>PRIVATE_EMOJI_1F493</v>
       </c>
-      <c r="B514" s="10"/>
+      <c r="B514" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C514+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F493</v>
+      </c>
       <c r="C514" s="0" t="n">
         <v>63379</v>
       </c>
@@ -15547,7 +15883,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C515+64768))</f>
         <v>PRIVATE_EMOJI_1F494</v>
       </c>
-      <c r="B515" s="10"/>
+      <c r="B515" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C515+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F494</v>
+      </c>
       <c r="C515" s="0" t="n">
         <v>63380</v>
       </c>
@@ -15570,7 +15909,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C516+64768))</f>
         <v>PRIVATE_EMOJI_1F495</v>
       </c>
-      <c r="B516" s="10"/>
+      <c r="B516" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C516+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F495</v>
+      </c>
       <c r="C516" s="0" t="n">
         <v>63381</v>
       </c>
@@ -15593,7 +15935,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C517+64768))</f>
         <v>PRIVATE_EMOJI_1F496</v>
       </c>
-      <c r="B517" s="10"/>
+      <c r="B517" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C517+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F496</v>
+      </c>
       <c r="C517" s="0" t="n">
         <v>63382</v>
       </c>
@@ -15616,7 +15961,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C518+64768))</f>
         <v>PRIVATE_EMOJI_1F4A1</v>
       </c>
-      <c r="B518" s="10"/>
+      <c r="B518" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C518+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A1</v>
+      </c>
       <c r="C518" s="0" t="n">
         <f aca="false">128161-64768</f>
         <v>63393</v>
@@ -15640,7 +15988,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C519+64768))</f>
         <v>PRIVATE_EMOJI_1F4A2</v>
       </c>
-      <c r="B519" s="10"/>
+      <c r="B519" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C519+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A2</v>
+      </c>
       <c r="C519" s="0" t="n">
         <v>63394</v>
       </c>
@@ -15663,7 +16014,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C520+64768))</f>
         <v>PRIVATE_EMOJI_1F4A3</v>
       </c>
-      <c r="B520" s="10"/>
+      <c r="B520" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C520+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A3</v>
+      </c>
       <c r="C520" s="0" t="n">
         <v>63395</v>
       </c>
@@ -15686,7 +16040,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C521+64768))</f>
         <v>PRIVATE_EMOJI_1F4A4</v>
       </c>
-      <c r="B521" s="10"/>
+      <c r="B521" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C521+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A4</v>
+      </c>
       <c r="C521" s="0" t="n">
         <v>63396</v>
       </c>
@@ -15709,7 +16066,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C522+64768))</f>
         <v>PRIVATE_EMOJI_1F4A5</v>
       </c>
-      <c r="B522" s="10"/>
+      <c r="B522" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C522+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A5</v>
+      </c>
       <c r="C522" s="0" t="n">
         <v>63397</v>
       </c>
@@ -15732,7 +16092,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C523+64768))</f>
         <v>PRIVATE_EMOJI_1F4A6</v>
       </c>
-      <c r="B523" s="10"/>
+      <c r="B523" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C523+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A6</v>
+      </c>
       <c r="C523" s="0" t="n">
         <v>63398</v>
       </c>
@@ -15755,7 +16118,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C524+64768))</f>
         <v>PRIVATE_EMOJI_1F4A7</v>
       </c>
-      <c r="B524" s="10"/>
+      <c r="B524" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C524+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A7</v>
+      </c>
       <c r="C524" s="0" t="n">
         <v>63399</v>
       </c>
@@ -15778,7 +16144,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C525+64768))</f>
         <v>PRIVATE_EMOJI_1F4A8</v>
       </c>
-      <c r="B525" s="10"/>
+      <c r="B525" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C525+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A8</v>
+      </c>
       <c r="C525" s="0" t="n">
         <v>63400</v>
       </c>
@@ -15801,7 +16170,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C526+64768))</f>
         <v>PRIVATE_EMOJI_1F4A9</v>
       </c>
-      <c r="B526" s="10"/>
+      <c r="B526" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C526+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4A9</v>
+      </c>
       <c r="C526" s="0" t="n">
         <v>63401</v>
       </c>
@@ -15824,7 +16196,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C527+64768))</f>
         <v>PRIVATE_EMOJI_1F4AA</v>
       </c>
-      <c r="B527" s="10"/>
+      <c r="B527" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C527+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AA</v>
+      </c>
       <c r="C527" s="0" t="n">
         <v>63402</v>
       </c>
@@ -15847,7 +16222,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C528+64768))</f>
         <v>PRIVATE_EMOJI_1F4AB</v>
       </c>
-      <c r="B528" s="10"/>
+      <c r="B528" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C528+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AB</v>
+      </c>
       <c r="C528" s="0" t="n">
         <v>63403</v>
       </c>
@@ -15870,7 +16248,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C529+64768))</f>
         <v>PRIVATE_EMOJI_1F4AC</v>
       </c>
-      <c r="B529" s="10"/>
+      <c r="B529" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C529+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AC</v>
+      </c>
       <c r="C529" s="0" t="n">
         <v>63404</v>
       </c>
@@ -15893,7 +16274,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C530+64768))</f>
         <v>PRIVATE_EMOJI_1F4AD</v>
       </c>
-      <c r="B530" s="10"/>
+      <c r="B530" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C530+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AD</v>
+      </c>
       <c r="C530" s="0" t="n">
         <v>63405</v>
       </c>
@@ -15916,7 +16300,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C531+64768))</f>
         <v>PRIVATE_EMOJI_1F4AE</v>
       </c>
-      <c r="B531" s="10"/>
+      <c r="B531" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C531+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AE</v>
+      </c>
       <c r="C531" s="0" t="n">
         <v>63406</v>
       </c>
@@ -15939,7 +16326,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C532+64768))</f>
         <v>PRIVATE_EMOJI_1F4AF</v>
       </c>
-      <c r="B532" s="10"/>
+      <c r="B532" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C532+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4AF</v>
+      </c>
       <c r="C532" s="0" t="n">
         <v>63407</v>
       </c>
@@ -15962,7 +16352,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C533+64768))</f>
         <v>PRIVATE_EMOJI_1F4B0</v>
       </c>
-      <c r="B533" s="10"/>
+      <c r="B533" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C533+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4B0</v>
+      </c>
       <c r="C533" s="0" t="n">
         <v>63408</v>
       </c>
@@ -15985,7 +16378,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C534+64768))</f>
         <v>PRIVATE_EMOJI_1F4B1</v>
       </c>
-      <c r="B534" s="10"/>
+      <c r="B534" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C534+com.sun.star.sheet.addin.Analysis.getHex2Dec("fd00"))</f>
+        <v>1F4B1</v>
+      </c>
       <c r="C534" s="0" t="n">
         <v>63409</v>
       </c>
@@ -16008,7 +16404,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C535+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F912</v>
       </c>
-      <c r="B535" s="10"/>
+      <c r="B535" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C535+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F912</v>
+      </c>
       <c r="C535" s="0" t="n">
         <f aca="false">129298-com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)</f>
         <v>63506</v>
@@ -16034,7 +16433,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C536+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F913</v>
       </c>
-      <c r="B536" s="10"/>
+      <c r="B536" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C536+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F913</v>
+      </c>
       <c r="C536" s="0" t="n">
         <v>63507</v>
       </c>
@@ -16057,7 +16459,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C537+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F914</v>
       </c>
-      <c r="B537" s="10"/>
+      <c r="B537" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C537+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F914</v>
+      </c>
       <c r="C537" s="0" t="n">
         <v>63508</v>
       </c>
@@ -16080,7 +16485,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C538+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F915</v>
       </c>
-      <c r="B538" s="10"/>
+      <c r="B538" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C538+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F915</v>
+      </c>
       <c r="C538" s="0" t="n">
         <v>63509</v>
       </c>
@@ -16103,7 +16511,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C539+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F916</v>
       </c>
-      <c r="B539" s="10"/>
+      <c r="B539" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C539+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F916</v>
+      </c>
       <c r="C539" s="0" t="n">
         <v>63510</v>
       </c>
@@ -16126,7 +16537,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C540+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F917</v>
       </c>
-      <c r="B540" s="10"/>
+      <c r="B540" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C540+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F917</v>
+      </c>
       <c r="C540" s="0" t="n">
         <v>63511</v>
       </c>
@@ -16149,7 +16563,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C541+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F918</v>
       </c>
-      <c r="B541" s="10"/>
+      <c r="B541" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C541+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F918</v>
+      </c>
       <c r="C541" s="0" t="n">
         <v>63512</v>
       </c>
@@ -16172,7 +16589,10 @@
         <f aca="false">_xlfn.TEXTJOIN( , ,"PRIVATE_EMOJI_",com.sun.star.sheet.addin.Analysis.getDec2Hex(C542+com.sun.star.sheet.addin.Analysis.getHex2Dec(10100)))</f>
         <v>PRIVATE_EMOJI_1F919</v>
       </c>
-      <c r="B542" s="10"/>
+      <c r="B542" s="10" t="str">
+        <f aca="false">com.sun.star.sheet.addin.Analysis.getDec2Hex(C542+com.sun.star.sheet.addin.Analysis.getHex2Dec("10100"))</f>
+        <v>1F919</v>
+      </c>
       <c r="C542" s="0" t="n">
         <v>63513</v>
       </c>
